--- a/analysis/data/raw_data/data_measurements_01.xlsx
+++ b/analysis/data/raw_data/data_measurements_01.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="747">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">size_category</t>
   </si>
   <si>
-    <t xml:space="preserve">rim_categroy</t>
+    <t xml:space="preserve">rim_category</t>
   </si>
   <si>
     <t xml:space="preserve">base_category</t>
@@ -1692,9 +1692,6 @@
   </si>
   <si>
     <t xml:space="preserve">V449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC</t>
   </si>
   <si>
     <t xml:space="preserve">V450</t>
@@ -26010,7 +26007,7 @@
         <v>22</v>
       </c>
       <c r="H448" t="s">
-        <v>560</v>
+        <v>128</v>
       </c>
       <c r="I448" t="s">
         <v>306</v>
@@ -26049,7 +26046,7 @@
         <v>517</v>
       </c>
       <c r="C449" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D449" t="s">
         <v>519</v>
@@ -26103,7 +26100,7 @@
         <v>517</v>
       </c>
       <c r="C450" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D450" t="s">
         <v>519</v>
@@ -26157,7 +26154,7 @@
         <v>517</v>
       </c>
       <c r="C451" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D451" t="s">
         <v>519</v>
@@ -26209,7 +26206,7 @@
         <v>517</v>
       </c>
       <c r="C452" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D452" t="s">
         <v>519</v>
@@ -26261,7 +26258,7 @@
         <v>517</v>
       </c>
       <c r="C453" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D453" t="s">
         <v>519</v>
@@ -26313,7 +26310,7 @@
         <v>517</v>
       </c>
       <c r="C454" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D454" t="s">
         <v>519</v>
@@ -26365,7 +26362,7 @@
         <v>517</v>
       </c>
       <c r="C455" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D455" t="s">
         <v>519</v>
@@ -26417,7 +26414,7 @@
         <v>517</v>
       </c>
       <c r="C456" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D456" t="s">
         <v>519</v>
@@ -26469,7 +26466,7 @@
         <v>517</v>
       </c>
       <c r="C457" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D457" t="s">
         <v>519</v>
@@ -26521,7 +26518,7 @@
         <v>517</v>
       </c>
       <c r="C458" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D458" t="s">
         <v>519</v>
@@ -26573,7 +26570,7 @@
         <v>517</v>
       </c>
       <c r="C459" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D459" t="s">
         <v>519</v>
@@ -26625,7 +26622,7 @@
         <v>517</v>
       </c>
       <c r="C460" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D460" t="s">
         <v>519</v>
@@ -26677,7 +26674,7 @@
         <v>517</v>
       </c>
       <c r="C461" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D461" t="s">
         <v>519</v>
@@ -26729,7 +26726,7 @@
         <v>517</v>
       </c>
       <c r="C462" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D462" t="s">
         <v>519</v>
@@ -26781,7 +26778,7 @@
         <v>517</v>
       </c>
       <c r="C463" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D463" t="s">
         <v>519</v>
@@ -26833,7 +26830,7 @@
         <v>517</v>
       </c>
       <c r="C464" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D464" t="s">
         <v>519</v>
@@ -26885,7 +26882,7 @@
         <v>517</v>
       </c>
       <c r="C465" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D465" t="s">
         <v>519</v>
@@ -26937,7 +26934,7 @@
         <v>517</v>
       </c>
       <c r="C466" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D466" t="s">
         <v>519</v>
@@ -26989,7 +26986,7 @@
         <v>517</v>
       </c>
       <c r="C467" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D467" t="s">
         <v>519</v>
@@ -27041,7 +27038,7 @@
         <v>517</v>
       </c>
       <c r="C468" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D468" t="s">
         <v>519</v>
@@ -27093,7 +27090,7 @@
         <v>517</v>
       </c>
       <c r="C469" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D469" t="s">
         <v>519</v>
@@ -27147,7 +27144,7 @@
         <v>517</v>
       </c>
       <c r="C470" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D470" t="s">
         <v>519</v>
@@ -27198,13 +27195,13 @@
         <v>472</v>
       </c>
       <c r="B471" t="s">
+        <v>582</v>
+      </c>
+      <c r="C471" t="s">
         <v>583</v>
       </c>
-      <c r="C471" t="s">
+      <c r="D471" t="s">
         <v>584</v>
-      </c>
-      <c r="D471" t="s">
-        <v>585</v>
       </c>
       <c r="E471" t="s">
         <v>43</v>
@@ -27250,13 +27247,13 @@
         <v>473</v>
       </c>
       <c r="B472" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C472" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D472" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E472" t="s">
         <v>43</v>
@@ -27302,13 +27299,13 @@
         <v>474</v>
       </c>
       <c r="B473" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C473" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D473" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E473" t="s">
         <v>43</v>
@@ -27354,13 +27351,13 @@
         <v>475</v>
       </c>
       <c r="B474" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C474" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D474" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E474" t="s">
         <v>43</v>
@@ -27408,13 +27405,13 @@
         <v>476</v>
       </c>
       <c r="B475" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C475" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D475" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E475" t="s">
         <v>43</v>
@@ -27460,13 +27457,13 @@
         <v>477</v>
       </c>
       <c r="B476" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C476" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D476" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E476" t="s">
         <v>43</v>
@@ -27516,13 +27513,13 @@
         <v>478</v>
       </c>
       <c r="B477" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C477" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D477" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E477" t="s">
         <v>43</v>
@@ -27572,13 +27569,13 @@
         <v>479</v>
       </c>
       <c r="B478" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C478" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D478" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E478" t="s">
         <v>43</v>
@@ -27626,13 +27623,13 @@
         <v>480</v>
       </c>
       <c r="B479" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C479" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D479" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E479" t="s">
         <v>43</v>
@@ -27678,13 +27675,13 @@
         <v>481</v>
       </c>
       <c r="B480" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C480" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D480" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E480" t="s">
         <v>43</v>
@@ -27730,13 +27727,13 @@
         <v>482</v>
       </c>
       <c r="B481" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C481" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D481" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E481" t="s">
         <v>43</v>
@@ -27784,13 +27781,13 @@
         <v>483</v>
       </c>
       <c r="B482" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C482" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D482" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E482" t="s">
         <v>43</v>
@@ -27838,13 +27835,13 @@
         <v>484</v>
       </c>
       <c r="B483" t="s">
+        <v>596</v>
+      </c>
+      <c r="C483" t="s">
         <v>597</v>
       </c>
-      <c r="C483" t="s">
+      <c r="D483" t="s">
         <v>598</v>
-      </c>
-      <c r="D483" t="s">
-        <v>599</v>
       </c>
       <c r="E483" t="s">
         <v>21</v>
@@ -27890,13 +27887,13 @@
         <v>485</v>
       </c>
       <c r="B484" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C484" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D484" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E484" t="s">
         <v>21</v>
@@ -27942,13 +27939,13 @@
         <v>486</v>
       </c>
       <c r="B485" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C485" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D485" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E485" t="s">
         <v>21</v>
@@ -27994,13 +27991,13 @@
         <v>487</v>
       </c>
       <c r="B486" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C486" t="s">
+        <v>601</v>
+      </c>
+      <c r="D486" t="s">
         <v>602</v>
-      </c>
-      <c r="D486" t="s">
-        <v>603</v>
       </c>
       <c r="E486" t="s">
         <v>43</v>
@@ -28048,13 +28045,13 @@
         <v>488</v>
       </c>
       <c r="B487" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C487" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D487" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E487" t="s">
         <v>43</v>
@@ -28102,13 +28099,13 @@
         <v>489</v>
       </c>
       <c r="B488" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C488" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D488" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E488" t="s">
         <v>43</v>
@@ -28158,13 +28155,13 @@
         <v>490</v>
       </c>
       <c r="B489" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C489" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D489" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E489" t="s">
         <v>43</v>
@@ -28210,13 +28207,13 @@
         <v>491</v>
       </c>
       <c r="B490" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C490" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D490" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E490" t="s">
         <v>43</v>
@@ -28264,13 +28261,13 @@
         <v>492</v>
       </c>
       <c r="B491" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C491" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D491" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E491" t="s">
         <v>43</v>
@@ -28318,13 +28315,13 @@
         <v>493</v>
       </c>
       <c r="B492" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C492" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D492" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E492" t="s">
         <v>43</v>
@@ -28372,13 +28369,13 @@
         <v>494</v>
       </c>
       <c r="B493" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C493" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D493" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E493" t="s">
         <v>43</v>
@@ -28426,13 +28423,13 @@
         <v>495</v>
       </c>
       <c r="B494" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C494" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D494" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E494" t="s">
         <v>43</v>
@@ -28480,13 +28477,13 @@
         <v>496</v>
       </c>
       <c r="B495" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C495" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D495" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E495" t="s">
         <v>43</v>
@@ -28534,13 +28531,13 @@
         <v>497</v>
       </c>
       <c r="B496" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C496" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D496" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E496" t="s">
         <v>43</v>
@@ -28588,13 +28585,13 @@
         <v>498</v>
       </c>
       <c r="B497" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C497" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D497" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E497" t="s">
         <v>43</v>
@@ -28642,13 +28639,13 @@
         <v>499</v>
       </c>
       <c r="B498" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C498" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D498" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E498" t="s">
         <v>43</v>
@@ -28696,13 +28693,13 @@
         <v>500</v>
       </c>
       <c r="B499" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C499" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D499" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E499" t="s">
         <v>43</v>
@@ -28750,13 +28747,13 @@
         <v>501</v>
       </c>
       <c r="B500" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C500" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D500" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E500" t="s">
         <v>43</v>
@@ -28802,13 +28799,13 @@
         <v>502</v>
       </c>
       <c r="B501" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C501" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D501" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E501" t="s">
         <v>43</v>
@@ -28856,13 +28853,13 @@
         <v>503</v>
       </c>
       <c r="B502" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C502" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D502" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E502" t="s">
         <v>43</v>
@@ -28908,13 +28905,13 @@
         <v>504</v>
       </c>
       <c r="B503" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C503" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D503" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E503" t="s">
         <v>43</v>
@@ -28960,13 +28957,13 @@
         <v>505</v>
       </c>
       <c r="B504" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C504" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D504" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E504" t="s">
         <v>43</v>
@@ -29014,13 +29011,13 @@
         <v>506</v>
       </c>
       <c r="B505" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C505" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D505" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E505" t="s">
         <v>43</v>
@@ -29068,13 +29065,13 @@
         <v>507</v>
       </c>
       <c r="B506" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C506" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D506" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E506" t="s">
         <v>43</v>
@@ -29122,13 +29119,13 @@
         <v>508</v>
       </c>
       <c r="B507" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C507" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D507" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E507" t="s">
         <v>43</v>
@@ -29176,13 +29173,13 @@
         <v>509</v>
       </c>
       <c r="B508" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C508" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D508" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E508" t="s">
         <v>43</v>
@@ -29230,13 +29227,13 @@
         <v>510</v>
       </c>
       <c r="B509" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C509" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D509" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E509" t="s">
         <v>43</v>
@@ -29284,13 +29281,13 @@
         <v>511</v>
       </c>
       <c r="B510" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C510" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D510" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E510" t="s">
         <v>43</v>
@@ -29338,13 +29335,13 @@
         <v>512</v>
       </c>
       <c r="B511" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C511" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D511" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E511" t="s">
         <v>43</v>
@@ -29392,13 +29389,13 @@
         <v>513</v>
       </c>
       <c r="B512" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C512" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D512" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E512" t="s">
         <v>43</v>
@@ -29446,13 +29443,13 @@
         <v>514</v>
       </c>
       <c r="B513" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C513" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D513" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E513" t="s">
         <v>43</v>
@@ -29500,13 +29497,13 @@
         <v>515</v>
       </c>
       <c r="B514" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C514" t="s">
+        <v>630</v>
+      </c>
+      <c r="D514" t="s">
         <v>631</v>
-      </c>
-      <c r="D514" t="s">
-        <v>632</v>
       </c>
       <c r="E514" t="s">
         <v>43</v>
@@ -29554,13 +29551,13 @@
         <v>516</v>
       </c>
       <c r="B515" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C515" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D515" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E515" t="s">
         <v>43</v>
@@ -29608,13 +29605,13 @@
         <v>517</v>
       </c>
       <c r="B516" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C516" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D516" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E516" t="s">
         <v>43</v>
@@ -29662,13 +29659,13 @@
         <v>518</v>
       </c>
       <c r="B517" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C517" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D517" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E517" t="s">
         <v>43</v>
@@ -29716,13 +29713,13 @@
         <v>519</v>
       </c>
       <c r="B518" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C518" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D518" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E518" t="s">
         <v>43</v>
@@ -29770,13 +29767,13 @@
         <v>520</v>
       </c>
       <c r="B519" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C519" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D519" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E519" t="s">
         <v>43</v>
@@ -29824,13 +29821,13 @@
         <v>521</v>
       </c>
       <c r="B520" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C520" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D520" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E520" t="s">
         <v>43</v>
@@ -29878,13 +29875,13 @@
         <v>522</v>
       </c>
       <c r="B521" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C521" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D521" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E521" t="s">
         <v>43</v>
@@ -29932,13 +29929,13 @@
         <v>523</v>
       </c>
       <c r="B522" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C522" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D522" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E522" t="s">
         <v>43</v>
@@ -29986,13 +29983,13 @@
         <v>524</v>
       </c>
       <c r="B523" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C523" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D523" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E523" t="s">
         <v>43</v>
@@ -30040,13 +30037,13 @@
         <v>525</v>
       </c>
       <c r="B524" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C524" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D524" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E524" t="s">
         <v>43</v>
@@ -30094,13 +30091,13 @@
         <v>526</v>
       </c>
       <c r="B525" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C525" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D525" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E525" t="s">
         <v>43</v>
@@ -30148,13 +30145,13 @@
         <v>527</v>
       </c>
       <c r="B526" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C526" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D526" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E526" t="s">
         <v>43</v>
@@ -30202,13 +30199,13 @@
         <v>528</v>
       </c>
       <c r="B527" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C527" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D527" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E527" t="s">
         <v>43</v>
@@ -30223,7 +30220,7 @@
         <v>23</v>
       </c>
       <c r="I527" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J527"/>
       <c r="K527" t="s">
@@ -30256,13 +30253,13 @@
         <v>529</v>
       </c>
       <c r="B528" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C528" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D528" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E528" t="s">
         <v>43</v>
@@ -30277,7 +30274,7 @@
         <v>35</v>
       </c>
       <c r="I528" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J528"/>
       <c r="K528" t="s">
@@ -30310,13 +30307,13 @@
         <v>530</v>
       </c>
       <c r="B529" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C529" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D529" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E529" t="s">
         <v>43</v>
@@ -30364,13 +30361,13 @@
         <v>531</v>
       </c>
       <c r="B530" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C530" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D530" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E530" t="s">
         <v>43</v>
@@ -30418,13 +30415,13 @@
         <v>532</v>
       </c>
       <c r="B531" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C531" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D531" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E531" t="s">
         <v>43</v>
@@ -30470,13 +30467,13 @@
         <v>533</v>
       </c>
       <c r="B532" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C532" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D532" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E532" t="s">
         <v>43</v>
@@ -30524,13 +30521,13 @@
         <v>534</v>
       </c>
       <c r="B533" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C533" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D533" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E533" t="s">
         <v>43</v>
@@ -30578,13 +30575,13 @@
         <v>535</v>
       </c>
       <c r="B534" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C534" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D534" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E534" t="s">
         <v>43</v>
@@ -30599,7 +30596,7 @@
         <v>99</v>
       </c>
       <c r="I534" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J534"/>
       <c r="K534" t="s">
@@ -30632,13 +30629,13 @@
         <v>536</v>
       </c>
       <c r="B535" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C535" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D535" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E535" t="s">
         <v>43</v>
@@ -30684,13 +30681,13 @@
         <v>537</v>
       </c>
       <c r="B536" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C536" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D536" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E536" t="s">
         <v>43</v>
@@ -30736,13 +30733,13 @@
         <v>538</v>
       </c>
       <c r="B537" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C537" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D537" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E537" t="s">
         <v>43</v>
@@ -30788,13 +30785,13 @@
         <v>539</v>
       </c>
       <c r="B538" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C538" t="s">
+        <v>656</v>
+      </c>
+      <c r="D538" t="s">
         <v>657</v>
-      </c>
-      <c r="D538" t="s">
-        <v>658</v>
       </c>
       <c r="E538" t="s">
         <v>43</v>
@@ -30840,13 +30837,13 @@
         <v>540</v>
       </c>
       <c r="B539" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C539" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D539" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E539" t="s">
         <v>43</v>
@@ -30892,13 +30889,13 @@
         <v>541</v>
       </c>
       <c r="B540" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C540" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D540" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E540" t="s">
         <v>43</v>
@@ -30944,13 +30941,13 @@
         <v>542</v>
       </c>
       <c r="B541" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C541" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D541" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E541" t="s">
         <v>43</v>
@@ -30996,13 +30993,13 @@
         <v>543</v>
       </c>
       <c r="B542" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C542" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D542" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E542" t="s">
         <v>43</v>
@@ -31048,13 +31045,13 @@
         <v>544</v>
       </c>
       <c r="B543" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C543" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D543" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E543" t="s">
         <v>43</v>
@@ -31102,13 +31099,13 @@
         <v>545</v>
       </c>
       <c r="B544" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C544" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D544" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E544" t="s">
         <v>43</v>
@@ -31156,13 +31153,13 @@
         <v>546</v>
       </c>
       <c r="B545" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C545" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D545" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E545" t="s">
         <v>43</v>
@@ -31208,13 +31205,13 @@
         <v>547</v>
       </c>
       <c r="B546" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C546" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D546" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E546" t="s">
         <v>43</v>
@@ -31260,13 +31257,13 @@
         <v>548</v>
       </c>
       <c r="B547" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C547" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D547" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E547" t="s">
         <v>43</v>
@@ -31312,13 +31309,13 @@
         <v>549</v>
       </c>
       <c r="B548" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C548" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D548" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E548" t="s">
         <v>43</v>
@@ -31364,13 +31361,13 @@
         <v>550</v>
       </c>
       <c r="B549" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C549" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D549" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E549" t="s">
         <v>43</v>
@@ -31416,13 +31413,13 @@
         <v>551</v>
       </c>
       <c r="B550" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C550" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D550" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E550" t="s">
         <v>43</v>
@@ -31468,13 +31465,13 @@
         <v>552</v>
       </c>
       <c r="B551" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C551" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D551" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E551" t="s">
         <v>43</v>
@@ -31522,13 +31519,13 @@
         <v>553</v>
       </c>
       <c r="B552" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C552" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D552" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E552" t="s">
         <v>43</v>
@@ -31576,13 +31573,13 @@
         <v>554</v>
       </c>
       <c r="B553" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C553" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D553" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E553" t="s">
         <v>43</v>
@@ -31628,10 +31625,10 @@
         <v>555</v>
       </c>
       <c r="B554" t="s">
+        <v>673</v>
+      </c>
+      <c r="C554" t="s">
         <v>674</v>
-      </c>
-      <c r="C554" t="s">
-        <v>675</v>
       </c>
       <c r="D554" t="s">
         <v>404</v>
@@ -31680,10 +31677,10 @@
         <v>556</v>
       </c>
       <c r="B555" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C555" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D555" t="s">
         <v>404</v>
@@ -31732,10 +31729,10 @@
         <v>557</v>
       </c>
       <c r="B556" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C556" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D556" t="s">
         <v>404</v>
@@ -31784,10 +31781,10 @@
         <v>558</v>
       </c>
       <c r="B557" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C557" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D557" t="s">
         <v>404</v>
@@ -31840,10 +31837,10 @@
         <v>560</v>
       </c>
       <c r="B558" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C558" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D558" t="s">
         <v>404</v>
@@ -31894,10 +31891,10 @@
         <v>561</v>
       </c>
       <c r="B559" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C559" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D559" t="s">
         <v>404</v>
@@ -31948,10 +31945,10 @@
         <v>562</v>
       </c>
       <c r="B560" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C560" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D560" t="s">
         <v>404</v>
@@ -32000,10 +31997,10 @@
         <v>563</v>
       </c>
       <c r="B561" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C561" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D561" t="s">
         <v>404</v>
@@ -32052,10 +32049,10 @@
         <v>564</v>
       </c>
       <c r="B562" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C562" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D562" t="s">
         <v>404</v>
@@ -32106,10 +32103,10 @@
         <v>565</v>
       </c>
       <c r="B563" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C563" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D563" t="s">
         <v>404</v>
@@ -32124,7 +32121,7 @@
         <v>22</v>
       </c>
       <c r="H563" t="s">
-        <v>560</v>
+        <v>128</v>
       </c>
       <c r="I563" t="s">
         <v>306</v>
@@ -32160,10 +32157,10 @@
         <v>566</v>
       </c>
       <c r="B564" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C564" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D564" t="s">
         <v>404</v>
@@ -32214,10 +32211,10 @@
         <v>567</v>
       </c>
       <c r="B565" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C565" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D565" t="s">
         <v>404</v>
@@ -32268,10 +32265,10 @@
         <v>568</v>
       </c>
       <c r="B566" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C566" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D566" t="s">
         <v>404</v>
@@ -32322,10 +32319,10 @@
         <v>569</v>
       </c>
       <c r="B567" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C567" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D567" t="s">
         <v>404</v>
@@ -32374,10 +32371,10 @@
         <v>570</v>
       </c>
       <c r="B568" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C568" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D568" t="s">
         <v>404</v>
@@ -32428,13 +32425,13 @@
         <v>571</v>
       </c>
       <c r="B569" t="s">
+        <v>689</v>
+      </c>
+      <c r="C569" t="s">
         <v>690</v>
       </c>
-      <c r="C569" t="s">
+      <c r="D569" t="s">
         <v>691</v>
-      </c>
-      <c r="D569" t="s">
-        <v>692</v>
       </c>
       <c r="E569" t="s">
         <v>21</v>
@@ -32470,13 +32467,13 @@
         <v>572</v>
       </c>
       <c r="B570" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C570" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D570" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E570" t="s">
         <v>21</v>
@@ -32512,13 +32509,13 @@
         <v>573</v>
       </c>
       <c r="B571" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C571" t="s">
+        <v>693</v>
+      </c>
+      <c r="D571" t="s">
         <v>694</v>
-      </c>
-      <c r="D571" t="s">
-        <v>695</v>
       </c>
       <c r="E571" t="s">
         <v>21</v>
@@ -32554,13 +32551,13 @@
         <v>574</v>
       </c>
       <c r="B572" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C572" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D572" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E572" t="s">
         <v>21</v>
@@ -32596,13 +32593,13 @@
         <v>575</v>
       </c>
       <c r="B573" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C573" t="s">
+        <v>696</v>
+      </c>
+      <c r="D573" t="s">
         <v>697</v>
-      </c>
-      <c r="D573" t="s">
-        <v>698</v>
       </c>
       <c r="E573" t="s">
         <v>21</v>
@@ -32638,13 +32635,13 @@
         <v>576</v>
       </c>
       <c r="B574" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C574" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D574" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E574" t="s">
         <v>21</v>
@@ -32680,13 +32677,13 @@
         <v>577</v>
       </c>
       <c r="B575" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C575" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D575" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E575" t="s">
         <v>21</v>
@@ -32722,13 +32719,13 @@
         <v>578</v>
       </c>
       <c r="B576" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C576" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D576" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E576" t="s">
         <v>21</v>
@@ -32764,13 +32761,13 @@
         <v>579</v>
       </c>
       <c r="B577" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C577" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D577" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E577" t="s">
         <v>21</v>
@@ -32806,13 +32803,13 @@
         <v>580</v>
       </c>
       <c r="B578" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C578" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D578" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E578" t="s">
         <v>21</v>
@@ -32848,13 +32845,13 @@
         <v>581</v>
       </c>
       <c r="B579" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C579" t="s">
+        <v>703</v>
+      </c>
+      <c r="D579" t="s">
         <v>704</v>
-      </c>
-      <c r="D579" t="s">
-        <v>705</v>
       </c>
       <c r="E579" t="s">
         <v>21</v>
@@ -32890,13 +32887,13 @@
         <v>582</v>
       </c>
       <c r="B580" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C580" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D580" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E580" t="s">
         <v>21</v>
@@ -32932,13 +32929,13 @@
         <v>583</v>
       </c>
       <c r="B581" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C581" t="s">
+        <v>706</v>
+      </c>
+      <c r="D581" t="s">
         <v>707</v>
-      </c>
-      <c r="D581" t="s">
-        <v>708</v>
       </c>
       <c r="E581" t="s">
         <v>21</v>
@@ -32974,13 +32971,13 @@
         <v>584</v>
       </c>
       <c r="B582" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C582" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D582" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E582" t="s">
         <v>21</v>
@@ -33016,13 +33013,13 @@
         <v>585</v>
       </c>
       <c r="B583" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C583" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D583" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E583" t="s">
         <v>21</v>
@@ -33058,13 +33055,13 @@
         <v>586</v>
       </c>
       <c r="B584" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C584" t="s">
+        <v>710</v>
+      </c>
+      <c r="D584" t="s">
         <v>711</v>
-      </c>
-      <c r="D584" t="s">
-        <v>712</v>
       </c>
       <c r="E584" t="s">
         <v>21</v>
@@ -33100,13 +33097,13 @@
         <v>587</v>
       </c>
       <c r="B585" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C585" t="s">
+        <v>712</v>
+      </c>
+      <c r="D585" t="s">
         <v>713</v>
-      </c>
-      <c r="D585" t="s">
-        <v>714</v>
       </c>
       <c r="E585" t="s">
         <v>21</v>
@@ -33142,13 +33139,13 @@
         <v>588</v>
       </c>
       <c r="B586" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C586" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D586" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E586" t="s">
         <v>21</v>
@@ -33184,13 +33181,13 @@
         <v>589</v>
       </c>
       <c r="B587" t="s">
+        <v>715</v>
+      </c>
+      <c r="C587" t="s">
         <v>716</v>
       </c>
-      <c r="C587" t="s">
+      <c r="D587" t="s">
         <v>717</v>
-      </c>
-      <c r="D587" t="s">
-        <v>718</v>
       </c>
       <c r="E587" t="s">
         <v>21</v>
@@ -33224,13 +33221,13 @@
         <v>590</v>
       </c>
       <c r="B588" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C588" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D588" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E588" t="s">
         <v>21</v>
@@ -33264,13 +33261,13 @@
         <v>591</v>
       </c>
       <c r="B589" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C589" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D589" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E589" t="s">
         <v>21</v>
@@ -33304,13 +33301,13 @@
         <v>592</v>
       </c>
       <c r="B590" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C590" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D590" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E590" t="s">
         <v>21</v>
@@ -33344,13 +33341,13 @@
         <v>593</v>
       </c>
       <c r="B591" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C591" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D591" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E591" t="s">
         <v>21</v>
@@ -33384,13 +33381,13 @@
         <v>594</v>
       </c>
       <c r="B592" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C592" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D592" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E592" t="s">
         <v>21</v>
@@ -33424,13 +33421,13 @@
         <v>595</v>
       </c>
       <c r="B593" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C593" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D593" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E593" t="s">
         <v>21</v>
@@ -33464,13 +33461,13 @@
         <v>596</v>
       </c>
       <c r="B594" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C594" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D594" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E594" t="s">
         <v>21</v>
@@ -33504,13 +33501,13 @@
         <v>597</v>
       </c>
       <c r="B595" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C595" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D595" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E595" t="s">
         <v>21</v>
@@ -33544,13 +33541,13 @@
         <v>598</v>
       </c>
       <c r="B596" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C596" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D596" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E596" t="s">
         <v>21</v>
@@ -33584,13 +33581,13 @@
         <v>599</v>
       </c>
       <c r="B597" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C597" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D597" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E597" t="s">
         <v>21</v>
@@ -33624,13 +33621,13 @@
         <v>600</v>
       </c>
       <c r="B598" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C598" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D598" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E598" t="s">
         <v>21</v>
@@ -33664,13 +33661,13 @@
         <v>601</v>
       </c>
       <c r="B599" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C599" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D599" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E599" t="s">
         <v>21</v>
@@ -33704,13 +33701,13 @@
         <v>602</v>
       </c>
       <c r="B600" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C600" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D600" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E600" t="s">
         <v>21</v>
@@ -33744,13 +33741,13 @@
         <v>603</v>
       </c>
       <c r="B601" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C601" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D601" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E601" t="s">
         <v>21</v>
@@ -33784,13 +33781,13 @@
         <v>604</v>
       </c>
       <c r="B602" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C602" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D602" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E602" t="s">
         <v>21</v>
@@ -33824,13 +33821,13 @@
         <v>605</v>
       </c>
       <c r="B603" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C603" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D603" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E603" t="s">
         <v>21</v>
@@ -33864,13 +33861,13 @@
         <v>606</v>
       </c>
       <c r="B604" t="s">
+        <v>734</v>
+      </c>
+      <c r="C604" t="s">
         <v>735</v>
       </c>
-      <c r="C604" t="s">
+      <c r="D604" t="s">
         <v>736</v>
-      </c>
-      <c r="D604" t="s">
-        <v>737</v>
       </c>
       <c r="E604" t="s">
         <v>21</v>
@@ -33916,13 +33913,13 @@
         <v>607</v>
       </c>
       <c r="B605" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C605" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D605" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E605" t="s">
         <v>21</v>
@@ -33968,13 +33965,13 @@
         <v>608</v>
       </c>
       <c r="B606" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C606" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D606" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E606" t="s">
         <v>21</v>
@@ -34020,13 +34017,13 @@
         <v>609</v>
       </c>
       <c r="B607" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C607" t="s">
+        <v>739</v>
+      </c>
+      <c r="D607" t="s">
         <v>740</v>
-      </c>
-      <c r="D607" t="s">
-        <v>741</v>
       </c>
       <c r="E607" t="s">
         <v>21</v>
@@ -34072,13 +34069,13 @@
         <v>610</v>
       </c>
       <c r="B608" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C608" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D608" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E608" t="s">
         <v>21</v>
@@ -34124,13 +34121,13 @@
         <v>611</v>
       </c>
       <c r="B609" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C609" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D609" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E609" t="s">
         <v>21</v>
@@ -34176,13 +34173,13 @@
         <v>612</v>
       </c>
       <c r="B610" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C610" t="s">
+        <v>743</v>
+      </c>
+      <c r="D610" t="s">
         <v>744</v>
-      </c>
-      <c r="D610" t="s">
-        <v>745</v>
       </c>
       <c r="E610" t="s">
         <v>173</v>
@@ -34228,13 +34225,13 @@
         <v>613</v>
       </c>
       <c r="B611" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C611" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D611" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E611" t="s">
         <v>173</v>
@@ -34280,13 +34277,13 @@
         <v>614</v>
       </c>
       <c r="B612" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C612" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D612" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E612" t="s">
         <v>173</v>

--- a/analysis/data/raw_data/data_measurements_01.xlsx
+++ b/analysis/data/raw_data/data_measurements_01.xlsx
@@ -644,9 +644,6 @@
     <t xml:space="preserve">V122</t>
   </si>
   <si>
-    <t xml:space="preserve">Emg</t>
-  </si>
-  <si>
     <t xml:space="preserve">V123</t>
   </si>
   <si>
@@ -806,7 +803,7 @@
     <t xml:space="preserve">V167</t>
   </si>
   <si>
-    <t xml:space="preserve">I</t>
+    <t xml:space="preserve">B</t>
   </si>
   <si>
     <t xml:space="preserve">URN 4 - Cover for URN 3</t>
@@ -978,6 +975,9 @@
   </si>
   <si>
     <t xml:space="preserve">440-605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ep</t>
   </si>
   <si>
     <t xml:space="preserve">V206</t>
@@ -3188,7 +3188,9 @@
       <c r="U6" t="n">
         <v>1642.56</v>
       </c>
-      <c r="V6"/>
+      <c r="V6" t="n">
+        <v>239314.42176</v>
+      </c>
       <c r="W6"/>
     </row>
     <row r="7">
@@ -3251,7 +3253,9 @@
       <c r="U7" t="n">
         <v>448</v>
       </c>
-      <c r="V7"/>
+      <c r="V7" t="n">
+        <v>37512.5333333333</v>
+      </c>
       <c r="W7"/>
     </row>
     <row r="8">
@@ -3314,7 +3318,9 @@
       <c r="U8" t="n">
         <v>1142.4</v>
       </c>
-      <c r="V8"/>
+      <c r="V8" t="n">
+        <v>130093.4656</v>
+      </c>
       <c r="W8"/>
     </row>
     <row r="9">
@@ -3377,7 +3383,9 @@
       <c r="U9" t="n">
         <v>1123.2</v>
       </c>
-      <c r="V9"/>
+      <c r="V9" t="n">
+        <v>146716.8768</v>
+      </c>
       <c r="W9"/>
     </row>
     <row r="10">
@@ -3442,7 +3450,9 @@
       <c r="U10" t="n">
         <v>107.52</v>
       </c>
-      <c r="V10"/>
+      <c r="V10" t="n">
+        <v>8642.88768</v>
+      </c>
       <c r="W10" t="s">
         <v>52</v>
       </c>
@@ -3509,7 +3519,9 @@
       <c r="U11" t="n">
         <v>396.8</v>
       </c>
-      <c r="V11"/>
+      <c r="V11" t="n">
+        <v>53160.6186666667</v>
+      </c>
       <c r="W11" t="s">
         <v>52</v>
       </c>
@@ -3576,7 +3588,9 @@
       <c r="U12" t="n">
         <v>158.08</v>
       </c>
-      <c r="V12"/>
+      <c r="V12" t="n">
+        <v>13766.0279466667</v>
+      </c>
       <c r="W12" t="s">
         <v>52</v>
       </c>
@@ -4122,7 +4136,9 @@
       <c r="U20" t="n">
         <v>158.4</v>
       </c>
-      <c r="V20"/>
+      <c r="V20" t="n">
+        <v>7958.016</v>
+      </c>
       <c r="W20" t="s">
         <v>63</v>
       </c>
@@ -4258,7 +4274,9 @@
       <c r="U22" t="n">
         <v>708.48</v>
       </c>
-      <c r="V22"/>
+      <c r="V22" t="n">
+        <v>13625.1549866667</v>
+      </c>
       <c r="W22" t="s">
         <v>63</v>
       </c>
@@ -4325,7 +4343,9 @@
       <c r="U23" t="n">
         <v>20</v>
       </c>
-      <c r="V23"/>
+      <c r="V23" t="n">
+        <v>54.4266666666667</v>
+      </c>
       <c r="W23" t="s">
         <v>63</v>
       </c>
@@ -4392,7 +4412,9 @@
       <c r="U24" t="n">
         <v>77.44</v>
       </c>
-      <c r="V24"/>
+      <c r="V24" t="n">
+        <v>5706.19221333333</v>
+      </c>
       <c r="W24" t="s">
         <v>63</v>
       </c>
@@ -4459,7 +4481,9 @@
       <c r="U25" t="n">
         <v>80.64</v>
       </c>
-      <c r="V25"/>
+      <c r="V25" t="n">
+        <v>5671.89504</v>
+      </c>
       <c r="W25" t="s">
         <v>63</v>
       </c>
@@ -4526,7 +4550,9 @@
       <c r="U26" t="n">
         <v>71.68</v>
       </c>
-      <c r="V26"/>
+      <c r="V26" t="n">
+        <v>3841.28341333333</v>
+      </c>
       <c r="W26" t="s">
         <v>63</v>
       </c>
@@ -4593,7 +4619,9 @@
       <c r="U27" t="n">
         <v>164.64</v>
       </c>
-      <c r="V27"/>
+      <c r="V27" t="n">
+        <v>13510.13888</v>
+      </c>
       <c r="W27" t="s">
         <v>63</v>
       </c>
@@ -6132,7 +6160,7 @@
         <v>1000</v>
       </c>
       <c r="I50" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J50" t="s">
         <v>66</v>
@@ -6369,7 +6397,9 @@
       <c r="U53" t="n">
         <v>2704.96</v>
       </c>
-      <c r="V53"/>
+      <c r="V53" t="n">
+        <v>715725.202773333</v>
+      </c>
       <c r="W53" t="s">
         <v>110</v>
       </c>
@@ -6710,7 +6740,9 @@
       <c r="U58" t="n">
         <v>302.4</v>
       </c>
-      <c r="V58"/>
+      <c r="V58" t="n">
+        <v>35449.344</v>
+      </c>
       <c r="W58"/>
     </row>
     <row r="59">
@@ -6775,7 +6807,9 @@
       <c r="U59" t="n">
         <v>276</v>
       </c>
-      <c r="V59"/>
+      <c r="V59" t="n">
+        <v>34665.6</v>
+      </c>
       <c r="W59"/>
     </row>
     <row r="60">
@@ -6840,7 +6874,9 @@
       <c r="U60" t="n">
         <v>436.8</v>
       </c>
-      <c r="V60"/>
+      <c r="V60" t="n">
+        <v>47547.136</v>
+      </c>
       <c r="W60"/>
     </row>
     <row r="61">
@@ -6905,7 +6941,9 @@
       <c r="U61" t="n">
         <v>576</v>
       </c>
-      <c r="V61"/>
+      <c r="V61" t="n">
+        <v>72345.6</v>
+      </c>
       <c r="W61"/>
     </row>
     <row r="62">
@@ -6970,7 +7008,9 @@
       <c r="U62" t="n">
         <v>264</v>
       </c>
-      <c r="V62"/>
+      <c r="V62" t="n">
+        <v>3098.13333333333</v>
+      </c>
       <c r="W62"/>
     </row>
     <row r="63">
@@ -7035,7 +7075,9 @@
       <c r="U63" t="n">
         <v>397.6</v>
       </c>
-      <c r="V63"/>
+      <c r="V63" t="n">
+        <v>5867.19466666666</v>
+      </c>
       <c r="W63"/>
     </row>
     <row r="64">
@@ -7100,7 +7142,9 @@
       <c r="U64" t="n">
         <v>614.72</v>
       </c>
-      <c r="V64"/>
+      <c r="V64" t="n">
+        <v>116327.973546667</v>
+      </c>
       <c r="W64"/>
     </row>
     <row r="65">
@@ -7232,7 +7276,9 @@
       <c r="U66" t="n">
         <v>204</v>
       </c>
-      <c r="V66"/>
+      <c r="V66" t="n">
+        <v>17423.232</v>
+      </c>
       <c r="W66"/>
     </row>
     <row r="67">
@@ -7297,7 +7343,9 @@
       <c r="U67" t="n">
         <v>241.28</v>
       </c>
-      <c r="V67"/>
+      <c r="V67" t="n">
+        <v>21011.3058133333</v>
+      </c>
       <c r="W67"/>
     </row>
     <row r="68">
@@ -7360,7 +7408,9 @@
       <c r="U68" t="n">
         <v>2037.28</v>
       </c>
-      <c r="V68"/>
+      <c r="V68" t="n">
+        <v>365058.845013333</v>
+      </c>
       <c r="W68"/>
     </row>
     <row r="69">
@@ -7529,7 +7579,7 @@
         <v>32</v>
       </c>
       <c r="K71" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="L71"/>
       <c r="M71"/>
@@ -7557,7 +7607,9 @@
       <c r="U71" t="n">
         <v>2096.64</v>
       </c>
-      <c r="V71"/>
+      <c r="V71" t="n">
+        <v>393251.38944</v>
+      </c>
       <c r="W71"/>
     </row>
     <row r="72">
@@ -7620,7 +7672,9 @@
       <c r="U72" t="n">
         <v>634.88</v>
       </c>
-      <c r="V72"/>
+      <c r="V72" t="n">
+        <v>65919.1671466667</v>
+      </c>
       <c r="W72"/>
     </row>
     <row r="73">
@@ -7748,7 +7802,9 @@
       <c r="U74" t="n">
         <v>292.32</v>
       </c>
-      <c r="V74"/>
+      <c r="V74" t="n">
+        <v>3689.99402666667</v>
+      </c>
       <c r="W74"/>
     </row>
     <row r="75">
@@ -7813,7 +7869,9 @@
       <c r="U75" t="n">
         <v>149.6</v>
       </c>
-      <c r="V75"/>
+      <c r="V75" t="n">
+        <v>1268.02410666667</v>
+      </c>
       <c r="W75"/>
     </row>
     <row r="76">
@@ -7880,7 +7938,9 @@
       <c r="U76" t="n">
         <v>691.2</v>
       </c>
-      <c r="V76"/>
+      <c r="V76" t="n">
+        <v>104177.664</v>
+      </c>
       <c r="W76"/>
     </row>
     <row r="77">
@@ -8144,7 +8204,9 @@
       <c r="U80" t="n">
         <v>783.36</v>
       </c>
-      <c r="V80"/>
+      <c r="V80" t="n">
+        <v>16203.60576</v>
+      </c>
       <c r="W80" t="s">
         <v>147</v>
       </c>
@@ -8209,7 +8271,9 @@
       <c r="U81" t="n">
         <v>531.36</v>
       </c>
-      <c r="V81"/>
+      <c r="V81" t="n">
+        <v>9064.66922666667</v>
+      </c>
       <c r="W81" t="s">
         <v>147</v>
       </c>
@@ -8274,7 +8338,9 @@
       <c r="U82" t="n">
         <v>544</v>
       </c>
-      <c r="V82"/>
+      <c r="V82" t="n">
+        <v>9378.13333333333</v>
+      </c>
       <c r="W82" t="s">
         <v>147</v>
       </c>
@@ -8305,7 +8371,7 @@
         <v>900</v>
       </c>
       <c r="I83" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J83" t="s">
         <v>27</v>
@@ -8473,7 +8539,9 @@
       <c r="U85" t="n">
         <v>783.52</v>
       </c>
-      <c r="V85"/>
+      <c r="V85" t="n">
+        <v>77415.9547733333</v>
+      </c>
       <c r="W85" t="s">
         <v>147</v>
       </c>
@@ -8741,7 +8809,9 @@
       <c r="U89" t="n">
         <v>332.64</v>
       </c>
-      <c r="V89"/>
+      <c r="V89" t="n">
+        <v>4486.33152</v>
+      </c>
       <c r="W89" t="s">
         <v>147</v>
       </c>
@@ -8806,7 +8876,9 @@
       <c r="U90" t="n">
         <v>337.92</v>
       </c>
-      <c r="V90"/>
+      <c r="V90" t="n">
+        <v>4595.75424</v>
+      </c>
       <c r="W90" t="s">
         <v>147</v>
       </c>
@@ -8843,7 +8915,7 @@
         <v>32</v>
       </c>
       <c r="K91" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="L91"/>
       <c r="M91"/>
@@ -9005,7 +9077,9 @@
       <c r="U93" t="n">
         <v>380.16</v>
       </c>
-      <c r="V93"/>
+      <c r="V93" t="n">
+        <v>5471.136</v>
+      </c>
       <c r="W93" t="s">
         <v>161</v>
       </c>
@@ -9137,7 +9211,9 @@
       <c r="U95" t="n">
         <v>358.4</v>
       </c>
-      <c r="V95"/>
+      <c r="V95" t="n">
+        <v>5007.38730666667</v>
+      </c>
       <c r="W95" t="s">
         <v>161</v>
       </c>
@@ -9269,7 +9345,9 @@
       <c r="U97" t="n">
         <v>115.52</v>
       </c>
-      <c r="V97"/>
+      <c r="V97" t="n">
+        <v>918.923093333333</v>
+      </c>
       <c r="W97" t="s">
         <v>161</v>
       </c>
@@ -9334,7 +9412,9 @@
       <c r="U98" t="n">
         <v>79.2</v>
       </c>
-      <c r="V98"/>
+      <c r="V98" t="n">
+        <v>519.984</v>
+      </c>
       <c r="W98" t="s">
         <v>161</v>
       </c>
@@ -9466,7 +9546,9 @@
       <c r="U100" t="n">
         <v>176</v>
       </c>
-      <c r="V100"/>
+      <c r="V100" t="n">
+        <v>12968.6186666667</v>
+      </c>
       <c r="W100" t="s">
         <v>161</v>
       </c>
@@ -9531,7 +9613,9 @@
       <c r="U101" t="n">
         <v>167.04</v>
       </c>
-      <c r="V101"/>
+      <c r="V101" t="n">
+        <v>1497.55392</v>
+      </c>
       <c r="W101" t="s">
         <v>161</v>
       </c>
@@ -9596,7 +9680,9 @@
       <c r="U102" t="n">
         <v>116.96</v>
       </c>
-      <c r="V102"/>
+      <c r="V102" t="n">
+        <v>919.559466666666</v>
+      </c>
       <c r="W102" t="s">
         <v>161</v>
       </c>
@@ -9661,7 +9747,9 @@
       <c r="U103" t="n">
         <v>184.32</v>
       </c>
-      <c r="V103"/>
+      <c r="V103" t="n">
+        <v>1852.04736</v>
+      </c>
       <c r="W103" t="s">
         <v>161</v>
       </c>
@@ -9793,7 +9881,9 @@
       <c r="U105" t="n">
         <v>151.36</v>
       </c>
-      <c r="V105"/>
+      <c r="V105" t="n">
+        <v>1377.91573333333</v>
+      </c>
       <c r="W105" t="s">
         <v>161</v>
       </c>
@@ -9992,7 +10082,9 @@
       <c r="U108" t="n">
         <v>395.2</v>
       </c>
-      <c r="V108"/>
+      <c r="V108" t="n">
+        <v>5755.36042666667</v>
+      </c>
       <c r="W108" t="s">
         <v>161</v>
       </c>
@@ -10057,7 +10149,9 @@
       <c r="U109" t="n">
         <v>380.48</v>
       </c>
-      <c r="V109"/>
+      <c r="V109" t="n">
+        <v>5295.56394666667</v>
+      </c>
       <c r="W109" t="s">
         <v>161</v>
       </c>
@@ -10193,7 +10287,9 @@
       <c r="U111" t="n">
         <v>238.08</v>
       </c>
-      <c r="V111"/>
+      <c r="V111" t="n">
+        <v>2662.31808</v>
+      </c>
       <c r="W111" t="s">
         <v>187</v>
       </c>
@@ -10260,7 +10356,9 @@
       <c r="U112" t="n">
         <v>217.12</v>
       </c>
-      <c r="V112"/>
+      <c r="V112" t="n">
+        <v>21452.6139733333</v>
+      </c>
       <c r="W112" t="s">
         <v>189</v>
       </c>
@@ -10327,7 +10425,9 @@
       <c r="U113" t="n">
         <v>209.76</v>
       </c>
-      <c r="V113"/>
+      <c r="V113" t="n">
+        <v>2214.74666666667</v>
+      </c>
       <c r="W113" t="s">
         <v>191</v>
       </c>
@@ -10394,7 +10494,9 @@
       <c r="U114" t="n">
         <v>176.8</v>
       </c>
-      <c r="V114"/>
+      <c r="V114" t="n">
+        <v>1558.41130666667</v>
+      </c>
       <c r="W114" t="s">
         <v>193</v>
       </c>
@@ -10461,7 +10563,9 @@
       <c r="U115" t="n">
         <v>182.24</v>
       </c>
-      <c r="V115"/>
+      <c r="V115" t="n">
+        <v>1616.48874666667</v>
+      </c>
       <c r="W115" t="s">
         <v>195</v>
       </c>
@@ -10528,7 +10632,9 @@
       <c r="U116" t="n">
         <v>208</v>
       </c>
-      <c r="V116"/>
+      <c r="V116" t="n">
+        <v>17416.5333333333</v>
+      </c>
       <c r="W116" t="s">
         <v>197</v>
       </c>
@@ -10595,7 +10701,9 @@
       <c r="U117" t="n">
         <v>248</v>
       </c>
-      <c r="V117"/>
+      <c r="V117" t="n">
+        <v>20765.8666666667</v>
+      </c>
       <c r="W117" t="s">
         <v>199</v>
       </c>
@@ -10662,7 +10770,9 @@
       <c r="U118" t="n">
         <v>661.76</v>
       </c>
-      <c r="V118"/>
+      <c r="V118" t="n">
+        <v>97524.0123733333</v>
+      </c>
       <c r="W118" t="s">
         <v>201</v>
       </c>
@@ -10867,7 +10977,9 @@
       <c r="U121" t="n">
         <v>467.84</v>
       </c>
-      <c r="V121"/>
+      <c r="V121" t="n">
+        <v>7356.47573333333</v>
+      </c>
       <c r="W121" t="s">
         <v>185</v>
       </c>
@@ -10934,7 +11046,9 @@
       <c r="U122" t="n">
         <v>246.24</v>
       </c>
-      <c r="V122"/>
+      <c r="V122" t="n">
+        <v>2478.67413333333</v>
+      </c>
       <c r="W122"/>
     </row>
     <row r="123">
@@ -10969,7 +11083,7 @@
         <v>32</v>
       </c>
       <c r="K123" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="L123" t="s">
         <v>140</v>
@@ -10999,7 +11113,9 @@
       <c r="U123" t="n">
         <v>296.64</v>
       </c>
-      <c r="V123"/>
+      <c r="V123" t="n">
+        <v>2962.55232</v>
+      </c>
       <c r="W123"/>
     </row>
     <row r="124">
@@ -11010,7 +11126,7 @@
         <v>181</v>
       </c>
       <c r="C124" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D124" t="s">
         <v>208</v>
@@ -11064,7 +11180,9 @@
       <c r="U124" t="n">
         <v>238.08</v>
       </c>
-      <c r="V124"/>
+      <c r="V124" t="n">
+        <v>24719.68768</v>
+      </c>
       <c r="W124"/>
     </row>
     <row r="125">
@@ -11075,7 +11193,7 @@
         <v>181</v>
       </c>
       <c r="C125" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D125" t="s">
         <v>208</v>
@@ -11142,7 +11260,7 @@
         <v>181</v>
       </c>
       <c r="C126" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D126" t="s">
         <v>208</v>
@@ -11196,7 +11314,9 @@
       <c r="U126" t="n">
         <v>595.2</v>
       </c>
-      <c r="V126"/>
+      <c r="V126" t="n">
+        <v>92698.8288</v>
+      </c>
       <c r="W126"/>
     </row>
     <row r="127">
@@ -11207,7 +11327,7 @@
         <v>181</v>
       </c>
       <c r="C127" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D127" t="s">
         <v>208</v>
@@ -11261,7 +11381,9 @@
       <c r="U127" t="n">
         <v>349.92</v>
       </c>
-      <c r="V127"/>
+      <c r="V127" t="n">
+        <v>47465.94816</v>
+      </c>
       <c r="W127"/>
     </row>
     <row r="128">
@@ -11272,7 +11394,7 @@
         <v>181</v>
       </c>
       <c r="C128" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D128" t="s">
         <v>208</v>
@@ -11326,7 +11448,9 @@
       <c r="U128" t="n">
         <v>427.68</v>
       </c>
-      <c r="V128"/>
+      <c r="V128" t="n">
+        <v>70905.92256</v>
+      </c>
       <c r="W128"/>
     </row>
     <row r="129">
@@ -11337,7 +11461,7 @@
         <v>181</v>
       </c>
       <c r="C129" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D129" t="s">
         <v>208</v>
@@ -11404,7 +11528,7 @@
         <v>181</v>
       </c>
       <c r="C130" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D130" t="s">
         <v>208</v>
@@ -11471,7 +11595,7 @@
         <v>181</v>
       </c>
       <c r="C131" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D131" t="s">
         <v>208</v>
@@ -11538,7 +11662,7 @@
         <v>181</v>
       </c>
       <c r="C132" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D132" t="s">
         <v>208</v>
@@ -11605,7 +11729,7 @@
         <v>181</v>
       </c>
       <c r="C133" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D133" t="s">
         <v>208</v>
@@ -11672,7 +11796,7 @@
         <v>181</v>
       </c>
       <c r="C134" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D134" t="s">
         <v>208</v>
@@ -11726,7 +11850,9 @@
       <c r="U134" t="n">
         <v>146.4</v>
       </c>
-      <c r="V134"/>
+      <c r="V134" t="n">
+        <v>1153.008</v>
+      </c>
       <c r="W134"/>
     </row>
     <row r="135">
@@ -11737,7 +11863,7 @@
         <v>181</v>
       </c>
       <c r="C135" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D135" t="s">
         <v>208</v>
@@ -11804,7 +11930,7 @@
         <v>181</v>
       </c>
       <c r="C136" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D136" t="s">
         <v>208</v>
@@ -11858,7 +11984,9 @@
       <c r="U136" t="n">
         <v>276.48</v>
       </c>
-      <c r="V136"/>
+      <c r="V136" t="n">
+        <v>25002.63936</v>
+      </c>
       <c r="W136"/>
     </row>
     <row r="137">
@@ -11869,7 +11997,7 @@
         <v>181</v>
       </c>
       <c r="C137" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D137" t="s">
         <v>208</v>
@@ -11923,7 +12051,9 @@
       <c r="U137" t="n">
         <v>348.16</v>
       </c>
-      <c r="V137"/>
+      <c r="V137" t="n">
+        <v>39647.5323733333</v>
+      </c>
       <c r="W137"/>
     </row>
     <row r="138">
@@ -11934,7 +12064,7 @@
         <v>181</v>
       </c>
       <c r="C138" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D138" t="s">
         <v>208</v>
@@ -11988,7 +12118,9 @@
       <c r="U138" t="n">
         <v>137.6</v>
       </c>
-      <c r="V138"/>
+      <c r="V138" t="n">
+        <v>1192.36266666667</v>
+      </c>
       <c r="W138"/>
     </row>
     <row r="139">
@@ -11999,7 +12131,7 @@
         <v>181</v>
       </c>
       <c r="C139" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D139" t="s">
         <v>208</v>
@@ -12066,10 +12198,10 @@
         <v>181</v>
       </c>
       <c r="C140" t="s">
+        <v>226</v>
+      </c>
+      <c r="D140" t="s">
         <v>227</v>
-      </c>
-      <c r="D140" t="s">
-        <v>228</v>
       </c>
       <c r="E140" t="s">
         <v>51</v>
@@ -12090,7 +12222,7 @@
         <v>35</v>
       </c>
       <c r="K140" t="s">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="L140" t="s">
         <v>140</v>
@@ -12120,7 +12252,9 @@
       <c r="U140" t="n">
         <v>255.36</v>
       </c>
-      <c r="V140"/>
+      <c r="V140" t="n">
+        <v>2587.49397333333</v>
+      </c>
       <c r="W140"/>
     </row>
     <row r="141">
@@ -12131,10 +12265,10 @@
         <v>181</v>
       </c>
       <c r="C141" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D141" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E141" t="s">
         <v>51</v>
@@ -12155,7 +12289,7 @@
         <v>35</v>
       </c>
       <c r="K141" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="L141" t="s">
         <v>40</v>
@@ -12185,7 +12319,9 @@
       <c r="U141" t="n">
         <v>268.8</v>
       </c>
-      <c r="V141"/>
+      <c r="V141" t="n">
+        <v>2840.23466666667</v>
+      </c>
       <c r="W141"/>
     </row>
     <row r="142">
@@ -12196,10 +12332,10 @@
         <v>181</v>
       </c>
       <c r="C142" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D142" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E142" t="s">
         <v>51</v>
@@ -12263,10 +12399,10 @@
         <v>181</v>
       </c>
       <c r="C143" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D143" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E143" t="s">
         <v>51</v>
@@ -12330,10 +12466,10 @@
         <v>181</v>
       </c>
       <c r="C144" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D144" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E144" t="s">
         <v>51</v>
@@ -12384,7 +12520,9 @@
       <c r="U144" t="n">
         <v>378.88</v>
       </c>
-      <c r="V144"/>
+      <c r="V144" t="n">
+        <v>46952.8302933333</v>
+      </c>
       <c r="W144"/>
     </row>
     <row r="145">
@@ -12395,10 +12533,10 @@
         <v>181</v>
       </c>
       <c r="C145" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D145" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E145" t="s">
         <v>51</v>
@@ -12419,7 +12557,7 @@
         <v>35</v>
       </c>
       <c r="K145" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L145" t="s">
         <v>40</v>
@@ -12462,10 +12600,10 @@
         <v>181</v>
       </c>
       <c r="C146" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D146" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E146" t="s">
         <v>51</v>
@@ -12516,7 +12654,9 @@
       <c r="U146" t="n">
         <v>616.64</v>
       </c>
-      <c r="V146"/>
+      <c r="V146" t="n">
+        <v>97070.6466133333</v>
+      </c>
       <c r="W146"/>
     </row>
     <row r="147">
@@ -12527,10 +12667,10 @@
         <v>181</v>
       </c>
       <c r="C147" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D147" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E147" t="s">
         <v>51</v>
@@ -12581,7 +12721,9 @@
       <c r="U147" t="n">
         <v>292.64</v>
       </c>
-      <c r="V147"/>
+      <c r="V147" t="n">
+        <v>28914.3927466667</v>
+      </c>
       <c r="W147"/>
     </row>
     <row r="148">
@@ -12592,10 +12734,10 @@
         <v>181</v>
       </c>
       <c r="C148" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D148" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E148" t="s">
         <v>51</v>
@@ -12646,7 +12788,9 @@
       <c r="U148" t="n">
         <v>620.8</v>
       </c>
-      <c r="V148"/>
+      <c r="V148" t="n">
+        <v>100844.407466667</v>
+      </c>
       <c r="W148"/>
     </row>
     <row r="149">
@@ -12657,10 +12801,10 @@
         <v>181</v>
       </c>
       <c r="C149" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D149" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E149" t="s">
         <v>51</v>
@@ -12711,7 +12855,9 @@
       <c r="U149" t="n">
         <v>547.2</v>
       </c>
-      <c r="V149"/>
+      <c r="V149" t="n">
+        <v>69644.6976</v>
+      </c>
       <c r="W149"/>
     </row>
     <row r="150">
@@ -12722,10 +12868,10 @@
         <v>181</v>
       </c>
       <c r="C150" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D150" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E150" t="s">
         <v>51</v>
@@ -12776,7 +12922,9 @@
       <c r="U150" t="n">
         <v>449.28</v>
       </c>
-      <c r="V150"/>
+      <c r="V150" t="n">
+        <v>58686.75072</v>
+      </c>
       <c r="W150"/>
     </row>
     <row r="151">
@@ -12787,10 +12935,10 @@
         <v>181</v>
       </c>
       <c r="C151" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D151" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E151" t="s">
         <v>51</v>
@@ -12841,7 +12989,9 @@
       <c r="U151" t="n">
         <v>256</v>
       </c>
-      <c r="V151"/>
+      <c r="V151" t="n">
+        <v>2972.53333333333</v>
+      </c>
       <c r="W151"/>
     </row>
     <row r="152">
@@ -12852,10 +13002,10 @@
         <v>181</v>
       </c>
       <c r="C152" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D152" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E152" t="s">
         <v>51</v>
@@ -12876,7 +13026,7 @@
         <v>35</v>
       </c>
       <c r="K152" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L152" t="s">
         <v>40</v>
@@ -12908,7 +13058,9 @@
       <c r="U152" t="n">
         <v>421.6</v>
       </c>
-      <c r="V152"/>
+      <c r="V152" t="n">
+        <v>6212.10901333333</v>
+      </c>
       <c r="W152"/>
     </row>
     <row r="153">
@@ -12919,10 +13071,10 @@
         <v>181</v>
       </c>
       <c r="C153" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D153" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E153" t="s">
         <v>51</v>
@@ -12946,7 +13098,7 @@
         <v>28</v>
       </c>
       <c r="L153" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M153" t="s">
         <v>100</v>
@@ -12975,7 +13127,9 @@
       <c r="U153" t="n">
         <v>505.92</v>
       </c>
-      <c r="V153"/>
+      <c r="V153" t="n">
+        <v>78794.00448</v>
+      </c>
       <c r="W153"/>
     </row>
     <row r="154">
@@ -12986,10 +13140,10 @@
         <v>181</v>
       </c>
       <c r="C154" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D154" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E154" t="s">
         <v>51</v>
@@ -13042,7 +13196,9 @@
       <c r="U154" t="n">
         <v>589.76</v>
       </c>
-      <c r="V154"/>
+      <c r="V154" t="n">
+        <v>95802.1870933333</v>
+      </c>
       <c r="W154"/>
     </row>
     <row r="155">
@@ -13053,10 +13209,10 @@
         <v>181</v>
       </c>
       <c r="C155" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D155" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E155" t="s">
         <v>51</v>
@@ -13109,7 +13265,9 @@
       <c r="U155" t="n">
         <v>753.28</v>
       </c>
-      <c r="V155"/>
+      <c r="V155" t="n">
+        <v>134979.741013333</v>
+      </c>
       <c r="W155"/>
     </row>
     <row r="156">
@@ -13120,10 +13278,10 @@
         <v>181</v>
       </c>
       <c r="C156" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D156" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E156" t="s">
         <v>51</v>
@@ -13144,7 +13302,7 @@
         <v>35</v>
       </c>
       <c r="K156" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="L156" t="s">
         <v>40</v>
@@ -13174,7 +13332,9 @@
       <c r="U156" t="n">
         <v>316.16</v>
       </c>
-      <c r="V156"/>
+      <c r="V156" t="n">
+        <v>3984.90282666667</v>
+      </c>
       <c r="W156"/>
     </row>
     <row r="157">
@@ -13185,10 +13345,10 @@
         <v>181</v>
       </c>
       <c r="C157" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D157" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E157" t="s">
         <v>51</v>
@@ -13239,7 +13399,9 @@
       <c r="U157" t="n">
         <v>288.96</v>
       </c>
-      <c r="V157"/>
+      <c r="V157" t="n">
+        <v>41616.40448</v>
+      </c>
       <c r="W157"/>
     </row>
     <row r="158">
@@ -13250,10 +13412,10 @@
         <v>181</v>
       </c>
       <c r="C158" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D158" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E158" t="s">
         <v>51</v>
@@ -13306,7 +13468,9 @@
       <c r="U158" t="n">
         <v>393.6</v>
       </c>
-      <c r="V158"/>
+      <c r="V158" t="n">
+        <v>54050.2016</v>
+      </c>
       <c r="W158"/>
     </row>
     <row r="159">
@@ -13317,10 +13481,10 @@
         <v>181</v>
       </c>
       <c r="C159" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D159" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E159" t="s">
         <v>51</v>
@@ -13371,7 +13535,9 @@
       <c r="U159" t="n">
         <v>760.48</v>
       </c>
-      <c r="V159"/>
+      <c r="V159" t="n">
+        <v>123534.399146667</v>
+      </c>
       <c r="W159"/>
     </row>
     <row r="160">
@@ -13382,10 +13548,10 @@
         <v>181</v>
       </c>
       <c r="C160" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D160" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E160" t="s">
         <v>51</v>
@@ -13436,7 +13602,9 @@
       <c r="U160" t="n">
         <v>864.96</v>
       </c>
-      <c r="V160"/>
+      <c r="V160" t="n">
+        <v>147749.00736</v>
+      </c>
       <c r="W160"/>
     </row>
     <row r="161">
@@ -13447,10 +13615,10 @@
         <v>181</v>
       </c>
       <c r="C161" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D161" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E161" t="s">
         <v>51</v>
@@ -13471,7 +13639,7 @@
         <v>32</v>
       </c>
       <c r="K161" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L161"/>
       <c r="M161"/>
@@ -13512,10 +13680,10 @@
         <v>181</v>
       </c>
       <c r="C162" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D162" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E162" t="s">
         <v>51</v>
@@ -13577,10 +13745,10 @@
         <v>181</v>
       </c>
       <c r="C163" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D163" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E163" t="s">
         <v>51</v>
@@ -13642,10 +13810,10 @@
         <v>181</v>
       </c>
       <c r="C164" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D164" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E164" t="s">
         <v>51</v>
@@ -13696,7 +13864,9 @@
       <c r="U164" t="n">
         <v>315.52</v>
       </c>
-      <c r="V164"/>
+      <c r="V164" t="n">
+        <v>4104.13909333333</v>
+      </c>
       <c r="W164"/>
     </row>
     <row r="165">
@@ -13707,7 +13877,7 @@
         <v>181</v>
       </c>
       <c r="C165" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D165" t="s">
         <v>208</v>
@@ -13761,9 +13931,11 @@
       <c r="U165" t="n">
         <v>789.6</v>
       </c>
-      <c r="V165"/>
+      <c r="V165" t="n">
+        <v>138843.264</v>
+      </c>
       <c r="W165" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="166">
@@ -13774,10 +13946,10 @@
         <v>181</v>
       </c>
       <c r="C166" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D166" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E166" t="s">
         <v>51</v>
@@ -13828,9 +14000,11 @@
       <c r="U166" t="n">
         <v>4765.6</v>
       </c>
-      <c r="V166"/>
+      <c r="V166" t="n">
+        <v>1284907.42613333</v>
+      </c>
       <c r="W166" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="167">
@@ -13841,7 +14015,7 @@
         <v>181</v>
       </c>
       <c r="C167" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D167" t="s">
         <v>208</v>
@@ -13865,7 +14039,7 @@
         <v>32</v>
       </c>
       <c r="K167" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="L167" t="s">
         <v>140</v>
@@ -13895,9 +14069,11 @@
       <c r="U167" t="n">
         <v>1689.6</v>
       </c>
-      <c r="V167"/>
+      <c r="V167" t="n">
+        <v>248997.4784</v>
+      </c>
       <c r="W167" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="168">
@@ -13908,7 +14084,7 @@
         <v>181</v>
       </c>
       <c r="C168" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D168" t="s">
         <v>208</v>
@@ -13932,7 +14108,7 @@
         <v>32</v>
       </c>
       <c r="K168" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L168" t="s">
         <v>40</v>
@@ -13966,7 +14142,7 @@
         <v>18837.7224533333</v>
       </c>
       <c r="W168" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="169">
@@ -13977,7 +14153,7 @@
         <v>181</v>
       </c>
       <c r="C169" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D169" t="s">
         <v>208</v>
@@ -14001,7 +14177,7 @@
         <v>35</v>
       </c>
       <c r="K169" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L169" t="s">
         <v>40</v>
@@ -14035,7 +14211,7 @@
         <v>11027.73024</v>
       </c>
       <c r="W169" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="170">
@@ -14046,7 +14222,7 @@
         <v>181</v>
       </c>
       <c r="C170" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D170" t="s">
         <v>208</v>
@@ -14070,7 +14246,7 @@
         <v>82</v>
       </c>
       <c r="K170" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="L170" t="s">
         <v>140</v>
@@ -14100,9 +14276,11 @@
       <c r="U170" t="n">
         <v>422.4</v>
       </c>
-      <c r="V170"/>
+      <c r="V170" t="n">
+        <v>5122.60437333333</v>
+      </c>
       <c r="W170" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="171">
@@ -14113,7 +14291,7 @@
         <v>181</v>
       </c>
       <c r="C171" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D171" t="s">
         <v>208</v>
@@ -14167,9 +14345,11 @@
       <c r="U171" t="n">
         <v>2076.8</v>
       </c>
-      <c r="V171"/>
+      <c r="V171" t="n">
+        <v>382574.250666667</v>
+      </c>
       <c r="W171" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="172">
@@ -14180,10 +14360,10 @@
         <v>181</v>
       </c>
       <c r="C172" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D172" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E172" t="s">
         <v>51</v>
@@ -14234,9 +14414,11 @@
       <c r="U172" t="n">
         <v>4135.04</v>
       </c>
-      <c r="V172"/>
+      <c r="V172" t="n">
+        <v>983323.538773333</v>
+      </c>
       <c r="W172" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="173">
@@ -14247,10 +14429,10 @@
         <v>181</v>
       </c>
       <c r="C173" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D173" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E173" t="s">
         <v>51</v>
@@ -14307,7 +14489,7 @@
         <v>89950.3323733333</v>
       </c>
       <c r="W173" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="174">
@@ -14318,10 +14500,10 @@
         <v>181</v>
       </c>
       <c r="C174" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D174" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E174" t="s">
         <v>51</v>
@@ -14374,9 +14556,11 @@
       <c r="U174" t="n">
         <v>4334.4</v>
       </c>
-      <c r="V174"/>
+      <c r="V174" t="n">
+        <v>936369.1008</v>
+      </c>
       <c r="W174" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="175">
@@ -14387,10 +14571,10 @@
         <v>181</v>
       </c>
       <c r="C175" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D175" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E175" t="s">
         <v>51</v>
@@ -14441,9 +14625,11 @@
       <c r="U175" t="n">
         <v>994.08</v>
       </c>
-      <c r="V175"/>
+      <c r="V175" t="n">
+        <v>181458.03776</v>
+      </c>
       <c r="W175" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="176">
@@ -14454,10 +14640,10 @@
         <v>181</v>
       </c>
       <c r="C176" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D176" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E176" t="s">
         <v>51</v>
@@ -14508,9 +14694,11 @@
       <c r="U176" t="n">
         <v>5614.08</v>
       </c>
-      <c r="V176"/>
+      <c r="V176" t="n">
+        <v>1617094.57408</v>
+      </c>
       <c r="W176" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="177">
@@ -14521,10 +14709,10 @@
         <v>181</v>
       </c>
       <c r="C177" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D177" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E177" t="s">
         <v>51</v>
@@ -14575,9 +14763,11 @@
       <c r="U177" t="n">
         <v>1012</v>
       </c>
-      <c r="V177"/>
+      <c r="V177" t="n">
+        <v>194897.706666667</v>
+      </c>
       <c r="W177" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="178">
@@ -14585,13 +14775,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
+        <v>283</v>
+      </c>
+      <c r="C178" t="s">
         <v>284</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>285</v>
-      </c>
-      <c r="D178" t="s">
-        <v>286</v>
       </c>
       <c r="E178" t="s">
         <v>51</v>
@@ -14652,13 +14842,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C179" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D179" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E179" t="s">
         <v>51</v>
@@ -14679,7 +14869,7 @@
         <v>66</v>
       </c>
       <c r="K179" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L179" t="s">
         <v>40</v>
@@ -14719,13 +14909,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C180" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D180" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E180" t="s">
         <v>51</v>
@@ -14746,7 +14936,7 @@
         <v>66</v>
       </c>
       <c r="K180" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L180" t="s">
         <v>40</v>
@@ -14776,7 +14966,9 @@
       <c r="U180" t="n">
         <v>76</v>
       </c>
-      <c r="V180"/>
+      <c r="V180" t="n">
+        <v>447.370453333333</v>
+      </c>
       <c r="W180"/>
     </row>
     <row r="181">
@@ -14784,13 +14976,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C181" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D181" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E181" t="s">
         <v>51</v>
@@ -14811,7 +15003,7 @@
         <v>27</v>
       </c>
       <c r="K181" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L181" t="s">
         <v>40</v>
@@ -14851,13 +15043,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C182" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D182" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E182" t="s">
         <v>51</v>
@@ -14878,7 +15070,7 @@
         <v>27</v>
       </c>
       <c r="K182" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L182" t="s">
         <v>40</v>
@@ -14918,13 +15110,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C183" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D183" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E183" t="s">
         <v>51</v>
@@ -14985,13 +15177,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C184" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D184" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E184" t="s">
         <v>51</v>
@@ -15012,7 +15204,7 @@
         <v>27</v>
       </c>
       <c r="K184" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L184" t="s">
         <v>40</v>
@@ -15042,7 +15234,9 @@
       <c r="U184" t="n">
         <v>215.04</v>
       </c>
-      <c r="V184"/>
+      <c r="V184" t="n">
+        <v>2310.77205333333</v>
+      </c>
       <c r="W184"/>
     </row>
     <row r="185">
@@ -15050,13 +15244,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C185" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D185" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E185" t="s">
         <v>51</v>
@@ -15077,7 +15271,7 @@
         <v>35</v>
       </c>
       <c r="K185" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L185" t="s">
         <v>40</v>
@@ -15107,7 +15301,9 @@
       <c r="U185" t="n">
         <v>486.4</v>
       </c>
-      <c r="V185"/>
+      <c r="V185" t="n">
+        <v>7931.22133333333</v>
+      </c>
       <c r="W185"/>
     </row>
     <row r="186">
@@ -15115,13 +15311,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C186" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D186" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E186" t="s">
         <v>51</v>
@@ -15142,7 +15338,7 @@
         <v>35</v>
       </c>
       <c r="K186" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L186" t="s">
         <v>40</v>
@@ -15182,13 +15378,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C187" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D187" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E187" t="s">
         <v>51</v>
@@ -15209,7 +15405,7 @@
         <v>27</v>
       </c>
       <c r="K187" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L187" t="s">
         <v>40</v>
@@ -15249,13 +15445,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C188" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D188" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E188" t="s">
         <v>51</v>
@@ -15306,7 +15502,9 @@
       <c r="U188" t="n">
         <v>574.08</v>
       </c>
-      <c r="V188"/>
+      <c r="V188" t="n">
+        <v>10063.8088533333</v>
+      </c>
       <c r="W188"/>
     </row>
     <row r="189">
@@ -15314,13 +15512,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C189" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D189" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E189" t="s">
         <v>51</v>
@@ -15381,13 +15579,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C190" t="s">
+        <v>299</v>
+      </c>
+      <c r="D190" t="s">
         <v>300</v>
-      </c>
-      <c r="D190" t="s">
-        <v>301</v>
       </c>
       <c r="E190" t="s">
         <v>51</v>
@@ -15408,7 +15606,7 @@
         <v>27</v>
       </c>
       <c r="K190" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L190" t="s">
         <v>40</v>
@@ -15448,13 +15646,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C191" t="s">
+        <v>301</v>
+      </c>
+      <c r="D191" t="s">
         <v>302</v>
-      </c>
-      <c r="D191" t="s">
-        <v>303</v>
       </c>
       <c r="E191" t="s">
         <v>51</v>
@@ -15505,7 +15703,9 @@
       <c r="U191" t="n">
         <v>195.36</v>
       </c>
-      <c r="V191"/>
+      <c r="V191" t="n">
+        <v>10796.37504</v>
+      </c>
       <c r="W191"/>
     </row>
     <row r="192">
@@ -15513,13 +15713,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C192" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D192" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E192" t="s">
         <v>51</v>
@@ -15540,7 +15740,7 @@
         <v>66</v>
       </c>
       <c r="K192" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L192" t="s">
         <v>40</v>
@@ -15570,7 +15770,9 @@
       <c r="U192" t="n">
         <v>95.68</v>
       </c>
-      <c r="V192"/>
+      <c r="V192" t="n">
+        <v>3685.33845333333</v>
+      </c>
       <c r="W192"/>
     </row>
     <row r="193">
@@ -15578,13 +15780,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C193" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D193" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E193" t="s">
         <v>51</v>
@@ -15635,7 +15837,9 @@
       <c r="U193" t="n">
         <v>75.68</v>
       </c>
-      <c r="V193"/>
+      <c r="V193" t="n">
+        <v>5449.76725333333</v>
+      </c>
       <c r="W193"/>
     </row>
     <row r="194">
@@ -15643,13 +15847,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C194" t="s">
+        <v>305</v>
+      </c>
+      <c r="D194" t="s">
         <v>306</v>
-      </c>
-      <c r="D194" t="s">
-        <v>307</v>
       </c>
       <c r="E194" t="s">
         <v>51</v>
@@ -15700,7 +15904,9 @@
       <c r="U194" t="n">
         <v>151.04</v>
       </c>
-      <c r="V194"/>
+      <c r="V194" t="n">
+        <v>14923.5575466667</v>
+      </c>
       <c r="W194"/>
     </row>
     <row r="195">
@@ -15708,13 +15914,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C195" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D195" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E195" t="s">
         <v>51</v>
@@ -15775,13 +15981,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C196" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D196" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E196" t="s">
         <v>51</v>
@@ -15842,13 +16048,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C197" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D197" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E197" t="s">
         <v>51</v>
@@ -15899,7 +16105,9 @@
       <c r="U197" t="n">
         <v>330.88</v>
       </c>
-      <c r="V197"/>
+      <c r="V197" t="n">
+        <v>24381.0030933333</v>
+      </c>
       <c r="W197"/>
     </row>
     <row r="198">
@@ -15907,13 +16115,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C198" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D198" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E198" t="s">
         <v>51</v>
@@ -15974,13 +16182,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C199" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D199" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E199" t="s">
         <v>51</v>
@@ -16001,7 +16209,7 @@
         <v>27</v>
       </c>
       <c r="K199" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L199" t="s">
         <v>40</v>
@@ -16041,13 +16249,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C200" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D200" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E200" t="s">
         <v>51</v>
@@ -16108,13 +16316,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C201" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D201" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E201" t="s">
         <v>51</v>
@@ -16175,13 +16383,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C202" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D202" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E202" t="s">
         <v>51</v>
@@ -16232,7 +16440,9 @@
       <c r="U202" t="n">
         <v>318.24</v>
       </c>
-      <c r="V202"/>
+      <c r="V202" t="n">
+        <v>20784.89088</v>
+      </c>
       <c r="W202"/>
     </row>
     <row r="203">
@@ -16240,13 +16450,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C203" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D203" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E203" t="s">
         <v>51</v>
@@ -16307,13 +16517,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C204" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D204" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E204" t="s">
         <v>51</v>
@@ -16334,7 +16544,7 @@
         <v>35</v>
       </c>
       <c r="K204" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L204" t="s">
         <v>40</v>
@@ -16364,7 +16574,9 @@
       <c r="U204" t="n">
         <v>727.04</v>
       </c>
-      <c r="V204"/>
+      <c r="V204" t="n">
+        <v>77923.1778133333</v>
+      </c>
       <c r="W204"/>
     </row>
     <row r="205">
@@ -16372,13 +16584,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C205" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D205" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E205" t="s">
         <v>51</v>
@@ -16439,13 +16651,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C206" t="s">
+        <v>319</v>
+      </c>
+      <c r="D206" t="s">
         <v>320</v>
-      </c>
-      <c r="D206" t="s">
-        <v>321</v>
       </c>
       <c r="E206" t="s">
         <v>51</v>
@@ -16466,7 +16678,7 @@
         <v>35</v>
       </c>
       <c r="K206" t="s">
-        <v>109</v>
+        <v>321</v>
       </c>
       <c r="L206" t="s">
         <v>40</v>
@@ -16506,13 +16718,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C207" t="s">
         <v>322</v>
       </c>
       <c r="D207" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E207" t="s">
         <v>51</v>
@@ -16533,7 +16745,7 @@
         <v>32</v>
       </c>
       <c r="K207" t="s">
-        <v>109</v>
+        <v>321</v>
       </c>
       <c r="L207" t="s">
         <v>40</v>
@@ -16573,13 +16785,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C208" t="s">
         <v>323</v>
       </c>
       <c r="D208" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E208" t="s">
         <v>51</v>
@@ -16600,7 +16812,7 @@
         <v>35</v>
       </c>
       <c r="K208" t="s">
-        <v>109</v>
+        <v>321</v>
       </c>
       <c r="L208" t="s">
         <v>40</v>
@@ -16630,7 +16842,9 @@
       <c r="U208" t="n">
         <v>783.84</v>
       </c>
-      <c r="V208"/>
+      <c r="V208" t="n">
+        <v>90574.27968</v>
+      </c>
       <c r="W208"/>
     </row>
     <row r="209">
@@ -16638,13 +16852,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C209" t="s">
         <v>324</v>
       </c>
       <c r="D209" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E209" t="s">
         <v>51</v>
@@ -16705,13 +16919,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C210" t="s">
         <v>326</v>
       </c>
       <c r="D210" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E210" t="s">
         <v>51</v>
@@ -16732,7 +16946,7 @@
         <v>32</v>
       </c>
       <c r="K210" t="s">
-        <v>109</v>
+        <v>321</v>
       </c>
       <c r="L210" t="s">
         <v>40</v>
@@ -16772,13 +16986,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C211" t="s">
         <v>327</v>
       </c>
       <c r="D211" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E211" t="s">
         <v>51</v>
@@ -16799,7 +17013,7 @@
         <v>32</v>
       </c>
       <c r="K211" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L211" t="s">
         <v>40</v>
@@ -16839,13 +17053,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C212" t="s">
         <v>328</v>
       </c>
       <c r="D212" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E212" t="s">
         <v>51</v>
@@ -16866,7 +17080,7 @@
         <v>32</v>
       </c>
       <c r="K212" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L212" t="s">
         <v>40</v>
@@ -16896,7 +17110,9 @@
       <c r="U212" t="n">
         <v>2433.12</v>
       </c>
-      <c r="V212"/>
+      <c r="V212" t="n">
+        <v>452287.81056</v>
+      </c>
       <c r="W212"/>
     </row>
     <row r="213">
@@ -16904,13 +17120,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C213" t="s">
         <v>329</v>
       </c>
       <c r="D213" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E213" t="s">
         <v>51</v>
@@ -16971,13 +17187,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C214" t="s">
         <v>330</v>
       </c>
       <c r="D214" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E214" t="s">
         <v>51</v>
@@ -17038,13 +17254,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C215" t="s">
         <v>331</v>
       </c>
       <c r="D215" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E215" t="s">
         <v>51</v>
@@ -17105,13 +17321,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C216" t="s">
         <v>332</v>
       </c>
       <c r="D216" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E216" t="s">
         <v>51</v>
@@ -17172,13 +17388,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C217" t="s">
         <v>333</v>
       </c>
       <c r="D217" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E217" t="s">
         <v>51</v>
@@ -17239,13 +17455,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C218" t="s">
         <v>334</v>
       </c>
       <c r="D218" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E218" t="s">
         <v>51</v>
@@ -17306,13 +17522,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C219" t="s">
         <v>335</v>
       </c>
       <c r="D219" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E219" t="s">
         <v>51</v>
@@ -17363,7 +17579,9 @@
       <c r="U219" t="n">
         <v>1464.32</v>
       </c>
-      <c r="V219"/>
+      <c r="V219" t="n">
+        <v>215797.814613333</v>
+      </c>
       <c r="W219"/>
     </row>
     <row r="220">
@@ -17371,13 +17589,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C220" t="s">
         <v>336</v>
       </c>
       <c r="D220" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E220" t="s">
         <v>51</v>
@@ -17428,7 +17646,9 @@
       <c r="U220" t="n">
         <v>410.4</v>
       </c>
-      <c r="V220"/>
+      <c r="V220" t="n">
+        <v>30927.744</v>
+      </c>
       <c r="W220"/>
     </row>
     <row r="221">
@@ -17436,7 +17656,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C221" t="s">
         <v>337</v>
@@ -17503,13 +17723,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C222" t="s">
         <v>339</v>
       </c>
       <c r="D222" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E222" t="s">
         <v>51</v>
@@ -17570,13 +17790,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C223" t="s">
         <v>340</v>
       </c>
       <c r="D223" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E223" t="s">
         <v>51</v>
@@ -17637,13 +17857,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C224" t="s">
         <v>342</v>
       </c>
       <c r="D224" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E224" t="s">
         <v>51</v>
@@ -19356,7 +19576,7 @@
         <v>82</v>
       </c>
       <c r="K250" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L250"/>
       <c r="M250"/>
@@ -20034,7 +20254,9 @@
       <c r="U260" t="n">
         <v>191.52</v>
       </c>
-      <c r="V260"/>
+      <c r="V260" t="n">
+        <v>1905.40224</v>
+      </c>
       <c r="W260"/>
     </row>
     <row r="261">
@@ -20097,7 +20319,9 @@
       <c r="U261" t="n">
         <v>230.4</v>
       </c>
-      <c r="V261"/>
+      <c r="V261" t="n">
+        <v>2546.56512</v>
+      </c>
       <c r="W261"/>
     </row>
     <row r="262">
@@ -20225,7 +20449,9 @@
       <c r="U263" t="n">
         <v>136.8</v>
       </c>
-      <c r="V263"/>
+      <c r="V263" t="n">
+        <v>1172.83605333333</v>
+      </c>
       <c r="W263"/>
     </row>
     <row r="264">
@@ -20288,7 +20514,9 @@
       <c r="U264" t="n">
         <v>228.8</v>
       </c>
-      <c r="V264"/>
+      <c r="V264" t="n">
+        <v>2447.82677333333</v>
+      </c>
       <c r="W264"/>
     </row>
     <row r="265">
@@ -20351,7 +20579,9 @@
       <c r="U265" t="n">
         <v>286.72</v>
       </c>
-      <c r="V265"/>
+      <c r="V265" t="n">
+        <v>3571.19317333333</v>
+      </c>
       <c r="W265"/>
     </row>
     <row r="266">
@@ -20414,7 +20644,9 @@
       <c r="U266" t="n">
         <v>445.44</v>
       </c>
-      <c r="V266"/>
+      <c r="V266" t="n">
+        <v>6756.54314666667</v>
+      </c>
       <c r="W266"/>
     </row>
     <row r="267">
@@ -20477,7 +20709,9 @@
       <c r="U267" t="n">
         <v>160</v>
       </c>
-      <c r="V267"/>
+      <c r="V267" t="n">
+        <v>1473.70666666667</v>
+      </c>
       <c r="W267"/>
     </row>
     <row r="268">
@@ -20540,7 +20774,9 @@
       <c r="U268" t="n">
         <v>252</v>
       </c>
-      <c r="V268"/>
+      <c r="V268" t="n">
+        <v>2909.73333333333</v>
+      </c>
       <c r="W268"/>
     </row>
     <row r="269">
@@ -20603,7 +20839,9 @@
       <c r="U269" t="n">
         <v>360</v>
       </c>
-      <c r="V269"/>
+      <c r="V269" t="n">
+        <v>4973.76</v>
+      </c>
       <c r="W269"/>
     </row>
     <row r="270">
@@ -21483,7 +21721,7 @@
         <v>32</v>
       </c>
       <c r="K283" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L283"/>
       <c r="M283"/>
@@ -21678,7 +21916,7 @@
         <v>35</v>
       </c>
       <c r="K286" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L286"/>
       <c r="M286"/>
@@ -21706,7 +21944,9 @@
       <c r="U286" t="n">
         <v>227.52</v>
       </c>
-      <c r="V286"/>
+      <c r="V286" t="n">
+        <v>2181.21984</v>
+      </c>
       <c r="W286"/>
     </row>
     <row r="287">
@@ -21769,7 +22009,9 @@
       <c r="U287" t="n">
         <v>129.92</v>
       </c>
-      <c r="V287"/>
+      <c r="V287" t="n">
+        <v>958.445226666666</v>
+      </c>
       <c r="W287"/>
     </row>
     <row r="288">
@@ -21832,7 +22074,9 @@
       <c r="U288" t="n">
         <v>153.6</v>
       </c>
-      <c r="V288"/>
+      <c r="V288" t="n">
+        <v>1268.99541333333</v>
+      </c>
       <c r="W288"/>
     </row>
     <row r="289">
@@ -21895,7 +22139,9 @@
       <c r="U289" t="n">
         <v>353.28</v>
       </c>
-      <c r="V289"/>
+      <c r="V289" t="n">
+        <v>4398.61248</v>
+      </c>
       <c r="W289"/>
     </row>
     <row r="290">
@@ -21958,7 +22204,9 @@
       <c r="U290" t="n">
         <v>122.4</v>
       </c>
-      <c r="V290"/>
+      <c r="V290" t="n">
+        <v>926.928</v>
+      </c>
       <c r="W290"/>
     </row>
     <row r="291">
@@ -22021,7 +22269,9 @@
       <c r="U291" t="n">
         <v>61.6</v>
       </c>
-      <c r="V291"/>
+      <c r="V291" t="n">
+        <v>336.373546666667</v>
+      </c>
       <c r="W291"/>
     </row>
     <row r="292">
@@ -22084,7 +22334,9 @@
       <c r="U292" t="n">
         <v>100.8</v>
       </c>
-      <c r="V292"/>
+      <c r="V292" t="n">
+        <v>702.422186666666</v>
+      </c>
       <c r="W292"/>
     </row>
     <row r="293">
@@ -22147,7 +22399,9 @@
       <c r="U293" t="n">
         <v>188.48</v>
       </c>
-      <c r="V293"/>
+      <c r="V293" t="n">
+        <v>1789.48181333333</v>
+      </c>
       <c r="W293"/>
     </row>
     <row r="294">
@@ -22210,7 +22464,9 @@
       <c r="U294" t="n">
         <v>93.6</v>
       </c>
-      <c r="V294"/>
+      <c r="V294" t="n">
+        <v>616.980693333333</v>
+      </c>
       <c r="W294"/>
     </row>
     <row r="295">
@@ -22273,7 +22529,9 @@
       <c r="U295" t="n">
         <v>163.2</v>
       </c>
-      <c r="V295"/>
+      <c r="V295" t="n">
+        <v>1114.12224</v>
+      </c>
       <c r="W295"/>
     </row>
     <row r="296">
@@ -22336,7 +22594,9 @@
       <c r="U296" t="n">
         <v>99.84</v>
       </c>
-      <c r="V296"/>
+      <c r="V296" t="n">
+        <v>636.64128</v>
+      </c>
       <c r="W296"/>
     </row>
     <row r="297">
@@ -22399,7 +22659,9 @@
       <c r="U297" t="n">
         <v>364.8</v>
       </c>
-      <c r="V297"/>
+      <c r="V297" t="n">
+        <v>4572.24192</v>
+      </c>
       <c r="W297"/>
     </row>
     <row r="298">
@@ -22462,7 +22724,9 @@
       <c r="U298" t="n">
         <v>419.52</v>
       </c>
-      <c r="V298"/>
+      <c r="V298" t="n">
+        <v>5244.52010666667</v>
+      </c>
       <c r="W298"/>
     </row>
     <row r="299">
@@ -22525,7 +22789,9 @@
       <c r="U299" t="n">
         <v>281.6</v>
       </c>
-      <c r="V299"/>
+      <c r="V299" t="n">
+        <v>3177.31157333333</v>
+      </c>
       <c r="W299"/>
     </row>
     <row r="300">
@@ -22588,7 +22854,9 @@
       <c r="U300" t="n">
         <v>116.48</v>
       </c>
-      <c r="V300"/>
+      <c r="V300" t="n">
+        <v>840.280746666667</v>
+      </c>
       <c r="W300"/>
     </row>
     <row r="301">
@@ -22651,7 +22919,9 @@
       <c r="U301" t="n">
         <v>228</v>
       </c>
-      <c r="V301"/>
+      <c r="V301" t="n">
+        <v>2261.03445333333</v>
+      </c>
       <c r="W301"/>
     </row>
     <row r="302">
@@ -22714,7 +22984,9 @@
       <c r="U302" t="n">
         <v>201.28</v>
       </c>
-      <c r="V302"/>
+      <c r="V302" t="n">
+        <v>1819.75978666667</v>
+      </c>
       <c r="W302"/>
     </row>
     <row r="303">
@@ -22777,7 +23049,9 @@
       <c r="U303" t="n">
         <v>114.4</v>
       </c>
-      <c r="V303"/>
+      <c r="V303" t="n">
+        <v>786.791893333333</v>
+      </c>
       <c r="W303"/>
     </row>
     <row r="304">
@@ -22840,7 +23114,9 @@
       <c r="U304" t="n">
         <v>148.8</v>
       </c>
-      <c r="V304"/>
+      <c r="V304" t="n">
+        <v>1175.616</v>
+      </c>
       <c r="W304"/>
     </row>
     <row r="305">
@@ -22903,7 +23179,9 @@
       <c r="U305" t="n">
         <v>62.4</v>
       </c>
-      <c r="V305"/>
+      <c r="V305" t="n">
+        <v>362.263893333333</v>
+      </c>
       <c r="W305"/>
     </row>
     <row r="306">
@@ -22966,7 +23244,9 @@
       <c r="U306" t="n">
         <v>67.2</v>
       </c>
-      <c r="V306"/>
+      <c r="V306" t="n">
+        <v>390.66624</v>
+      </c>
       <c r="W306"/>
     </row>
     <row r="307">
@@ -23159,7 +23439,9 @@
       <c r="U309" t="n">
         <v>4646.4</v>
       </c>
-      <c r="V309"/>
+      <c r="V309" t="n">
+        <v>1283893.248</v>
+      </c>
       <c r="W309"/>
     </row>
     <row r="310">
@@ -23222,7 +23504,9 @@
       <c r="U310" t="n">
         <v>876</v>
       </c>
-      <c r="V310"/>
+      <c r="V310" t="n">
+        <v>107091.584</v>
+      </c>
       <c r="W310"/>
     </row>
     <row r="311">
@@ -23395,7 +23679,7 @@
         <v>35</v>
       </c>
       <c r="K313" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L313" t="s">
         <v>40</v>
@@ -23561,7 +23845,9 @@
       <c r="U315" t="n">
         <v>299.52</v>
       </c>
-      <c r="V315"/>
+      <c r="V315" t="n">
+        <v>18057.46176</v>
+      </c>
       <c r="W315" t="s">
         <v>445</v>
       </c>
@@ -23628,7 +23914,9 @@
       <c r="U316" t="n">
         <v>1098.24</v>
       </c>
-      <c r="V316"/>
+      <c r="V316" t="n">
+        <v>121386.27072</v>
+      </c>
       <c r="W316" t="s">
         <v>448</v>
       </c>
@@ -23833,7 +24121,9 @@
       <c r="U319" t="n">
         <v>72</v>
       </c>
-      <c r="V319"/>
+      <c r="V319" t="n">
+        <v>452.16</v>
+      </c>
       <c r="W319" t="s">
         <v>437</v>
       </c>
@@ -24107,7 +24397,9 @@
       <c r="U323" t="n">
         <v>63.36</v>
       </c>
-      <c r="V323"/>
+      <c r="V323" t="n">
+        <v>1909.92384</v>
+      </c>
       <c r="W323" t="s">
         <v>457</v>
       </c>
@@ -24174,7 +24466,9 @@
       <c r="U324" t="n">
         <v>40.8</v>
       </c>
-      <c r="V324"/>
+      <c r="V324" t="n">
+        <v>1024.896</v>
+      </c>
       <c r="W324" t="s">
         <v>457</v>
       </c>
@@ -24241,7 +24535,9 @@
       <c r="U325" t="n">
         <v>36.48</v>
       </c>
-      <c r="V325"/>
+      <c r="V325" t="n">
+        <v>733.10208</v>
+      </c>
       <c r="W325" t="s">
         <v>457</v>
       </c>
@@ -24308,7 +24604,9 @@
       <c r="U326" t="n">
         <v>729.6</v>
       </c>
-      <c r="V326"/>
+      <c r="V326" t="n">
+        <v>73310.208</v>
+      </c>
       <c r="W326" t="s">
         <v>457</v>
       </c>
@@ -24375,7 +24673,9 @@
       <c r="U327" t="n">
         <v>53.76</v>
       </c>
-      <c r="V327"/>
+      <c r="V327" t="n">
+        <v>1440.48128</v>
+      </c>
       <c r="W327" t="s">
         <v>463</v>
       </c>
@@ -24442,7 +24742,9 @@
       <c r="U328" t="n">
         <v>648</v>
       </c>
-      <c r="V328"/>
+      <c r="V328" t="n">
+        <v>54259.2</v>
+      </c>
       <c r="W328" t="s">
         <v>448</v>
       </c>
@@ -24509,7 +24811,9 @@
       <c r="U329" t="n">
         <v>380.16</v>
       </c>
-      <c r="V329"/>
+      <c r="V329" t="n">
+        <v>4803.74784</v>
+      </c>
       <c r="W329" t="s">
         <v>457</v>
       </c>
@@ -24576,7 +24880,9 @@
       <c r="U330" t="n">
         <v>358.56</v>
       </c>
-      <c r="V330"/>
+      <c r="V330" t="n">
+        <v>4761.2448</v>
+      </c>
       <c r="W330" t="s">
         <v>457</v>
       </c>
@@ -24643,7 +24949,9 @@
       <c r="U331" t="n">
         <v>590.4</v>
       </c>
-      <c r="V331"/>
+      <c r="V331" t="n">
+        <v>10584.8311466667</v>
+      </c>
       <c r="W331" t="s">
         <v>457</v>
       </c>
@@ -24710,7 +25018,9 @@
       <c r="U332" t="n">
         <v>92.8</v>
       </c>
-      <c r="V332"/>
+      <c r="V332" t="n">
+        <v>4506.86293333333</v>
+      </c>
       <c r="W332" t="s">
         <v>457</v>
       </c>
@@ -24986,7 +25296,9 @@
       <c r="U336" t="n">
         <v>63.84</v>
       </c>
-      <c r="V336"/>
+      <c r="V336" t="n">
+        <v>2031.30368</v>
+      </c>
       <c r="W336" t="s">
         <v>477</v>
       </c>
@@ -25398,7 +25710,9 @@
       <c r="U342" t="n">
         <v>183.52</v>
       </c>
-      <c r="V342"/>
+      <c r="V342" t="n">
+        <v>9527.37962666667</v>
+      </c>
       <c r="W342" t="s">
         <v>483</v>
       </c>
@@ -25500,7 +25814,7 @@
         <v>1140</v>
       </c>
       <c r="I344" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J344" t="s">
         <v>35</v>
@@ -25713,7 +26027,7 @@
         <v>27</v>
       </c>
       <c r="K347" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="L347" t="s">
         <v>40</v>
@@ -25812,7 +26126,9 @@
       <c r="U348" t="n">
         <v>191.36</v>
       </c>
-      <c r="V348"/>
+      <c r="V348" t="n">
+        <v>14741.3538133333</v>
+      </c>
       <c r="W348" t="s">
         <v>483</v>
       </c>
@@ -26080,7 +26396,9 @@
       <c r="U352" t="n">
         <v>134.4</v>
       </c>
-      <c r="V352"/>
+      <c r="V352" t="n">
+        <v>7877.632</v>
+      </c>
       <c r="W352"/>
     </row>
     <row r="353">
@@ -26145,7 +26463,9 @@
       <c r="U353" t="n">
         <v>138.24</v>
       </c>
-      <c r="V353"/>
+      <c r="V353" t="n">
+        <v>7408.18944</v>
+      </c>
       <c r="W353"/>
     </row>
     <row r="354">
@@ -26210,7 +26530,9 @@
       <c r="U354" t="n">
         <v>103.36</v>
       </c>
-      <c r="V354"/>
+      <c r="V354" t="n">
+        <v>5885.18058666667</v>
+      </c>
       <c r="W354"/>
     </row>
     <row r="355">
@@ -26543,7 +26865,9 @@
       <c r="U359" t="n">
         <v>61.6</v>
       </c>
-      <c r="V359"/>
+      <c r="V359" t="n">
+        <v>336.373546666667</v>
+      </c>
       <c r="W359"/>
     </row>
     <row r="360">
@@ -26608,7 +26932,9 @@
       <c r="U360" t="n">
         <v>353.28</v>
       </c>
-      <c r="V360"/>
+      <c r="V360" t="n">
+        <v>40822.21056</v>
+      </c>
       <c r="W360"/>
     </row>
     <row r="361">
@@ -26673,7 +26999,9 @@
       <c r="U361" t="n">
         <v>224.64</v>
       </c>
-      <c r="V361"/>
+      <c r="V361" t="n">
+        <v>13543.09632</v>
+      </c>
       <c r="W361"/>
     </row>
     <row r="362">
@@ -26872,7 +27200,9 @@
       <c r="U364" t="n">
         <v>196.8</v>
       </c>
-      <c r="V364"/>
+      <c r="V364" t="n">
+        <v>13512.5504</v>
+      </c>
       <c r="W364"/>
     </row>
     <row r="365">
@@ -27108,7 +27438,7 @@
         <v>35</v>
       </c>
       <c r="K368" t="s">
-        <v>109</v>
+        <v>321</v>
       </c>
       <c r="L368" t="s">
         <v>40</v>
@@ -27272,7 +27602,9 @@
       <c r="U370" t="n">
         <v>228.48</v>
       </c>
-      <c r="V370"/>
+      <c r="V370" t="n">
+        <v>19514.01984</v>
+      </c>
       <c r="W370"/>
     </row>
     <row r="371">
@@ -27337,7 +27669,9 @@
       <c r="U371" t="n">
         <v>195.52</v>
       </c>
-      <c r="V371"/>
+      <c r="V371" t="n">
+        <v>15389.2488533333</v>
+      </c>
       <c r="W371"/>
     </row>
     <row r="372">
@@ -27402,7 +27736,9 @@
       <c r="U372" t="n">
         <v>194.4</v>
       </c>
-      <c r="V372"/>
+      <c r="V372" t="n">
+        <v>14649.984</v>
+      </c>
       <c r="W372"/>
     </row>
     <row r="373">
@@ -27467,7 +27803,9 @@
       <c r="U373" t="n">
         <v>180</v>
       </c>
-      <c r="V373"/>
+      <c r="V373" t="n">
+        <v>13564.8</v>
+      </c>
       <c r="W373"/>
     </row>
     <row r="374">
@@ -27502,7 +27840,7 @@
         <v>27</v>
       </c>
       <c r="K374" t="s">
-        <v>109</v>
+        <v>321</v>
       </c>
       <c r="L374" t="s">
         <v>40</v>
@@ -27800,7 +28138,9 @@
       <c r="U378" t="n">
         <v>624.16</v>
       </c>
-      <c r="V378"/>
+      <c r="V378" t="n">
+        <v>86756.5755733333</v>
+      </c>
       <c r="W378" t="s">
         <v>529</v>
       </c>
@@ -27936,7 +28276,9 @@
       <c r="U380" t="n">
         <v>144</v>
       </c>
-      <c r="V380"/>
+      <c r="V380" t="n">
+        <v>1214.13333333333</v>
+      </c>
       <c r="W380" t="s">
         <v>529</v>
       </c>
@@ -28003,7 +28345,9 @@
       <c r="U381" t="n">
         <v>220.32</v>
       </c>
-      <c r="V381"/>
+      <c r="V381" t="n">
+        <v>2417.24736</v>
+      </c>
       <c r="W381" t="s">
         <v>529</v>
       </c>
@@ -28070,7 +28414,9 @@
       <c r="U382" t="n">
         <v>269.12</v>
       </c>
-      <c r="V382"/>
+      <c r="V382" t="n">
+        <v>3267.47562666667</v>
+      </c>
       <c r="W382" t="s">
         <v>529</v>
       </c>
@@ -28474,7 +28820,9 @@
       <c r="U388" t="n">
         <v>633.6</v>
       </c>
-      <c r="V388"/>
+      <c r="V388" t="n">
+        <v>58358.784</v>
+      </c>
       <c r="W388" t="s">
         <v>529</v>
       </c>
@@ -28539,7 +28887,9 @@
       <c r="U389" t="n">
         <v>807.36</v>
       </c>
-      <c r="V389"/>
+      <c r="V389" t="n">
+        <v>78419.41504</v>
+      </c>
       <c r="W389" t="s">
         <v>529</v>
       </c>
@@ -28606,7 +28956,9 @@
       <c r="U390" t="n">
         <v>585.12</v>
       </c>
-      <c r="V390"/>
+      <c r="V390" t="n">
+        <v>67611.78624</v>
+      </c>
       <c r="W390" t="s">
         <v>529</v>
       </c>
@@ -28736,7 +29088,9 @@
       <c r="U392" t="n">
         <v>917.28</v>
       </c>
-      <c r="V392"/>
+      <c r="V392" t="n">
+        <v>179728.17408</v>
+      </c>
       <c r="W392"/>
     </row>
     <row r="393">
@@ -28799,7 +29153,9 @@
       <c r="U393" t="n">
         <v>1737.12</v>
       </c>
-      <c r="V393"/>
+      <c r="V393" t="n">
+        <v>410182.67136</v>
+      </c>
       <c r="W393"/>
     </row>
     <row r="394">
@@ -28864,7 +29220,9 @@
       <c r="U394" t="n">
         <v>648.96</v>
       </c>
-      <c r="V394"/>
+      <c r="V394" t="n">
+        <v>9418.86122666667</v>
+      </c>
       <c r="W394"/>
     </row>
     <row r="395">
@@ -29031,7 +29389,7 @@
         <v>32</v>
       </c>
       <c r="K397" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L397"/>
       <c r="M397"/>
@@ -29096,7 +29454,7 @@
         <v>32</v>
       </c>
       <c r="K398" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L398" t="s">
         <v>40</v>
@@ -29126,7 +29484,9 @@
       <c r="U398" t="n">
         <v>983.68</v>
       </c>
-      <c r="V398"/>
+      <c r="V398" t="n">
+        <v>174617.627306667</v>
+      </c>
       <c r="W398"/>
     </row>
     <row r="399">
@@ -29161,7 +29521,7 @@
         <v>82</v>
       </c>
       <c r="K399" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L399"/>
       <c r="M399"/>
@@ -29358,7 +29718,7 @@
         <v>35</v>
       </c>
       <c r="K402" t="s">
-        <v>109</v>
+        <v>321</v>
       </c>
       <c r="L402"/>
       <c r="M402"/>
@@ -29386,7 +29746,9 @@
       <c r="U402" t="n">
         <v>924</v>
       </c>
-      <c r="V402"/>
+      <c r="V402" t="n">
+        <v>116054.4</v>
+      </c>
       <c r="W402"/>
     </row>
     <row r="403">
@@ -29451,7 +29813,9 @@
       <c r="U403" t="n">
         <v>427.68</v>
       </c>
-      <c r="V403"/>
+      <c r="V403" t="n">
+        <v>6455.94048</v>
+      </c>
       <c r="W403"/>
     </row>
     <row r="404">
@@ -29516,7 +29880,9 @@
       <c r="U404" t="n">
         <v>839.04</v>
       </c>
-      <c r="V404"/>
+      <c r="V404" t="n">
+        <v>129270.33344</v>
+      </c>
       <c r="W404"/>
     </row>
     <row r="405">
@@ -29551,7 +29917,7 @@
         <v>27</v>
       </c>
       <c r="K405" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L405" t="s">
         <v>40</v>
@@ -29750,7 +30116,7 @@
         <v>35</v>
       </c>
       <c r="K408" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="L408" t="s">
         <v>140</v>
@@ -29821,7 +30187,7 @@
         <v>35</v>
       </c>
       <c r="K409" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L409" t="s">
         <v>140</v>
@@ -29892,7 +30258,7 @@
         <v>35</v>
       </c>
       <c r="K410" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="L410"/>
       <c r="M410" t="s">
@@ -30265,7 +30631,9 @@
       <c r="U415" t="n">
         <v>772.48</v>
       </c>
-      <c r="V415"/>
+      <c r="V415" t="n">
+        <v>87967.9624533333</v>
+      </c>
       <c r="W415" t="s">
         <v>566</v>
       </c>
@@ -30892,7 +31260,9 @@
       <c r="U424" t="n">
         <v>94.24</v>
       </c>
-      <c r="V424"/>
+      <c r="V424" t="n">
+        <v>4892.43818666667</v>
+      </c>
       <c r="W424" t="s">
         <v>566</v>
       </c>
@@ -30961,7 +31331,9 @@
       <c r="U425" t="n">
         <v>74.24</v>
       </c>
-      <c r="V425"/>
+      <c r="V425" t="n">
+        <v>3605.49034666667</v>
+      </c>
       <c r="W425" t="s">
         <v>566</v>
       </c>
@@ -31030,7 +31402,9 @@
       <c r="U426" t="n">
         <v>92.48</v>
       </c>
-      <c r="V426"/>
+      <c r="V426" t="n">
+        <v>5265.68789333333</v>
+      </c>
       <c r="W426" t="s">
         <v>566</v>
       </c>
@@ -31302,7 +31676,9 @@
       <c r="U430" t="n">
         <v>89.76</v>
       </c>
-      <c r="V430"/>
+      <c r="V430" t="n">
+        <v>4960.49664</v>
+      </c>
       <c r="W430" t="s">
         <v>566</v>
       </c>
@@ -31369,7 +31745,9 @@
       <c r="U431" t="n">
         <v>108.8</v>
       </c>
-      <c r="V431"/>
+      <c r="V431" t="n">
+        <v>6194.92693333333</v>
+      </c>
       <c r="W431" t="s">
         <v>566</v>
       </c>
@@ -31940,7 +32318,7 @@
         <v>850</v>
       </c>
       <c r="I440" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J440" t="s">
         <v>35</v>
@@ -32074,7 +32452,7 @@
         <v>850</v>
       </c>
       <c r="I442" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J442" t="s">
         <v>27</v>
@@ -32342,7 +32720,7 @@
         <v>850</v>
       </c>
       <c r="I446" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J446" t="s">
         <v>27</v>
@@ -34803,7 +35181,7 @@
         <v>66</v>
       </c>
       <c r="K483" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L483" t="s">
         <v>40</v>
@@ -35339,7 +35717,7 @@
         <v>1050</v>
       </c>
       <c r="I491" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J491" t="s">
         <v>66</v>
@@ -35406,7 +35784,7 @@
         <v>1050</v>
       </c>
       <c r="I492" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J492" t="s">
         <v>27</v>
@@ -35473,7 +35851,7 @@
         <v>1050</v>
       </c>
       <c r="I493" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J493" t="s">
         <v>27</v>
@@ -35540,7 +35918,7 @@
         <v>1050</v>
       </c>
       <c r="I494" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J494" t="s">
         <v>66</v>
@@ -35808,7 +36186,7 @@
         <v>1050</v>
       </c>
       <c r="I498" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J498" t="s">
         <v>66</v>
@@ -35875,7 +36253,7 @@
         <v>1050</v>
       </c>
       <c r="I499" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J499" t="s">
         <v>27</v>
@@ -36007,7 +36385,7 @@
         <v>1050</v>
       </c>
       <c r="I501" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J501" t="s">
         <v>27</v>
@@ -36145,7 +36523,7 @@
         <v>66</v>
       </c>
       <c r="K503" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="L503"/>
       <c r="M503"/>
@@ -36656,7 +37034,9 @@
       <c r="U510" t="n">
         <v>151.2</v>
       </c>
-      <c r="V510"/>
+      <c r="V510" t="n">
+        <v>1245.24864</v>
+      </c>
       <c r="W510" t="s">
         <v>656</v>
       </c>
@@ -39199,7 +39579,9 @@
       <c r="U547" t="n">
         <v>76.8</v>
       </c>
-      <c r="V547"/>
+      <c r="V547" t="n">
+        <v>3858.432</v>
+      </c>
       <c r="W547" t="s">
         <v>687</v>
       </c>
@@ -39674,7 +40056,9 @@
       <c r="U554" t="n">
         <v>915.2</v>
       </c>
-      <c r="V554"/>
+      <c r="V554" t="n">
+        <v>168592.042666667</v>
+      </c>
       <c r="W554"/>
     </row>
     <row r="555">
@@ -39739,7 +40123,9 @@
       <c r="U555" t="n">
         <v>426.24</v>
       </c>
-      <c r="V555"/>
+      <c r="V555" t="n">
+        <v>51394.31424</v>
+      </c>
       <c r="W555"/>
     </row>
     <row r="556">
@@ -39804,7 +40190,9 @@
       <c r="U556" t="n">
         <v>596.16</v>
       </c>
-      <c r="V556"/>
+      <c r="V556" t="n">
+        <v>80867.91168</v>
+      </c>
       <c r="W556"/>
     </row>
     <row r="557">
@@ -39839,7 +40227,7 @@
         <v>32</v>
       </c>
       <c r="K557" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="L557" t="s">
         <v>140</v>
@@ -39871,7 +40259,9 @@
       <c r="U557" t="n">
         <v>382.72</v>
       </c>
-      <c r="V557"/>
+      <c r="V557" t="n">
+        <v>58965.4152533333</v>
+      </c>
       <c r="W557" t="s">
         <v>738</v>
       </c>
@@ -39938,7 +40328,9 @@
       <c r="U558" t="n">
         <v>1254.4</v>
       </c>
-      <c r="V558"/>
+      <c r="V558" t="n">
+        <v>168056.149333333</v>
+      </c>
       <c r="W558"/>
     </row>
     <row r="559">
@@ -40005,7 +40397,9 @@
       <c r="U559" t="n">
         <v>3617.6</v>
       </c>
-      <c r="V559"/>
+      <c r="V559" t="n">
+        <v>805750.459733333</v>
+      </c>
       <c r="W559" t="s">
         <v>741</v>
       </c>
@@ -40139,7 +40533,9 @@
       <c r="U561" t="n">
         <v>923.52</v>
       </c>
-      <c r="V561"/>
+      <c r="V561" t="n">
+        <v>57223.76192</v>
+      </c>
       <c r="W561" t="s">
         <v>744</v>
       </c>
@@ -40206,7 +40602,9 @@
       <c r="U562" t="n">
         <v>242.88</v>
       </c>
-      <c r="V562"/>
+      <c r="V562" t="n">
+        <v>2626.14528</v>
+      </c>
       <c r="W562"/>
     </row>
     <row r="563">
@@ -40436,7 +40834,7 @@
         <v>1150</v>
       </c>
       <c r="I566" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J566" t="s">
         <v>27</v>
@@ -40539,7 +40937,9 @@
       <c r="U567" t="n">
         <v>65.28</v>
       </c>
-      <c r="V567"/>
+      <c r="V567" t="n">
+        <v>367.823786666667</v>
+      </c>
       <c r="W567"/>
     </row>
     <row r="568">
@@ -41583,7 +41983,7 @@
       </c>
       <c r="J585"/>
       <c r="K585" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="L585"/>
       <c r="M585"/>
@@ -41721,7 +42121,9 @@
       <c r="U587" t="n">
         <v>0</v>
       </c>
-      <c r="V587"/>
+      <c r="V587" t="n">
+        <v>0</v>
+      </c>
       <c r="W587" t="s">
         <v>786</v>
       </c>
@@ -41776,7 +42178,9 @@
       <c r="U588" t="n">
         <v>0</v>
       </c>
-      <c r="V588"/>
+      <c r="V588" t="n">
+        <v>0</v>
+      </c>
       <c r="W588" t="s">
         <v>786</v>
       </c>
@@ -41831,7 +42235,9 @@
       <c r="U589" t="n">
         <v>0</v>
       </c>
-      <c r="V589"/>
+      <c r="V589" t="n">
+        <v>0</v>
+      </c>
       <c r="W589" t="s">
         <v>786</v>
       </c>
@@ -41886,7 +42292,9 @@
       <c r="U590" t="n">
         <v>0</v>
       </c>
-      <c r="V590"/>
+      <c r="V590" t="n">
+        <v>0</v>
+      </c>
       <c r="W590" t="s">
         <v>786</v>
       </c>
@@ -41941,7 +42349,9 @@
       <c r="U591" t="n">
         <v>0</v>
       </c>
-      <c r="V591"/>
+      <c r="V591" t="n">
+        <v>0</v>
+      </c>
       <c r="W591" t="s">
         <v>786</v>
       </c>
@@ -41996,7 +42406,9 @@
       <c r="U592" t="n">
         <v>0</v>
       </c>
-      <c r="V592"/>
+      <c r="V592" t="n">
+        <v>0</v>
+      </c>
       <c r="W592" t="s">
         <v>786</v>
       </c>
@@ -42051,7 +42463,9 @@
       <c r="U593" t="n">
         <v>0</v>
       </c>
-      <c r="V593"/>
+      <c r="V593" t="n">
+        <v>0</v>
+      </c>
       <c r="W593" t="s">
         <v>786</v>
       </c>
@@ -42686,7 +43100,9 @@
       <c r="U604" t="n">
         <v>376.96</v>
       </c>
-      <c r="V604"/>
+      <c r="V604" t="n">
+        <v>5343.05749333333</v>
+      </c>
       <c r="W604"/>
     </row>
     <row r="605">
@@ -42749,7 +43165,9 @@
       <c r="U605" t="n">
         <v>952.32</v>
       </c>
-      <c r="V605"/>
+      <c r="V605" t="n">
+        <v>21298.54464</v>
+      </c>
       <c r="W605"/>
     </row>
     <row r="606">
@@ -42812,7 +43230,9 @@
       <c r="U606" t="n">
         <v>936.96</v>
       </c>
-      <c r="V606"/>
+      <c r="V606" t="n">
+        <v>20835.5328</v>
+      </c>
       <c r="W606"/>
     </row>
     <row r="607">

--- a/analysis/data/raw_data/data_measurements_01.xlsx
+++ b/analysis/data/raw_data/data_measurements_01.xlsx
@@ -83,181 +83,181 @@
     <t xml:space="preserve">V2</t>
   </si>
   <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akumbu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V45</t>
+  </si>
+  <si>
     <t xml:space="preserve">d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akumbu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V45</t>
   </si>
   <si>
     <t xml:space="preserve">V46</t>
@@ -2590,7 +2590,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -2633,7 +2633,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
         <v>6</v>
@@ -2642,13 +2642,13 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
       </c>
       <c r="I5"/>
       <c r="J5" t="n">
@@ -2684,19 +2684,19 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2733,7 +2733,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
         <v>9</v>
@@ -2782,19 +2782,19 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
         <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -2831,19 +2831,19 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
         <v>31</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -2877,10 +2877,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
       </c>
       <c r="D10" t="n">
         <v>7</v>
@@ -2895,7 +2895,7 @@
         <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10"/>
       <c r="J10" t="n">
@@ -2928,16 +2928,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="n">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -2946,7 +2946,7 @@
         <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11"/>
       <c r="J11" t="n">
@@ -2979,10 +2979,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" t="n">
         <v>3</v>
@@ -2997,7 +2997,7 @@
         <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I12"/>
       <c r="J12" t="n">
@@ -3030,10 +3030,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="n">
         <v>5</v>
@@ -3079,10 +3079,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" t="n">
         <v>4</v>
@@ -3091,13 +3091,13 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14"/>
       <c r="J14" t="n">
@@ -3130,10 +3130,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" t="n">
         <v>4</v>
@@ -3142,13 +3142,13 @@
         <v>23</v>
       </c>
       <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
         <v>31</v>
       </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15"/>
       <c r="J15" t="n">
@@ -3181,10 +3181,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
@@ -3193,10 +3193,10 @@
         <v>23</v>
       </c>
       <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
         <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
@@ -3230,10 +3230,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" t="n">
         <v>5</v>
@@ -3248,7 +3248,7 @@
         <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I17"/>
       <c r="J17" t="n">
@@ -3281,10 +3281,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" t="n">
         <v>5</v>
@@ -3293,13 +3293,13 @@
         <v>19</v>
       </c>
       <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" t="s">
         <v>45</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I18"/>
       <c r="J18" t="n">
@@ -3332,16 +3332,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" t="n">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
@@ -3350,7 +3350,7 @@
         <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I19"/>
       <c r="J19" t="n">
@@ -3383,10 +3383,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" t="n">
         <v>9</v>
@@ -3401,7 +3401,7 @@
         <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I20"/>
       <c r="J20" t="n">
@@ -3434,10 +3434,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" t="n">
         <v>4</v>
@@ -3446,13 +3446,13 @@
         <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s">
         <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I21"/>
       <c r="J21" t="n">
@@ -3485,10 +3485,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -3503,7 +3503,7 @@
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I22"/>
       <c r="J22" t="n">
@@ -3536,10 +3536,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -3554,7 +3554,7 @@
         <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I23"/>
       <c r="J23" t="n">
@@ -3587,16 +3587,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
         <v>20</v>
@@ -3605,7 +3605,7 @@
         <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I24"/>
       <c r="J24" t="n">
@@ -3638,16 +3638,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" t="n">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -3656,7 +3656,7 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I25"/>
       <c r="J25" t="n">
@@ -3689,10 +3689,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" t="n">
         <v>8</v>
@@ -3707,7 +3707,7 @@
         <v>21</v>
       </c>
       <c r="H26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I26"/>
       <c r="J26" t="n">
@@ -3740,10 +3740,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" t="n">
         <v>8</v>
@@ -3758,7 +3758,7 @@
         <v>21</v>
       </c>
       <c r="H27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I27"/>
       <c r="J27" t="n">
@@ -3791,10 +3791,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" t="n">
         <v>5</v>
@@ -3803,10 +3803,10 @@
         <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
@@ -3840,25 +3840,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" t="n">
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
         <v>31</v>
       </c>
-      <c r="G29" t="s">
-        <v>32</v>
-      </c>
       <c r="H29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I29"/>
       <c r="J29" t="n">
@@ -3891,10 +3891,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" t="n">
         <v>5</v>
@@ -3903,13 +3903,13 @@
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I30"/>
       <c r="J30" t="n">
@@ -3942,25 +3942,25 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" t="n">
         <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" t="s">
         <v>45</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
       <c r="H31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I31"/>
       <c r="J31" t="n">
@@ -3993,10 +3993,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" t="n">
         <v>5</v>
@@ -4005,13 +4005,13 @@
         <v>50</v>
       </c>
       <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
         <v>31</v>
       </c>
-      <c r="G32" t="s">
-        <v>32</v>
-      </c>
       <c r="H32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I32"/>
       <c r="J32" t="n">
@@ -4044,25 +4044,25 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" t="n">
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I33"/>
       <c r="J33" t="n">
@@ -4095,10 +4095,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D34" t="n">
         <v>4</v>
@@ -4107,13 +4107,13 @@
         <v>19</v>
       </c>
       <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
         <v>31</v>
       </c>
-      <c r="G34" t="s">
-        <v>32</v>
-      </c>
       <c r="H34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I34"/>
       <c r="J34" t="n">
@@ -4146,25 +4146,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D35" t="n">
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I35"/>
       <c r="J35" t="n">
@@ -4197,25 +4197,25 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D36" t="n">
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
       </c>
-      <c r="G36" t="s">
-        <v>32</v>
-      </c>
       <c r="H36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I36"/>
       <c r="J36" t="n">
@@ -4248,22 +4248,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" t="n">
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
         <v>31</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
@@ -4297,25 +4297,25 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D38" t="n">
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
         <v>31</v>
       </c>
-      <c r="G38" t="s">
-        <v>32</v>
-      </c>
       <c r="H38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I38"/>
       <c r="J38" t="n">
@@ -4348,25 +4348,25 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" t="n">
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s">
         <v>31</v>
       </c>
-      <c r="G39" t="s">
-        <v>32</v>
-      </c>
       <c r="H39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I39"/>
       <c r="J39" t="n">
@@ -4399,25 +4399,25 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D40" t="n">
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I40"/>
       <c r="J40" t="n">
@@ -4450,10 +4450,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D41" t="n">
         <v>5</v>
@@ -4462,13 +4462,13 @@
         <v>23</v>
       </c>
       <c r="F41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s">
         <v>31</v>
       </c>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
       <c r="H41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I41"/>
       <c r="J41" t="n">
@@ -4501,22 +4501,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" t="n">
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
@@ -4550,10 +4550,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D43" t="n">
         <v>5</v>
@@ -4562,10 +4562,10 @@
         <v>23</v>
       </c>
       <c r="F43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" t="s">
         <v>31</v>
-      </c>
-      <c r="G43" t="s">
-        <v>32</v>
       </c>
       <c r="H43"/>
       <c r="I43"/>
@@ -4599,10 +4599,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44" t="n">
         <v>5</v>
@@ -4611,13 +4611,13 @@
         <v>23</v>
       </c>
       <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s">
         <v>31</v>
       </c>
-      <c r="G44" t="s">
-        <v>32</v>
-      </c>
       <c r="H44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I44"/>
       <c r="J44" t="n">
@@ -4650,10 +4650,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D45" t="n">
         <v>5</v>
@@ -4662,13 +4662,13 @@
         <v>23</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I45"/>
       <c r="J45" t="n">
@@ -4701,25 +4701,25 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D46" t="n">
         <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" t="s">
         <v>31</v>
       </c>
-      <c r="G46" t="s">
-        <v>32</v>
-      </c>
       <c r="H46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I46"/>
       <c r="J46" t="n">
@@ -4752,7 +4752,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
         <v>82</v>
@@ -4761,7 +4761,7 @@
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F47" t="s">
         <v>20</v>
@@ -4803,7 +4803,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
         <v>84</v>
@@ -4852,7 +4852,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
         <v>86</v>
@@ -4861,16 +4861,16 @@
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I49"/>
       <c r="J49" t="n">
@@ -4903,7 +4903,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
         <v>87</v>
@@ -4911,9 +4911,7 @@
       <c r="D50" t="n">
         <v>13</v>
       </c>
-      <c r="E50" t="s">
-        <v>50</v>
-      </c>
+      <c r="E50"/>
       <c r="F50" t="s">
         <v>20</v>
       </c>
@@ -4921,7 +4919,7 @@
         <v>21</v>
       </c>
       <c r="H50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I50"/>
       <c r="J50" t="n">
@@ -4950,7 +4948,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
         <v>88</v>
@@ -4962,10 +4960,10 @@
         <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H51"/>
       <c r="I51"/>
@@ -4999,7 +4997,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
         <v>89</v>
@@ -5008,13 +5006,13 @@
         <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H52"/>
       <c r="I52"/>
@@ -5048,7 +5046,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
         <v>90</v>
@@ -5057,7 +5055,7 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F53" t="s">
         <v>91</v>
@@ -5066,7 +5064,7 @@
         <v>92</v>
       </c>
       <c r="H53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I53"/>
       <c r="J53" t="n">
@@ -5099,7 +5097,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
         <v>93</v>
@@ -5108,16 +5106,16 @@
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I54"/>
       <c r="J54" t="n">
@@ -5150,7 +5148,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
         <v>94</v>
@@ -5159,16 +5157,16 @@
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" t="s">
         <v>31</v>
       </c>
-      <c r="G55" t="s">
-        <v>32</v>
-      </c>
       <c r="H55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I55"/>
       <c r="J55" t="n">
@@ -5201,7 +5199,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
         <v>95</v>
@@ -5210,16 +5208,16 @@
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" t="s">
         <v>31</v>
       </c>
-      <c r="G56" t="s">
-        <v>32</v>
-      </c>
       <c r="H56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I56"/>
       <c r="J56" t="n">
@@ -5252,7 +5250,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
         <v>96</v>
@@ -5261,13 +5259,13 @@
         <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" t="s">
         <v>31</v>
-      </c>
-      <c r="G57" t="s">
-        <v>32</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
@@ -5310,7 +5308,7 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
@@ -5319,7 +5317,7 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I58"/>
       <c r="J58" t="n">
@@ -5361,7 +5359,7 @@
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F59" t="s">
         <v>20</v>
@@ -5370,7 +5368,7 @@
         <v>21</v>
       </c>
       <c r="H59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I59"/>
       <c r="J59" t="n">
@@ -5412,16 +5410,16 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s">
         <v>31</v>
       </c>
-      <c r="G60" t="s">
-        <v>32</v>
-      </c>
       <c r="H60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I60"/>
       <c r="J60" t="n">
@@ -5463,16 +5461,16 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s">
         <v>31</v>
       </c>
-      <c r="G61" t="s">
-        <v>32</v>
-      </c>
       <c r="H61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I61"/>
       <c r="J61" t="n">
@@ -5514,7 +5512,7 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F62" t="s">
         <v>20</v>
@@ -5523,7 +5521,7 @@
         <v>21</v>
       </c>
       <c r="H62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I62"/>
       <c r="J62" t="n">
@@ -5565,7 +5563,7 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F63" t="s">
         <v>20</v>
@@ -5574,7 +5572,7 @@
         <v>21</v>
       </c>
       <c r="H63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I63"/>
       <c r="J63" t="n">
@@ -5616,7 +5614,7 @@
         <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F64" t="s">
         <v>20</v>
@@ -5625,7 +5623,7 @@
         <v>21</v>
       </c>
       <c r="H64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I64"/>
       <c r="J64" t="n">
@@ -5676,7 +5674,7 @@
         <v>21</v>
       </c>
       <c r="H65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I65"/>
       <c r="J65" t="n">
@@ -5727,7 +5725,7 @@
         <v>21</v>
       </c>
       <c r="H66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I66"/>
       <c r="J66" t="n">
@@ -5778,7 +5776,7 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I67"/>
       <c r="J67" t="n">
@@ -5820,13 +5818,13 @@
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H68"/>
       <c r="I68"/>
@@ -5869,7 +5867,7 @@
         <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F69" t="s">
         <v>91</v>
@@ -5878,7 +5876,7 @@
         <v>92</v>
       </c>
       <c r="H69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I69"/>
       <c r="J69" t="n">
@@ -5920,13 +5918,13 @@
         <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H70" t="s">
         <v>112</v>
@@ -5971,10 +5969,10 @@
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G71" t="s">
         <v>92</v>
@@ -6020,13 +6018,13 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
@@ -6118,7 +6116,7 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F74" t="s">
         <v>117</v>
@@ -6227,7 +6225,7 @@
         <v>21</v>
       </c>
       <c r="H76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I76" t="s">
         <v>83</v>
@@ -6271,7 +6269,7 @@
         <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F77" t="s">
         <v>91</v>
@@ -6280,7 +6278,7 @@
         <v>92</v>
       </c>
       <c r="H77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I77"/>
       <c r="J77" t="n">
@@ -6322,16 +6320,16 @@
         <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F78" t="s">
+        <v>44</v>
+      </c>
+      <c r="G78" t="s">
         <v>45</v>
       </c>
-      <c r="G78" t="s">
-        <v>46</v>
-      </c>
       <c r="H78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I78"/>
       <c r="J78" t="n">
@@ -6425,10 +6423,10 @@
         <v>23</v>
       </c>
       <c r="F80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H80"/>
       <c r="I80"/>
@@ -6471,13 +6469,13 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H81"/>
       <c r="I81"/>
@@ -6520,13 +6518,13 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H82"/>
       <c r="I82"/>
@@ -6568,9 +6566,7 @@
       <c r="D83" t="n">
         <v>13</v>
       </c>
-      <c r="E83" t="s">
-        <v>19</v>
-      </c>
+      <c r="E83"/>
       <c r="F83" t="s">
         <v>20</v>
       </c>
@@ -6578,7 +6574,7 @@
         <v>21</v>
       </c>
       <c r="H83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I83"/>
       <c r="J83" t="n">
@@ -6616,13 +6612,13 @@
         <v>5</v>
       </c>
       <c r="E84" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F84" t="s">
+        <v>30</v>
+      </c>
+      <c r="G84" t="s">
         <v>31</v>
-      </c>
-      <c r="G84" t="s">
-        <v>32</v>
       </c>
       <c r="H84"/>
       <c r="I84"/>
@@ -6665,7 +6661,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F85" t="s">
         <v>91</v>
@@ -6714,7 +6710,7 @@
         <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F86" t="s">
         <v>20</v>
@@ -6768,10 +6764,10 @@
         <v>23</v>
       </c>
       <c r="F87" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87" t="s">
         <v>31</v>
-      </c>
-      <c r="G87" t="s">
-        <v>32</v>
       </c>
       <c r="H87"/>
       <c r="I87"/>
@@ -6814,13 +6810,13 @@
         <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F88" t="s">
+        <v>30</v>
+      </c>
+      <c r="G88" t="s">
         <v>31</v>
-      </c>
-      <c r="G88" t="s">
-        <v>32</v>
       </c>
       <c r="H88"/>
       <c r="I88"/>
@@ -6863,13 +6859,13 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
         <v>136</v>
       </c>
       <c r="G89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H89"/>
       <c r="I89"/>
@@ -6912,7 +6908,7 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
         <v>91</v>
@@ -6961,7 +6957,7 @@
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F91" t="s">
         <v>136</v>
@@ -7010,7 +7006,7 @@
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F92" t="s">
         <v>20</v>
@@ -7059,7 +7055,7 @@
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F93" t="s">
         <v>141</v>
@@ -7157,7 +7153,7 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F95" t="s">
         <v>117</v>
@@ -7255,7 +7251,7 @@
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -7601,10 +7597,10 @@
         <v>50</v>
       </c>
       <c r="F104" t="s">
+        <v>30</v>
+      </c>
+      <c r="G104" t="s">
         <v>31</v>
-      </c>
-      <c r="G104" t="s">
-        <v>32</v>
       </c>
       <c r="H104"/>
       <c r="I104"/>
@@ -7748,10 +7744,10 @@
         <v>19</v>
       </c>
       <c r="F107" t="s">
+        <v>30</v>
+      </c>
+      <c r="G107" t="s">
         <v>31</v>
-      </c>
-      <c r="G107" t="s">
-        <v>32</v>
       </c>
       <c r="H107"/>
       <c r="I107"/>
@@ -7794,10 +7790,10 @@
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G108" t="s">
         <v>21</v>
@@ -7843,10 +7839,10 @@
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F109" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G109" t="s">
         <v>21</v>
@@ -7901,7 +7897,7 @@
         <v>21</v>
       </c>
       <c r="H110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I110"/>
       <c r="J110" t="n">
@@ -7952,7 +7948,7 @@
         <v>21</v>
       </c>
       <c r="H111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I111"/>
       <c r="J111" t="n">
@@ -8003,7 +7999,7 @@
         <v>21</v>
       </c>
       <c r="H112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I112"/>
       <c r="J112" t="n">
@@ -8054,7 +8050,7 @@
         <v>21</v>
       </c>
       <c r="H113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I113"/>
       <c r="J113" t="n">
@@ -8096,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F114" t="s">
         <v>20</v>
@@ -8105,7 +8101,7 @@
         <v>21</v>
       </c>
       <c r="H114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I114"/>
       <c r="J114" t="n">
@@ -8147,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F115" t="s">
         <v>20</v>
@@ -8156,7 +8152,7 @@
         <v>21</v>
       </c>
       <c r="H115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I115"/>
       <c r="J115" t="n">
@@ -8207,7 +8203,7 @@
         <v>21</v>
       </c>
       <c r="H116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I116"/>
       <c r="J116" t="n">
@@ -8258,7 +8254,7 @@
         <v>21</v>
       </c>
       <c r="H117" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I117"/>
       <c r="J117" t="n">
@@ -8309,7 +8305,7 @@
         <v>21</v>
       </c>
       <c r="H118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I118"/>
       <c r="J118" t="n">
@@ -8351,16 +8347,16 @@
         <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F119" t="s">
+        <v>44</v>
+      </c>
+      <c r="G119" t="s">
         <v>45</v>
       </c>
-      <c r="G119" t="s">
-        <v>46</v>
-      </c>
       <c r="H119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I119"/>
       <c r="J119" t="n">
@@ -8402,16 +8398,16 @@
         <v>6</v>
       </c>
       <c r="E120" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F120" t="s">
+        <v>44</v>
+      </c>
+      <c r="G120" t="s">
         <v>45</v>
       </c>
-      <c r="G120" t="s">
-        <v>46</v>
-      </c>
       <c r="H120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I120"/>
       <c r="J120" t="n">
@@ -8453,7 +8449,7 @@
         <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F121" t="s">
         <v>91</v>
@@ -8504,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F122" t="s">
         <v>91</v>
@@ -8513,7 +8509,7 @@
         <v>92</v>
       </c>
       <c r="H122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I122"/>
       <c r="J122" t="n">
@@ -8558,7 +8554,7 @@
         <v>23</v>
       </c>
       <c r="F123" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G123" t="s">
         <v>92</v>
@@ -8615,7 +8611,7 @@
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I124"/>
       <c r="J124" t="n">
@@ -8657,16 +8653,16 @@
         <v>5</v>
       </c>
       <c r="E125" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F125" t="s">
+        <v>30</v>
+      </c>
+      <c r="G125" t="s">
         <v>31</v>
       </c>
-      <c r="G125" t="s">
-        <v>32</v>
-      </c>
       <c r="H125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I125"/>
       <c r="J125" t="n">
@@ -8717,7 +8713,7 @@
         <v>21</v>
       </c>
       <c r="H126" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I126"/>
       <c r="J126" t="n">
@@ -8759,7 +8755,7 @@
         <v>8</v>
       </c>
       <c r="E127" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F127" t="s">
         <v>20</v>
@@ -8819,7 +8815,7 @@
         <v>21</v>
       </c>
       <c r="H128" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I128"/>
       <c r="J128" t="n">
@@ -8861,16 +8857,16 @@
         <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F129" t="s">
+        <v>30</v>
+      </c>
+      <c r="G129" t="s">
         <v>31</v>
       </c>
-      <c r="G129" t="s">
-        <v>32</v>
-      </c>
       <c r="H129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I129"/>
       <c r="J129" t="n">
@@ -8912,16 +8908,16 @@
         <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F130" t="s">
+        <v>30</v>
+      </c>
+      <c r="G130" t="s">
         <v>31</v>
       </c>
-      <c r="G130" t="s">
-        <v>32</v>
-      </c>
       <c r="H130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I130"/>
       <c r="J130" t="n">
@@ -8963,7 +8959,7 @@
         <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F131" t="s">
         <v>20</v>
@@ -8972,7 +8968,7 @@
         <v>21</v>
       </c>
       <c r="H131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I131"/>
       <c r="J131" t="n">
@@ -9014,7 +9010,7 @@
         <v>5</v>
       </c>
       <c r="E132" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -9023,7 +9019,7 @@
         <v>21</v>
       </c>
       <c r="H132" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I132"/>
       <c r="J132" t="n">
@@ -9065,7 +9061,7 @@
         <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
@@ -9074,7 +9070,7 @@
         <v>21</v>
       </c>
       <c r="H133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I133"/>
       <c r="J133" t="n">
@@ -9125,7 +9121,7 @@
         <v>21</v>
       </c>
       <c r="H134" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I134"/>
       <c r="J134" t="n">
@@ -9167,7 +9163,7 @@
         <v>4</v>
       </c>
       <c r="E135" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F135" t="s">
         <v>20</v>
@@ -9176,7 +9172,7 @@
         <v>21</v>
       </c>
       <c r="H135" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I135"/>
       <c r="J135" t="n">
@@ -9227,7 +9223,7 @@
         <v>21</v>
       </c>
       <c r="H136" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I136"/>
       <c r="J136" t="n">
@@ -9269,16 +9265,16 @@
         <v>7</v>
       </c>
       <c r="E137" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F137" t="s">
+        <v>30</v>
+      </c>
+      <c r="G137" t="s">
         <v>31</v>
       </c>
-      <c r="G137" t="s">
-        <v>32</v>
-      </c>
       <c r="H137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I137"/>
       <c r="J137" t="n">
@@ -9371,7 +9367,7 @@
         <v>4</v>
       </c>
       <c r="E139" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F139" t="s">
         <v>20</v>
@@ -9380,7 +9376,7 @@
         <v>21</v>
       </c>
       <c r="H139" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I139"/>
       <c r="J139" t="n">
@@ -9422,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F140" t="s">
         <v>91</v>
@@ -9473,16 +9469,16 @@
         <v>1</v>
       </c>
       <c r="E141" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F141" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G141" t="s">
         <v>92</v>
       </c>
       <c r="H141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I141"/>
       <c r="J141" t="n">
@@ -9524,16 +9520,16 @@
         <v>6</v>
       </c>
       <c r="E142" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F142" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G142" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I142"/>
       <c r="J142" t="n">
@@ -9575,16 +9571,16 @@
         <v>6</v>
       </c>
       <c r="E143" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F143" t="s">
+        <v>30</v>
+      </c>
+      <c r="G143" t="s">
         <v>31</v>
       </c>
-      <c r="G143" t="s">
-        <v>32</v>
-      </c>
       <c r="H143" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I143"/>
       <c r="J143" t="n">
@@ -9626,7 +9622,7 @@
         <v>7</v>
       </c>
       <c r="E144" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F144" t="s">
         <v>20</v>
@@ -9635,7 +9631,7 @@
         <v>21</v>
       </c>
       <c r="H144" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I144"/>
       <c r="J144" t="n">
@@ -9677,7 +9673,7 @@
         <v>4</v>
       </c>
       <c r="E145" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F145" t="s">
         <v>195</v>
@@ -9686,7 +9682,7 @@
         <v>195</v>
       </c>
       <c r="H145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I145"/>
       <c r="J145" t="n">
@@ -9737,7 +9733,7 @@
         <v>21</v>
       </c>
       <c r="H146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I146"/>
       <c r="J146" t="n">
@@ -9788,7 +9784,7 @@
         <v>92</v>
       </c>
       <c r="H147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I147"/>
       <c r="J147" t="n">
@@ -9839,7 +9835,7 @@
         <v>92</v>
       </c>
       <c r="H148" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I148"/>
       <c r="J148" t="n">
@@ -9881,16 +9877,16 @@
         <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F149" t="s">
+        <v>30</v>
+      </c>
+      <c r="G149" t="s">
         <v>31</v>
       </c>
-      <c r="G149" t="s">
-        <v>32</v>
-      </c>
       <c r="H149" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I149"/>
       <c r="J149" t="n">
@@ -9932,7 +9928,7 @@
         <v>7</v>
       </c>
       <c r="E150" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F150" t="s">
         <v>85</v>
@@ -9941,7 +9937,7 @@
         <v>85</v>
       </c>
       <c r="H150" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I150"/>
       <c r="J150" t="n">
@@ -9983,7 +9979,7 @@
         <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F151" t="s">
         <v>85</v>
@@ -9992,7 +9988,7 @@
         <v>85</v>
       </c>
       <c r="H151" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I151"/>
       <c r="J151" t="n">
@@ -10034,7 +10030,7 @@
         <v>2</v>
       </c>
       <c r="E152" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F152" t="s">
         <v>203</v>
@@ -10043,7 +10039,7 @@
         <v>203</v>
       </c>
       <c r="H152" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I152" t="s">
         <v>83</v>
@@ -10149,7 +10145,7 @@
         <v>21</v>
       </c>
       <c r="H154" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I154" t="s">
         <v>83</v>
@@ -10202,7 +10198,7 @@
         <v>21</v>
       </c>
       <c r="H155" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I155" t="s">
         <v>83</v>
@@ -10246,16 +10242,16 @@
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F156" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G156" t="s">
         <v>92</v>
       </c>
       <c r="H156" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I156"/>
       <c r="J156" t="n">
@@ -10297,7 +10293,7 @@
         <v>8</v>
       </c>
       <c r="E157" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F157" t="s">
         <v>20</v>
@@ -10306,7 +10302,7 @@
         <v>21</v>
       </c>
       <c r="H157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I157"/>
       <c r="J157" t="n">
@@ -10348,7 +10344,7 @@
         <v>7</v>
       </c>
       <c r="E158" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F158" t="s">
         <v>20</v>
@@ -10357,7 +10353,7 @@
         <v>21</v>
       </c>
       <c r="H158" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I158" t="s">
         <v>83</v>
@@ -10410,7 +10406,7 @@
         <v>21</v>
       </c>
       <c r="H159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I159"/>
       <c r="J159" t="n">
@@ -10461,7 +10457,7 @@
         <v>21</v>
       </c>
       <c r="H160" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I160"/>
       <c r="J160" t="n">
@@ -10509,7 +10505,7 @@
         <v>214</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H161"/>
       <c r="I161"/>
@@ -10552,13 +10548,13 @@
         <v>4</v>
       </c>
       <c r="E162" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F162" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G162" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H162"/>
       <c r="I162"/>
@@ -10604,10 +10600,10 @@
         <v>23</v>
       </c>
       <c r="F163" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G163" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H163"/>
       <c r="I163"/>
@@ -10659,7 +10655,7 @@
         <v>92</v>
       </c>
       <c r="H164" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I164"/>
       <c r="J164" t="n">
@@ -10710,7 +10706,7 @@
         <v>21</v>
       </c>
       <c r="H165" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I165"/>
       <c r="J165" t="n">
@@ -10752,13 +10748,13 @@
         <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F166" t="s">
+        <v>30</v>
+      </c>
+      <c r="G166" t="s">
         <v>31</v>
-      </c>
-      <c r="G166" t="s">
-        <v>32</v>
       </c>
       <c r="H166" t="s">
         <v>120</v>
@@ -10806,7 +10802,7 @@
         <v>23</v>
       </c>
       <c r="F167" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G167" t="s">
         <v>92</v>
@@ -10863,7 +10859,7 @@
         <v>222</v>
       </c>
       <c r="H168" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I168"/>
       <c r="J168" t="n">
@@ -10905,7 +10901,7 @@
         <v>4</v>
       </c>
       <c r="E169" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F169" t="s">
         <v>222</v>
@@ -10914,7 +10910,7 @@
         <v>222</v>
       </c>
       <c r="H169" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I169"/>
       <c r="J169" t="n">
@@ -10956,10 +10952,10 @@
         <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F170" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G170" t="s">
         <v>92</v>
@@ -11007,7 +11003,7 @@
         <v>9</v>
       </c>
       <c r="E171" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F171" t="s">
         <v>91</v>
@@ -11058,7 +11054,7 @@
         <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F172" t="s">
         <v>91</v>
@@ -11109,7 +11105,7 @@
         <v>5</v>
       </c>
       <c r="E173" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F173" t="s">
         <v>20</v>
@@ -11118,7 +11114,7 @@
         <v>21</v>
       </c>
       <c r="H173" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I173" t="s">
         <v>83</v>
@@ -11162,7 +11158,7 @@
         <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F174" t="s">
         <v>91</v>
@@ -11171,7 +11167,7 @@
         <v>92</v>
       </c>
       <c r="H174" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I174" t="s">
         <v>83</v>
@@ -11218,13 +11214,13 @@
         <v>23</v>
       </c>
       <c r="F175" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G175" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H175" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I175"/>
       <c r="J175" t="n">
@@ -11266,13 +11262,13 @@
         <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F176" t="s">
+        <v>30</v>
+      </c>
+      <c r="G176" t="s">
         <v>31</v>
-      </c>
-      <c r="G176" t="s">
-        <v>32</v>
       </c>
       <c r="H176" t="s">
         <v>120</v>
@@ -11317,7 +11313,7 @@
         <v>7</v>
       </c>
       <c r="E177" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F177" t="s">
         <v>91</v>
@@ -11326,7 +11322,7 @@
         <v>92</v>
       </c>
       <c r="H177" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I177"/>
       <c r="J177" t="n">
@@ -11371,13 +11367,13 @@
         <v>50</v>
       </c>
       <c r="F178" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G178" t="s">
         <v>21</v>
       </c>
       <c r="H178" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I178"/>
       <c r="J178" t="n">
@@ -11428,7 +11424,7 @@
         <v>21</v>
       </c>
       <c r="H179" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I179"/>
       <c r="J179" t="n">
@@ -11479,7 +11475,7 @@
         <v>21</v>
       </c>
       <c r="H180" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I180"/>
       <c r="J180" t="n">
@@ -11530,7 +11526,7 @@
         <v>21</v>
       </c>
       <c r="H181" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I181"/>
       <c r="J181" t="n">
@@ -11581,7 +11577,7 @@
         <v>21</v>
       </c>
       <c r="H182" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I182"/>
       <c r="J182" t="n">
@@ -11623,16 +11619,16 @@
         <v>4</v>
       </c>
       <c r="E183" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F183" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G183" t="s">
         <v>21</v>
       </c>
       <c r="H183" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I183"/>
       <c r="J183" t="n">
@@ -11683,7 +11679,7 @@
         <v>21</v>
       </c>
       <c r="H184" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I184"/>
       <c r="J184" t="n">
@@ -11725,7 +11721,7 @@
         <v>2</v>
       </c>
       <c r="E185" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F185" t="s">
         <v>235</v>
@@ -11734,7 +11730,7 @@
         <v>21</v>
       </c>
       <c r="H185" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I185"/>
       <c r="J185" t="n">
@@ -11776,7 +11772,7 @@
         <v>4</v>
       </c>
       <c r="E186" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F186" t="s">
         <v>237</v>
@@ -11785,7 +11781,7 @@
         <v>21</v>
       </c>
       <c r="H186" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I186"/>
       <c r="J186" t="n">
@@ -11836,7 +11832,7 @@
         <v>21</v>
       </c>
       <c r="H187" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I187"/>
       <c r="J187" t="n">
@@ -11878,16 +11874,16 @@
         <v>2</v>
       </c>
       <c r="E188" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F188" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G188" t="s">
         <v>21</v>
       </c>
       <c r="H188" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I188"/>
       <c r="J188" t="n">
@@ -11929,16 +11925,16 @@
         <v>4</v>
       </c>
       <c r="E189" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F189" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G189" t="s">
         <v>21</v>
       </c>
       <c r="H189" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I189"/>
       <c r="J189" t="n">
@@ -11980,7 +11976,7 @@
         <v>5</v>
       </c>
       <c r="E190" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F190" t="s">
         <v>237</v>
@@ -11989,7 +11985,7 @@
         <v>21</v>
       </c>
       <c r="H190" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I190"/>
       <c r="J190" t="n">
@@ -12031,7 +12027,7 @@
         <v>9</v>
       </c>
       <c r="E191" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F191" t="s">
         <v>20</v>
@@ -12040,7 +12036,7 @@
         <v>21</v>
       </c>
       <c r="H191" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I191"/>
       <c r="J191" t="n">
@@ -12091,7 +12087,7 @@
         <v>21</v>
       </c>
       <c r="H192" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I192"/>
       <c r="J192" t="n">
@@ -12133,7 +12129,7 @@
         <v>8</v>
       </c>
       <c r="E193" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F193" t="s">
         <v>20</v>
@@ -12142,7 +12138,7 @@
         <v>21</v>
       </c>
       <c r="H193" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I193"/>
       <c r="J193" t="n">
@@ -12193,7 +12189,7 @@
         <v>21</v>
       </c>
       <c r="H194" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I194"/>
       <c r="J194" t="n">
@@ -12235,16 +12231,16 @@
         <v>5</v>
       </c>
       <c r="E195" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F195" t="s">
+        <v>30</v>
+      </c>
+      <c r="G195" t="s">
         <v>31</v>
       </c>
-      <c r="G195" t="s">
-        <v>32</v>
-      </c>
       <c r="H195" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I195"/>
       <c r="J195" t="n">
@@ -12295,7 +12291,7 @@
         <v>21</v>
       </c>
       <c r="H196" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I196"/>
       <c r="J196" t="n">
@@ -12346,7 +12342,7 @@
         <v>21</v>
       </c>
       <c r="H197" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I197"/>
       <c r="J197" t="n">
@@ -12397,7 +12393,7 @@
         <v>21</v>
       </c>
       <c r="H198" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I198"/>
       <c r="J198" t="n">
@@ -12448,7 +12444,7 @@
         <v>21</v>
       </c>
       <c r="H199" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I199"/>
       <c r="J199" t="n">
@@ -12493,13 +12489,13 @@
         <v>50</v>
       </c>
       <c r="F200" t="s">
+        <v>30</v>
+      </c>
+      <c r="G200" t="s">
         <v>31</v>
       </c>
-      <c r="G200" t="s">
-        <v>32</v>
-      </c>
       <c r="H200" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I200"/>
       <c r="J200" t="n">
@@ -12544,13 +12540,13 @@
         <v>50</v>
       </c>
       <c r="F201" t="s">
+        <v>30</v>
+      </c>
+      <c r="G201" t="s">
         <v>31</v>
       </c>
-      <c r="G201" t="s">
-        <v>32</v>
-      </c>
       <c r="H201" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I201"/>
       <c r="J201" t="n">
@@ -12595,13 +12591,13 @@
         <v>19</v>
       </c>
       <c r="F202" t="s">
+        <v>30</v>
+      </c>
+      <c r="G202" t="s">
         <v>31</v>
       </c>
-      <c r="G202" t="s">
-        <v>32</v>
-      </c>
       <c r="H202" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I202"/>
       <c r="J202" t="n">
@@ -12646,13 +12642,13 @@
         <v>50</v>
       </c>
       <c r="F203" t="s">
+        <v>30</v>
+      </c>
+      <c r="G203" t="s">
         <v>31</v>
       </c>
-      <c r="G203" t="s">
-        <v>32</v>
-      </c>
       <c r="H203" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I203"/>
       <c r="J203" t="n">
@@ -12694,7 +12690,7 @@
         <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F204" t="s">
         <v>262</v>
@@ -12703,7 +12699,7 @@
         <v>92</v>
       </c>
       <c r="H204" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I204"/>
       <c r="J204" t="n">
@@ -12748,13 +12744,13 @@
         <v>23</v>
       </c>
       <c r="F205" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G205" t="s">
         <v>21</v>
       </c>
       <c r="H205" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I205"/>
       <c r="J205" t="n">
@@ -12796,7 +12792,7 @@
         <v>5</v>
       </c>
       <c r="E206" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F206" t="s">
         <v>265</v>
@@ -12805,7 +12801,7 @@
         <v>92</v>
       </c>
       <c r="H206" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I206"/>
       <c r="J206" t="n">
@@ -12856,7 +12852,7 @@
         <v>92</v>
       </c>
       <c r="H207" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I207"/>
       <c r="J207" t="n">
@@ -12898,7 +12894,7 @@
         <v>9</v>
       </c>
       <c r="E208" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F208" t="s">
         <v>265</v>
@@ -12907,7 +12903,7 @@
         <v>92</v>
       </c>
       <c r="H208" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I208"/>
       <c r="J208" t="n">
@@ -12949,16 +12945,16 @@
         <v>5</v>
       </c>
       <c r="E209" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F209" t="s">
         <v>269</v>
       </c>
       <c r="G209" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H209" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I209"/>
       <c r="J209" t="n">
@@ -13000,7 +12996,7 @@
         <v>5</v>
       </c>
       <c r="E210" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F210" t="s">
         <v>265</v>
@@ -13009,7 +13005,7 @@
         <v>92</v>
       </c>
       <c r="H210" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I210"/>
       <c r="J210" t="n">
@@ -13057,10 +13053,10 @@
         <v>265</v>
       </c>
       <c r="G211" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H211" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I211"/>
       <c r="J211" t="n">
@@ -13102,7 +13098,7 @@
         <v>9</v>
       </c>
       <c r="E212" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="F212" t="s">
         <v>235</v>
@@ -13111,7 +13107,7 @@
         <v>21</v>
       </c>
       <c r="H212" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I212"/>
       <c r="J212" t="n">
@@ -13153,16 +13149,16 @@
         <v>5</v>
       </c>
       <c r="E213" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F213" t="s">
+        <v>30</v>
+      </c>
+      <c r="G213" t="s">
         <v>31</v>
       </c>
-      <c r="G213" t="s">
-        <v>32</v>
-      </c>
       <c r="H213" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I213"/>
       <c r="J213" t="n">
@@ -13204,16 +13200,16 @@
         <v>5</v>
       </c>
       <c r="E214" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F214" t="s">
+        <v>30</v>
+      </c>
+      <c r="G214" t="s">
         <v>31</v>
       </c>
-      <c r="G214" t="s">
-        <v>32</v>
-      </c>
       <c r="H214" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I214"/>
       <c r="J214" t="n">
@@ -13258,13 +13254,13 @@
         <v>19</v>
       </c>
       <c r="F215" t="s">
+        <v>30</v>
+      </c>
+      <c r="G215" t="s">
         <v>31</v>
       </c>
-      <c r="G215" t="s">
-        <v>32</v>
-      </c>
       <c r="H215" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I215"/>
       <c r="J215" t="n">
@@ -13306,16 +13302,16 @@
         <v>5</v>
       </c>
       <c r="E216" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F216" t="s">
+        <v>30</v>
+      </c>
+      <c r="G216" t="s">
         <v>31</v>
       </c>
-      <c r="G216" t="s">
-        <v>32</v>
-      </c>
       <c r="H216" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I216"/>
       <c r="J216" t="n">
@@ -13360,13 +13356,13 @@
         <v>19</v>
       </c>
       <c r="F217" t="s">
+        <v>30</v>
+      </c>
+      <c r="G217" t="s">
         <v>31</v>
       </c>
-      <c r="G217" t="s">
-        <v>32</v>
-      </c>
       <c r="H217" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I217"/>
       <c r="J217" t="n">
@@ -13411,13 +13407,13 @@
         <v>19</v>
       </c>
       <c r="F218" t="s">
+        <v>30</v>
+      </c>
+      <c r="G218" t="s">
         <v>31</v>
       </c>
-      <c r="G218" t="s">
-        <v>32</v>
-      </c>
       <c r="H218" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I218"/>
       <c r="J218" t="n">
@@ -13462,13 +13458,13 @@
         <v>23</v>
       </c>
       <c r="F219" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G219" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H219" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I219"/>
       <c r="J219" t="n">
@@ -13513,13 +13509,13 @@
         <v>19</v>
       </c>
       <c r="F220" t="s">
+        <v>30</v>
+      </c>
+      <c r="G220" t="s">
         <v>31</v>
       </c>
-      <c r="G220" t="s">
-        <v>32</v>
-      </c>
       <c r="H220" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I220"/>
       <c r="J220" t="n">
@@ -13561,16 +13557,16 @@
         <v>5</v>
       </c>
       <c r="E221" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F221" t="s">
+        <v>30</v>
+      </c>
+      <c r="G221" t="s">
         <v>31</v>
       </c>
-      <c r="G221" t="s">
-        <v>32</v>
-      </c>
       <c r="H221" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I221"/>
       <c r="J221" t="n">
@@ -13615,13 +13611,13 @@
         <v>23</v>
       </c>
       <c r="F222" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G222" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I222"/>
       <c r="J222" t="n">
@@ -13663,13 +13659,13 @@
         <v>5</v>
       </c>
       <c r="E223" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F223" t="s">
+        <v>30</v>
+      </c>
+      <c r="G223" t="s">
         <v>31</v>
-      </c>
-      <c r="G223" t="s">
-        <v>32</v>
       </c>
       <c r="H223" t="s">
         <v>284</v>
@@ -13723,7 +13719,7 @@
         <v>92</v>
       </c>
       <c r="H224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I224"/>
       <c r="J224" t="n">
@@ -13814,10 +13810,10 @@
         <v>5</v>
       </c>
       <c r="E226" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F226" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G226" t="s">
         <v>21</v>
@@ -13863,7 +13859,7 @@
         <v>5</v>
       </c>
       <c r="E227" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F227" t="s">
         <v>20</v>
@@ -13961,7 +13957,7 @@
         <v>5</v>
       </c>
       <c r="E229" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F229" t="s">
         <v>20</v>
@@ -14059,7 +14055,7 @@
         <v>5</v>
       </c>
       <c r="E231" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F231" t="s">
         <v>20</v>
@@ -14108,7 +14104,7 @@
         <v>6</v>
       </c>
       <c r="E232" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F232" t="s">
         <v>20</v>
@@ -14157,10 +14153,10 @@
         <v>5</v>
       </c>
       <c r="E233" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F233" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G233" t="s">
         <v>21</v>
@@ -14255,7 +14251,7 @@
         <v>6</v>
       </c>
       <c r="E235" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F235" t="s">
         <v>20</v>
@@ -14304,10 +14300,10 @@
         <v>5</v>
       </c>
       <c r="E236" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F236" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G236" t="s">
         <v>21</v>
@@ -14353,7 +14349,7 @@
         <v>5</v>
       </c>
       <c r="E237" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F237" t="s">
         <v>20</v>
@@ -14402,13 +14398,13 @@
         <v>5</v>
       </c>
       <c r="E238" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F238" t="s">
         <v>136</v>
       </c>
       <c r="G238" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H238"/>
       <c r="I238"/>
@@ -14451,13 +14447,13 @@
         <v>5</v>
       </c>
       <c r="E239" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F239" t="s">
         <v>136</v>
       </c>
       <c r="G239" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H239"/>
       <c r="I239"/>
@@ -14500,7 +14496,7 @@
         <v>5</v>
       </c>
       <c r="E240" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F240" t="s">
         <v>20</v>
@@ -14549,7 +14545,7 @@
         <v>5</v>
       </c>
       <c r="E241" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F241" t="s">
         <v>20</v>
@@ -14598,13 +14594,13 @@
         <v>5</v>
       </c>
       <c r="E242" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F242" t="s">
         <v>136</v>
       </c>
       <c r="G242" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H242"/>
       <c r="I242"/>
@@ -14647,7 +14643,7 @@
         <v>5</v>
       </c>
       <c r="E243" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F243" t="s">
         <v>20</v>
@@ -14696,13 +14692,13 @@
         <v>5</v>
       </c>
       <c r="E244" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F244" t="s">
         <v>136</v>
       </c>
       <c r="G244" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H244"/>
       <c r="I244"/>
@@ -14745,13 +14741,13 @@
         <v>5</v>
       </c>
       <c r="E245" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F245" t="s">
         <v>136</v>
       </c>
       <c r="G245" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H245"/>
       <c r="I245"/>
@@ -14794,13 +14790,13 @@
         <v>5</v>
       </c>
       <c r="E246" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F246" t="s">
         <v>136</v>
       </c>
       <c r="G246" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H246"/>
       <c r="I246"/>
@@ -14849,7 +14845,7 @@
         <v>136</v>
       </c>
       <c r="G247" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H247"/>
       <c r="I247"/>
@@ -14898,7 +14894,7 @@
         <v>136</v>
       </c>
       <c r="G248" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H248"/>
       <c r="I248"/>
@@ -14941,7 +14937,7 @@
         <v>5</v>
       </c>
       <c r="E249" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F249" t="s">
         <v>20</v>
@@ -14990,7 +14986,7 @@
         <v>5</v>
       </c>
       <c r="E250" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F250" t="s">
         <v>237</v>
@@ -15039,7 +15035,7 @@
         <v>5</v>
       </c>
       <c r="E251" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F251" t="s">
         <v>20</v>
@@ -15088,13 +15084,13 @@
         <v>5</v>
       </c>
       <c r="E252" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F252" t="s">
         <v>136</v>
       </c>
       <c r="G252" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H252"/>
       <c r="I252"/>
@@ -15137,7 +15133,7 @@
         <v>5</v>
       </c>
       <c r="E253" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F253" t="s">
         <v>20</v>
@@ -15235,7 +15231,7 @@
         <v>5</v>
       </c>
       <c r="E255" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F255" t="s">
         <v>20</v>
@@ -15284,7 +15280,7 @@
         <v>5</v>
       </c>
       <c r="E256" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F256" t="s">
         <v>20</v>
@@ -15333,10 +15329,10 @@
         <v>5</v>
       </c>
       <c r="E257" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F257" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G257" t="s">
         <v>21</v>
@@ -15382,7 +15378,7 @@
         <v>5</v>
       </c>
       <c r="E258" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F258" t="s">
         <v>20</v>
@@ -15431,13 +15427,13 @@
         <v>5</v>
       </c>
       <c r="E259" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F259" t="s">
         <v>136</v>
       </c>
       <c r="G259" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H259"/>
       <c r="I259"/>
@@ -15584,7 +15580,7 @@
         <v>136</v>
       </c>
       <c r="G262" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H262"/>
       <c r="I262"/>
@@ -15676,13 +15672,13 @@
         <v>2</v>
       </c>
       <c r="E264" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F264" t="s">
         <v>136</v>
       </c>
       <c r="G264" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H264"/>
       <c r="I264"/>
@@ -15725,7 +15721,7 @@
         <v>2</v>
       </c>
       <c r="E265" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F265" t="s">
         <v>20</v>
@@ -15774,7 +15770,7 @@
         <v>2</v>
       </c>
       <c r="E266" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F266" t="s">
         <v>20</v>
@@ -15872,7 +15868,7 @@
         <v>2</v>
       </c>
       <c r="E268" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F268" t="s">
         <v>20</v>
@@ -15921,7 +15917,7 @@
         <v>2</v>
       </c>
       <c r="E269" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F269" t="s">
         <v>20</v>
@@ -15970,7 +15966,7 @@
         <v>4</v>
       </c>
       <c r="E270" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F270" t="s">
         <v>20</v>
@@ -16264,13 +16260,13 @@
         <v>4</v>
       </c>
       <c r="E276" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F276" t="s">
         <v>136</v>
       </c>
       <c r="G276" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H276"/>
       <c r="I276"/>
@@ -16313,13 +16309,13 @@
         <v>4</v>
       </c>
       <c r="E277" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F277" t="s">
         <v>136</v>
       </c>
       <c r="G277" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H277"/>
       <c r="I277"/>
@@ -16362,7 +16358,7 @@
         <v>4</v>
       </c>
       <c r="E278" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F278" t="s">
         <v>20</v>
@@ -16460,7 +16456,7 @@
         <v>4</v>
       </c>
       <c r="E280" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F280" t="s">
         <v>20</v>
@@ -16509,13 +16505,13 @@
         <v>4</v>
       </c>
       <c r="E281" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F281" t="s">
         <v>136</v>
       </c>
       <c r="G281" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H281"/>
       <c r="I281"/>
@@ -16558,13 +16554,13 @@
         <v>4</v>
       </c>
       <c r="E282" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F282" t="s">
         <v>136</v>
       </c>
       <c r="G282" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H282"/>
       <c r="I282"/>
@@ -16656,13 +16652,13 @@
         <v>4</v>
       </c>
       <c r="E284" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F284" t="s">
         <v>136</v>
       </c>
       <c r="G284" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H284"/>
       <c r="I284"/>
@@ -16705,13 +16701,13 @@
         <v>4</v>
       </c>
       <c r="E285" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F285" t="s">
         <v>136</v>
       </c>
       <c r="G285" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H285"/>
       <c r="I285"/>
@@ -16754,7 +16750,7 @@
         <v>1</v>
       </c>
       <c r="E286" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F286" t="s">
         <v>235</v>
@@ -17152,7 +17148,7 @@
         <v>136</v>
       </c>
       <c r="G294" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H294"/>
       <c r="I294"/>
@@ -17195,7 +17191,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F295" t="s">
         <v>20</v>
@@ -17342,7 +17338,7 @@
         <v>1</v>
       </c>
       <c r="E298" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F298" t="s">
         <v>117</v>
@@ -17391,7 +17387,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F299" t="s">
         <v>117</v>
@@ -17446,7 +17442,7 @@
         <v>136</v>
       </c>
       <c r="G300" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H300"/>
       <c r="I300"/>
@@ -17489,7 +17485,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F301" t="s">
         <v>20</v>
@@ -17538,7 +17534,7 @@
         <v>1</v>
       </c>
       <c r="E302" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F302" t="s">
         <v>20</v>
@@ -17740,7 +17736,7 @@
         <v>136</v>
       </c>
       <c r="G306" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H306"/>
       <c r="I306"/>
@@ -17881,7 +17877,7 @@
         <v>11</v>
       </c>
       <c r="E309" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F309" t="s">
         <v>85</v>
@@ -17930,7 +17926,7 @@
         <v>10</v>
       </c>
       <c r="E310" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F310" t="s">
         <v>91</v>
@@ -17982,13 +17978,13 @@
         <v>50</v>
       </c>
       <c r="F311" t="s">
+        <v>30</v>
+      </c>
+      <c r="G311" t="s">
         <v>31</v>
       </c>
-      <c r="G311" t="s">
-        <v>32</v>
-      </c>
       <c r="H311" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I311"/>
       <c r="J311" t="n">
@@ -18033,13 +18029,13 @@
         <v>50</v>
       </c>
       <c r="F312" t="s">
+        <v>30</v>
+      </c>
+      <c r="G312" t="s">
         <v>31</v>
       </c>
-      <c r="G312" t="s">
-        <v>32</v>
-      </c>
       <c r="H312" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I312"/>
       <c r="J312" t="n">
@@ -18081,7 +18077,7 @@
         <v>6</v>
       </c>
       <c r="E313" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F313" t="s">
         <v>262</v>
@@ -18090,7 +18086,7 @@
         <v>92</v>
       </c>
       <c r="H313" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I313"/>
       <c r="J313" t="n">
@@ -18131,9 +18127,7 @@
       <c r="D314" t="n">
         <v>13</v>
       </c>
-      <c r="E314" t="s">
-        <v>50</v>
-      </c>
+      <c r="E314"/>
       <c r="F314" t="s">
         <v>20</v>
       </c>
@@ -18179,16 +18173,16 @@
         <v>11</v>
       </c>
       <c r="E315" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F315" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G315" t="s">
         <v>21</v>
       </c>
       <c r="H315" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I315"/>
       <c r="J315" t="n">
@@ -18230,16 +18224,16 @@
         <v>11</v>
       </c>
       <c r="E316" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F316" t="s">
+        <v>30</v>
+      </c>
+      <c r="G316" t="s">
         <v>31</v>
       </c>
-      <c r="G316" t="s">
-        <v>32</v>
-      </c>
       <c r="H316" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I316"/>
       <c r="J316" t="n">
@@ -18290,7 +18284,7 @@
         <v>21</v>
       </c>
       <c r="H317" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I317"/>
       <c r="J317" t="n">
@@ -18341,7 +18335,7 @@
         <v>21</v>
       </c>
       <c r="H318" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I318"/>
       <c r="J318" t="n">
@@ -18386,13 +18380,13 @@
         <v>50</v>
       </c>
       <c r="F319" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G319" t="s">
         <v>21</v>
       </c>
       <c r="H319" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I319"/>
       <c r="J319" t="n">
@@ -18437,13 +18431,13 @@
         <v>19</v>
       </c>
       <c r="F320" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G320" t="s">
         <v>21</v>
       </c>
       <c r="H320" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I320"/>
       <c r="J320" t="n">
@@ -18488,7 +18482,7 @@
         <v>50</v>
       </c>
       <c r="F321" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G321" t="s">
         <v>21</v>
@@ -18596,7 +18590,7 @@
         <v>21</v>
       </c>
       <c r="H323" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I323"/>
       <c r="J323" t="n">
@@ -18641,13 +18635,13 @@
         <v>50</v>
       </c>
       <c r="F324" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G324" t="s">
         <v>21</v>
       </c>
       <c r="H324" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I324"/>
       <c r="J324" t="n">
@@ -18692,13 +18686,13 @@
         <v>50</v>
       </c>
       <c r="F325" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G325" t="s">
         <v>21</v>
       </c>
       <c r="H325" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I325"/>
       <c r="J325" t="n">
@@ -18740,16 +18734,16 @@
         <v>10</v>
       </c>
       <c r="E326" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F326" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G326" t="s">
         <v>21</v>
       </c>
       <c r="H326" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I326"/>
       <c r="J326" t="n">
@@ -18794,13 +18788,13 @@
         <v>50</v>
       </c>
       <c r="F327" t="s">
+        <v>30</v>
+      </c>
+      <c r="G327" t="s">
         <v>31</v>
       </c>
-      <c r="G327" t="s">
-        <v>32</v>
-      </c>
       <c r="H327" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I327"/>
       <c r="J327" t="n">
@@ -18842,7 +18836,7 @@
         <v>10</v>
       </c>
       <c r="E328" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F328" t="s">
         <v>20</v>
@@ -18851,7 +18845,7 @@
         <v>21</v>
       </c>
       <c r="H328" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I328"/>
       <c r="J328" t="n">
@@ -18902,7 +18896,7 @@
         <v>21</v>
       </c>
       <c r="H329" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I329"/>
       <c r="J329" t="n">
@@ -18944,7 +18938,7 @@
         <v>1</v>
       </c>
       <c r="E330" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F330" t="s">
         <v>20</v>
@@ -18953,7 +18947,7 @@
         <v>21</v>
       </c>
       <c r="H330" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I330"/>
       <c r="J330" t="n">
@@ -19004,7 +18998,7 @@
         <v>92</v>
       </c>
       <c r="H331" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I331"/>
       <c r="J331" t="n">
@@ -19055,7 +19049,7 @@
         <v>21</v>
       </c>
       <c r="H332" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I332"/>
       <c r="J332" t="n">
@@ -19210,7 +19204,7 @@
         <v>92</v>
       </c>
       <c r="H335" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I335"/>
       <c r="J335" t="n">
@@ -19255,13 +19249,13 @@
         <v>50</v>
       </c>
       <c r="F336" t="s">
+        <v>30</v>
+      </c>
+      <c r="G336" t="s">
         <v>31</v>
       </c>
-      <c r="G336" t="s">
-        <v>32</v>
-      </c>
       <c r="H336" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I336"/>
       <c r="J336" t="n">
@@ -19312,7 +19306,7 @@
         <v>21</v>
       </c>
       <c r="H337" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I337"/>
       <c r="J337" t="n">
@@ -19363,7 +19357,7 @@
         <v>21</v>
       </c>
       <c r="H338" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I338"/>
       <c r="J338" t="n">
@@ -19408,13 +19402,13 @@
         <v>19</v>
       </c>
       <c r="F339" t="s">
+        <v>44</v>
+      </c>
+      <c r="G339" t="s">
         <v>45</v>
       </c>
-      <c r="G339" t="s">
-        <v>46</v>
-      </c>
       <c r="H339" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I339"/>
       <c r="J339" t="n">
@@ -19462,10 +19456,10 @@
         <v>136</v>
       </c>
       <c r="G340" t="s">
+        <v>27</v>
+      </c>
+      <c r="H340" t="s">
         <v>28</v>
-      </c>
-      <c r="H340" t="s">
-        <v>29</v>
       </c>
       <c r="I340"/>
       <c r="J340" t="n">
@@ -19510,13 +19504,13 @@
         <v>19</v>
       </c>
       <c r="F341" t="s">
+        <v>30</v>
+      </c>
+      <c r="G341" t="s">
         <v>31</v>
       </c>
-      <c r="G341" t="s">
-        <v>32</v>
-      </c>
       <c r="H341" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I341"/>
       <c r="J341" t="n">
@@ -19558,16 +19552,16 @@
         <v>10</v>
       </c>
       <c r="E342" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F342" t="s">
+        <v>30</v>
+      </c>
+      <c r="G342" t="s">
         <v>31</v>
       </c>
-      <c r="G342" t="s">
-        <v>32</v>
-      </c>
       <c r="H342" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I342"/>
       <c r="J342" t="n">
@@ -19662,7 +19656,7 @@
         <v>6</v>
       </c>
       <c r="E344" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F344" t="s">
         <v>91</v>
@@ -19671,7 +19665,7 @@
         <v>92</v>
       </c>
       <c r="H344" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I344"/>
       <c r="J344" t="n">
@@ -19722,7 +19716,7 @@
         <v>92</v>
       </c>
       <c r="H345" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I345"/>
       <c r="J345" t="n">
@@ -19767,13 +19761,13 @@
         <v>50</v>
       </c>
       <c r="F346" t="s">
+        <v>30</v>
+      </c>
+      <c r="G346" t="s">
         <v>31</v>
       </c>
-      <c r="G346" t="s">
-        <v>32</v>
-      </c>
       <c r="H346" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I346"/>
       <c r="J346" t="n">
@@ -19815,16 +19809,16 @@
         <v>5</v>
       </c>
       <c r="E347" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F347" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G347" t="s">
         <v>92</v>
       </c>
       <c r="H347" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I347"/>
       <c r="J347" t="n">
@@ -19869,13 +19863,13 @@
         <v>19</v>
       </c>
       <c r="F348" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G348" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H348" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I348"/>
       <c r="J348" t="n">
@@ -19923,10 +19917,10 @@
         <v>136</v>
       </c>
       <c r="G349" t="s">
+        <v>27</v>
+      </c>
+      <c r="H349" t="s">
         <v>28</v>
-      </c>
-      <c r="H349" t="s">
-        <v>29</v>
       </c>
       <c r="I349"/>
       <c r="J349" t="n">
@@ -19977,7 +19971,7 @@
         <v>21</v>
       </c>
       <c r="H350" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I350"/>
       <c r="J350" t="n">
@@ -20028,7 +20022,7 @@
         <v>21</v>
       </c>
       <c r="H351" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I351"/>
       <c r="J351" t="n">
@@ -20079,7 +20073,7 @@
         <v>21</v>
       </c>
       <c r="H352" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I352"/>
       <c r="J352" t="n">
@@ -20181,7 +20175,7 @@
         <v>21</v>
       </c>
       <c r="H354" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I354"/>
       <c r="J354" t="n">
@@ -20223,7 +20217,7 @@
         <v>5</v>
       </c>
       <c r="E355" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F355" t="s">
         <v>91</v>
@@ -20274,16 +20268,16 @@
         <v>5</v>
       </c>
       <c r="E356" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F356" t="s">
         <v>426</v>
       </c>
       <c r="G356" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H356" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I356"/>
       <c r="J356" t="n">
@@ -20328,13 +20322,13 @@
         <v>19</v>
       </c>
       <c r="F357" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G357" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H357" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I357"/>
       <c r="J357" t="n">
@@ -20379,13 +20373,13 @@
         <v>50</v>
       </c>
       <c r="F358" t="s">
+        <v>30</v>
+      </c>
+      <c r="G358" t="s">
         <v>31</v>
       </c>
-      <c r="G358" t="s">
-        <v>32</v>
-      </c>
       <c r="H358" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I358"/>
       <c r="J358" t="n">
@@ -20436,7 +20430,7 @@
         <v>21</v>
       </c>
       <c r="H359" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I359"/>
       <c r="J359" t="n">
@@ -20478,7 +20472,7 @@
         <v>7</v>
       </c>
       <c r="E360" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F360" t="s">
         <v>91</v>
@@ -20487,7 +20481,7 @@
         <v>92</v>
       </c>
       <c r="H360" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I360"/>
       <c r="J360" t="n">
@@ -20529,7 +20523,7 @@
         <v>10</v>
       </c>
       <c r="E361" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F361" t="s">
         <v>91</v>
@@ -20538,7 +20532,7 @@
         <v>92</v>
       </c>
       <c r="H361" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I361"/>
       <c r="J361" t="n">
@@ -20586,10 +20580,10 @@
         <v>426</v>
       </c>
       <c r="G362" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H362" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I362"/>
       <c r="J362" t="n">
@@ -20637,10 +20631,10 @@
         <v>426</v>
       </c>
       <c r="G363" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H363" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I363"/>
       <c r="J363" t="n">
@@ -20688,10 +20682,10 @@
         <v>426</v>
       </c>
       <c r="G364" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H364" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I364"/>
       <c r="J364" t="n">
@@ -20733,16 +20727,16 @@
         <v>5</v>
       </c>
       <c r="E365" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F365" t="s">
+        <v>30</v>
+      </c>
+      <c r="G365" t="s">
         <v>31</v>
       </c>
-      <c r="G365" t="s">
-        <v>32</v>
-      </c>
       <c r="H365" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I365"/>
       <c r="J365" t="n">
@@ -20784,16 +20778,16 @@
         <v>5</v>
       </c>
       <c r="E366" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F366" t="s">
+        <v>30</v>
+      </c>
+      <c r="G366" t="s">
         <v>31</v>
       </c>
-      <c r="G366" t="s">
-        <v>32</v>
-      </c>
       <c r="H366" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I366"/>
       <c r="J366" t="n">
@@ -20844,7 +20838,7 @@
         <v>92</v>
       </c>
       <c r="H367" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I367"/>
       <c r="J367" t="n">
@@ -20886,7 +20880,7 @@
         <v>5</v>
       </c>
       <c r="E368" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F368" t="s">
         <v>265</v>
@@ -20895,7 +20889,7 @@
         <v>92</v>
       </c>
       <c r="H368" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I368"/>
       <c r="J368" t="n">
@@ -20943,10 +20937,10 @@
         <v>426</v>
       </c>
       <c r="G369" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H369" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I369"/>
       <c r="J369" t="n">
@@ -20997,7 +20991,7 @@
         <v>21</v>
       </c>
       <c r="H370" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I370"/>
       <c r="J370" t="n">
@@ -21048,7 +21042,7 @@
         <v>21</v>
       </c>
       <c r="H371" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I371"/>
       <c r="J371" t="n">
@@ -21093,13 +21087,13 @@
         <v>19</v>
       </c>
       <c r="F372" t="s">
+        <v>30</v>
+      </c>
+      <c r="G372" t="s">
         <v>31</v>
       </c>
-      <c r="G372" t="s">
-        <v>32</v>
-      </c>
       <c r="H372" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I372"/>
       <c r="J372" t="n">
@@ -21144,13 +21138,13 @@
         <v>19</v>
       </c>
       <c r="F373" t="s">
+        <v>30</v>
+      </c>
+      <c r="G373" t="s">
         <v>31</v>
       </c>
-      <c r="G373" t="s">
-        <v>32</v>
-      </c>
       <c r="H373" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I373"/>
       <c r="J373" t="n">
@@ -21201,7 +21195,7 @@
         <v>92</v>
       </c>
       <c r="H374" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I374"/>
       <c r="J374" t="n">
@@ -21246,13 +21240,13 @@
         <v>19</v>
       </c>
       <c r="F375" t="s">
+        <v>30</v>
+      </c>
+      <c r="G375" t="s">
         <v>31</v>
       </c>
-      <c r="G375" t="s">
-        <v>32</v>
-      </c>
       <c r="H375" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I375"/>
       <c r="J375" t="n">
@@ -21294,7 +21288,7 @@
         <v>4</v>
       </c>
       <c r="E376" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F376" t="s">
         <v>20</v>
@@ -21303,7 +21297,7 @@
         <v>21</v>
       </c>
       <c r="H376" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I376"/>
       <c r="J376" t="n">
@@ -21345,7 +21339,7 @@
         <v>4</v>
       </c>
       <c r="E377" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F377" t="s">
         <v>91</v>
@@ -21354,7 +21348,7 @@
         <v>92</v>
       </c>
       <c r="H377" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I377"/>
       <c r="J377" t="n">
@@ -21396,16 +21390,16 @@
         <v>7</v>
       </c>
       <c r="E378" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F378" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G378" t="s">
         <v>21</v>
       </c>
       <c r="H378" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I378"/>
       <c r="J378" t="n">
@@ -21450,13 +21444,13 @@
         <v>19</v>
       </c>
       <c r="F379" t="s">
+        <v>30</v>
+      </c>
+      <c r="G379" t="s">
         <v>31</v>
       </c>
-      <c r="G379" t="s">
-        <v>32</v>
-      </c>
       <c r="H379" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I379"/>
       <c r="J379" t="n">
@@ -21609,7 +21603,7 @@
         <v>21</v>
       </c>
       <c r="H382" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I382"/>
       <c r="J382" t="n">
@@ -21654,10 +21648,10 @@
         <v>50</v>
       </c>
       <c r="F383" t="s">
+        <v>30</v>
+      </c>
+      <c r="G383" t="s">
         <v>31</v>
-      </c>
-      <c r="G383" t="s">
-        <v>32</v>
       </c>
       <c r="H383"/>
       <c r="I383"/>
@@ -21703,13 +21697,13 @@
         <v>50</v>
       </c>
       <c r="F384" t="s">
+        <v>30</v>
+      </c>
+      <c r="G384" t="s">
         <v>31</v>
       </c>
-      <c r="G384" t="s">
-        <v>32</v>
-      </c>
       <c r="H384" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I384"/>
       <c r="J384" t="n">
@@ -21754,13 +21748,13 @@
         <v>50</v>
       </c>
       <c r="F385" t="s">
+        <v>30</v>
+      </c>
+      <c r="G385" t="s">
         <v>31</v>
       </c>
-      <c r="G385" t="s">
-        <v>32</v>
-      </c>
       <c r="H385" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I385"/>
       <c r="J385" t="n">
@@ -21802,13 +21796,13 @@
         <v>5</v>
       </c>
       <c r="E386" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F386" t="s">
+        <v>30</v>
+      </c>
+      <c r="G386" t="s">
         <v>31</v>
-      </c>
-      <c r="G386" t="s">
-        <v>32</v>
       </c>
       <c r="H386"/>
       <c r="I386"/>
@@ -21854,10 +21848,10 @@
         <v>19</v>
       </c>
       <c r="F387" t="s">
+        <v>30</v>
+      </c>
+      <c r="G387" t="s">
         <v>31</v>
-      </c>
-      <c r="G387" t="s">
-        <v>32</v>
       </c>
       <c r="H387"/>
       <c r="I387"/>
@@ -21900,13 +21894,13 @@
         <v>10</v>
       </c>
       <c r="E388" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F388" t="s">
+        <v>30</v>
+      </c>
+      <c r="G388" t="s">
         <v>31</v>
-      </c>
-      <c r="G388" t="s">
-        <v>32</v>
       </c>
       <c r="H388"/>
       <c r="I388"/>
@@ -21949,13 +21943,13 @@
         <v>10</v>
       </c>
       <c r="E389" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F389" t="s">
+        <v>30</v>
+      </c>
+      <c r="G389" t="s">
         <v>31</v>
-      </c>
-      <c r="G389" t="s">
-        <v>32</v>
       </c>
       <c r="H389"/>
       <c r="I389"/>
@@ -21998,10 +21992,10 @@
         <v>7</v>
       </c>
       <c r="E390" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F390" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G390" t="s">
         <v>21</v>
@@ -22052,10 +22046,10 @@
         <v>23</v>
       </c>
       <c r="F391" t="s">
+        <v>30</v>
+      </c>
+      <c r="G391" t="s">
         <v>31</v>
-      </c>
-      <c r="G391" t="s">
-        <v>32</v>
       </c>
       <c r="H391"/>
       <c r="I391"/>
@@ -22098,13 +22092,13 @@
         <v>3</v>
       </c>
       <c r="E392" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F392" t="s">
+        <v>30</v>
+      </c>
+      <c r="G392" t="s">
         <v>31</v>
-      </c>
-      <c r="G392" t="s">
-        <v>32</v>
       </c>
       <c r="H392"/>
       <c r="I392"/>
@@ -22147,13 +22141,13 @@
         <v>3</v>
       </c>
       <c r="E393" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F393" t="s">
+        <v>30</v>
+      </c>
+      <c r="G393" t="s">
         <v>31</v>
-      </c>
-      <c r="G393" t="s">
-        <v>32</v>
       </c>
       <c r="H393"/>
       <c r="I393"/>
@@ -22196,7 +22190,7 @@
         <v>1</v>
       </c>
       <c r="E394" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F394" t="s">
         <v>20</v>
@@ -22205,7 +22199,7 @@
         <v>21</v>
       </c>
       <c r="H394" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I394"/>
       <c r="J394" t="n">
@@ -22247,7 +22241,7 @@
         <v>4</v>
       </c>
       <c r="E395" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F395" t="s">
         <v>20</v>
@@ -22256,7 +22250,7 @@
         <v>21</v>
       </c>
       <c r="H395" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I395"/>
       <c r="J395" t="n">
@@ -22298,7 +22292,7 @@
         <v>5</v>
       </c>
       <c r="E396" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F396" t="s">
         <v>20</v>
@@ -22405,7 +22399,7 @@
         <v>21</v>
       </c>
       <c r="H398" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I398"/>
       <c r="J398" t="n">
@@ -22447,7 +22441,7 @@
         <v>5</v>
       </c>
       <c r="E399" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F399" t="s">
         <v>235</v>
@@ -22505,7 +22499,7 @@
         <v>21</v>
       </c>
       <c r="H400" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I400"/>
       <c r="J400" t="n">
@@ -22547,10 +22541,10 @@
         <v>5</v>
       </c>
       <c r="E401" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F401" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G401" t="s">
         <v>21</v>
@@ -22596,7 +22590,7 @@
         <v>10</v>
       </c>
       <c r="E402" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F402" t="s">
         <v>265</v>
@@ -22645,7 +22639,7 @@
         <v>2</v>
       </c>
       <c r="E403" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F403" t="s">
         <v>20</v>
@@ -22654,7 +22648,7 @@
         <v>21</v>
       </c>
       <c r="H403" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I403"/>
       <c r="J403" t="n">
@@ -22699,13 +22693,13 @@
         <v>23</v>
       </c>
       <c r="F404" t="s">
+        <v>30</v>
+      </c>
+      <c r="G404" t="s">
         <v>31</v>
       </c>
-      <c r="G404" t="s">
-        <v>32</v>
-      </c>
       <c r="H404" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I404"/>
       <c r="J404" t="n">
@@ -22756,7 +22750,7 @@
         <v>21</v>
       </c>
       <c r="H405" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I405"/>
       <c r="J405" t="n">
@@ -22798,16 +22792,16 @@
         <v>4</v>
       </c>
       <c r="E406" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F406" t="s">
+        <v>26</v>
+      </c>
+      <c r="G406" t="s">
         <v>27</v>
       </c>
-      <c r="G406" t="s">
+      <c r="H406" t="s">
         <v>28</v>
-      </c>
-      <c r="H406" t="s">
-        <v>29</v>
       </c>
       <c r="I406"/>
       <c r="J406" t="n">
@@ -22849,13 +22843,13 @@
         <v>4</v>
       </c>
       <c r="E407" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F407" t="s">
+        <v>26</v>
+      </c>
+      <c r="G407" t="s">
         <v>27</v>
-      </c>
-      <c r="G407" t="s">
-        <v>28</v>
       </c>
       <c r="H407"/>
       <c r="I407"/>
@@ -22898,10 +22892,10 @@
         <v>5</v>
       </c>
       <c r="E408" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F408" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G408" t="s">
         <v>92</v>
@@ -22951,7 +22945,7 @@
         <v>5</v>
       </c>
       <c r="E409" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F409" t="s">
         <v>195</v>
@@ -23004,10 +22998,10 @@
         <v>5</v>
       </c>
       <c r="E410" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F410" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G410" t="s">
         <v>92</v>
@@ -23055,13 +23049,13 @@
         <v>5</v>
       </c>
       <c r="E411" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F411" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G411" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H411"/>
       <c r="I411" t="s">
@@ -23106,13 +23100,13 @@
         <v>5</v>
       </c>
       <c r="E412" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F412" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G412" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H412"/>
       <c r="I412"/>
@@ -23206,7 +23200,7 @@
         <v>6</v>
       </c>
       <c r="E414" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F414" t="s">
         <v>20</v>
@@ -23257,7 +23251,7 @@
         <v>11</v>
       </c>
       <c r="E415" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F415" t="s">
         <v>20</v>
@@ -23317,7 +23311,7 @@
         <v>21</v>
       </c>
       <c r="H416" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I416" t="s">
         <v>411</v>
@@ -24283,13 +24277,13 @@
         <v>5</v>
       </c>
       <c r="E435" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F435" t="s">
         <v>136</v>
       </c>
       <c r="G435" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H435"/>
       <c r="I435"/>
@@ -24433,13 +24427,13 @@
         <v>50</v>
       </c>
       <c r="F438" t="s">
+        <v>30</v>
+      </c>
+      <c r="G438" t="s">
         <v>31</v>
       </c>
-      <c r="G438" t="s">
-        <v>32</v>
-      </c>
       <c r="H438" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I438"/>
       <c r="J438" t="n">
@@ -24481,7 +24475,7 @@
         <v>5</v>
       </c>
       <c r="E439" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F439" t="s">
         <v>117</v>
@@ -24529,9 +24523,7 @@
       <c r="D440" t="n">
         <v>14</v>
       </c>
-      <c r="E440" t="s">
-        <v>25</v>
-      </c>
+      <c r="E440"/>
       <c r="F440" t="s">
         <v>20</v>
       </c>
@@ -24576,9 +24568,7 @@
       <c r="D441" t="n">
         <v>15</v>
       </c>
-      <c r="E441" t="s">
-        <v>50</v>
-      </c>
+      <c r="E441"/>
       <c r="F441" t="s">
         <v>91</v>
       </c>
@@ -24623,9 +24613,7 @@
       <c r="D442" t="n">
         <v>14</v>
       </c>
-      <c r="E442" t="s">
-        <v>19</v>
-      </c>
+      <c r="E442"/>
       <c r="F442" t="s">
         <v>91</v>
       </c>
@@ -24670,9 +24658,7 @@
       <c r="D443" t="n">
         <v>15</v>
       </c>
-      <c r="E443" t="s">
-        <v>19</v>
-      </c>
+      <c r="E443"/>
       <c r="F443" t="s">
         <v>91</v>
       </c>
@@ -24717,9 +24703,7 @@
       <c r="D444" t="n">
         <v>15</v>
       </c>
-      <c r="E444" t="s">
-        <v>19</v>
-      </c>
+      <c r="E444"/>
       <c r="F444" t="s">
         <v>20</v>
       </c>
@@ -24764,9 +24748,7 @@
       <c r="D445" t="n">
         <v>15</v>
       </c>
-      <c r="E445" t="s">
-        <v>50</v>
-      </c>
+      <c r="E445"/>
       <c r="F445" t="s">
         <v>20</v>
       </c>
@@ -24811,9 +24793,7 @@
       <c r="D446" t="n">
         <v>14</v>
       </c>
-      <c r="E446" t="s">
-        <v>19</v>
-      </c>
+      <c r="E446"/>
       <c r="F446" t="s">
         <v>20</v>
       </c>
@@ -24858,9 +24838,7 @@
       <c r="D447" t="n">
         <v>15</v>
       </c>
-      <c r="E447" t="s">
-        <v>50</v>
-      </c>
+      <c r="E447"/>
       <c r="F447" t="s">
         <v>91</v>
       </c>
@@ -24905,9 +24883,7 @@
       <c r="D448" t="n">
         <v>15</v>
       </c>
-      <c r="E448" t="s">
-        <v>19</v>
-      </c>
+      <c r="E448"/>
       <c r="F448" t="s">
         <v>117</v>
       </c>
@@ -24952,9 +24928,7 @@
       <c r="D449" t="n">
         <v>15</v>
       </c>
-      <c r="E449" t="s">
-        <v>19</v>
-      </c>
+      <c r="E449"/>
       <c r="F449" t="s">
         <v>91</v>
       </c>
@@ -24999,9 +24973,7 @@
       <c r="D450" t="n">
         <v>15</v>
       </c>
-      <c r="E450" t="s">
-        <v>19</v>
-      </c>
+      <c r="E450"/>
       <c r="F450" t="s">
         <v>20</v>
       </c>
@@ -25046,9 +25018,7 @@
       <c r="D451" t="n">
         <v>15</v>
       </c>
-      <c r="E451" t="s">
-        <v>19</v>
-      </c>
+      <c r="E451"/>
       <c r="F451" t="s">
         <v>20</v>
       </c>
@@ -25091,9 +25061,7 @@
       <c r="D452" t="n">
         <v>15</v>
       </c>
-      <c r="E452" t="s">
-        <v>50</v>
-      </c>
+      <c r="E452"/>
       <c r="F452" t="s">
         <v>20</v>
       </c>
@@ -25136,9 +25104,7 @@
       <c r="D453" t="n">
         <v>15</v>
       </c>
-      <c r="E453" t="s">
-        <v>50</v>
-      </c>
+      <c r="E453"/>
       <c r="F453" t="s">
         <v>141</v>
       </c>
@@ -25181,9 +25147,7 @@
       <c r="D454" t="n">
         <v>15</v>
       </c>
-      <c r="E454" t="s">
-        <v>19</v>
-      </c>
+      <c r="E454"/>
       <c r="F454" t="s">
         <v>91</v>
       </c>
@@ -25226,9 +25190,7 @@
       <c r="D455" t="n">
         <v>15</v>
       </c>
-      <c r="E455" t="s">
-        <v>19</v>
-      </c>
+      <c r="E455"/>
       <c r="F455" t="s">
         <v>91</v>
       </c>
@@ -25271,9 +25233,7 @@
       <c r="D456" t="n">
         <v>15</v>
       </c>
-      <c r="E456" t="s">
-        <v>19</v>
-      </c>
+      <c r="E456"/>
       <c r="F456" t="s">
         <v>20</v>
       </c>
@@ -25316,9 +25276,7 @@
       <c r="D457" t="n">
         <v>15</v>
       </c>
-      <c r="E457" t="s">
-        <v>19</v>
-      </c>
+      <c r="E457"/>
       <c r="F457" t="s">
         <v>20</v>
       </c>
@@ -25361,9 +25319,7 @@
       <c r="D458" t="n">
         <v>15</v>
       </c>
-      <c r="E458" t="s">
-        <v>19</v>
-      </c>
+      <c r="E458"/>
       <c r="F458" t="s">
         <v>20</v>
       </c>
@@ -25406,9 +25362,7 @@
       <c r="D459" t="n">
         <v>15</v>
       </c>
-      <c r="E459" t="s">
-        <v>19</v>
-      </c>
+      <c r="E459"/>
       <c r="F459" t="s">
         <v>20</v>
       </c>
@@ -25451,11 +25405,9 @@
       <c r="D460" t="n">
         <v>15</v>
       </c>
-      <c r="E460" t="s">
-        <v>19</v>
-      </c>
+      <c r="E460"/>
       <c r="F460" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G460" t="s">
         <v>21</v>
@@ -25496,14 +25448,12 @@
       <c r="D461" t="n">
         <v>15</v>
       </c>
-      <c r="E461" t="s">
-        <v>50</v>
-      </c>
+      <c r="E461"/>
       <c r="F461" t="s">
         <v>136</v>
       </c>
       <c r="G461" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H461"/>
       <c r="I461"/>
@@ -25541,9 +25491,7 @@
       <c r="D462" t="n">
         <v>15</v>
       </c>
-      <c r="E462" t="s">
-        <v>50</v>
-      </c>
+      <c r="E462"/>
       <c r="F462" t="s">
         <v>91</v>
       </c>
@@ -25586,9 +25534,7 @@
       <c r="D463" t="n">
         <v>15</v>
       </c>
-      <c r="E463" t="s">
-        <v>50</v>
-      </c>
+      <c r="E463"/>
       <c r="F463" t="s">
         <v>91</v>
       </c>
@@ -25631,9 +25577,7 @@
       <c r="D464" t="n">
         <v>15</v>
       </c>
-      <c r="E464" t="s">
-        <v>50</v>
-      </c>
+      <c r="E464"/>
       <c r="F464" t="s">
         <v>20</v>
       </c>
@@ -25676,9 +25620,7 @@
       <c r="D465" t="n">
         <v>15</v>
       </c>
-      <c r="E465" t="s">
-        <v>50</v>
-      </c>
+      <c r="E465"/>
       <c r="F465" t="s">
         <v>20</v>
       </c>
@@ -25721,9 +25663,7 @@
       <c r="D466" t="n">
         <v>15</v>
       </c>
-      <c r="E466" t="s">
-        <v>19</v>
-      </c>
+      <c r="E466"/>
       <c r="F466" t="s">
         <v>91</v>
       </c>
@@ -25766,9 +25706,7 @@
       <c r="D467" t="n">
         <v>15</v>
       </c>
-      <c r="E467" t="s">
-        <v>19</v>
-      </c>
+      <c r="E467"/>
       <c r="F467" t="s">
         <v>20</v>
       </c>
@@ -25811,14 +25749,12 @@
       <c r="D468" t="n">
         <v>15</v>
       </c>
-      <c r="E468" t="s">
-        <v>19</v>
-      </c>
+      <c r="E468"/>
       <c r="F468" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G468" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H468"/>
       <c r="I468"/>
@@ -25856,9 +25792,7 @@
       <c r="D469" t="n">
         <v>15</v>
       </c>
-      <c r="E469" t="s">
-        <v>19</v>
-      </c>
+      <c r="E469"/>
       <c r="F469" t="s">
         <v>20</v>
       </c>
@@ -25903,9 +25837,7 @@
       <c r="D470" t="n">
         <v>15</v>
       </c>
-      <c r="E470" t="s">
-        <v>19</v>
-      </c>
+      <c r="E470"/>
       <c r="F470" t="s">
         <v>91</v>
       </c>
@@ -25951,13 +25883,13 @@
         <v>5</v>
       </c>
       <c r="E471" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F471" t="s">
+        <v>30</v>
+      </c>
+      <c r="G471" t="s">
         <v>31</v>
-      </c>
-      <c r="G471" t="s">
-        <v>32</v>
       </c>
       <c r="H471"/>
       <c r="I471"/>
@@ -26003,10 +25935,10 @@
         <v>23</v>
       </c>
       <c r="F472" t="s">
+        <v>30</v>
+      </c>
+      <c r="G472" t="s">
         <v>31</v>
-      </c>
-      <c r="G472" t="s">
-        <v>32</v>
       </c>
       <c r="H472"/>
       <c r="I472"/>
@@ -26098,7 +26030,7 @@
         <v>4</v>
       </c>
       <c r="E474" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F474" t="s">
         <v>20</v>
@@ -26197,9 +26129,7 @@
       <c r="D476" t="n">
         <v>15</v>
       </c>
-      <c r="E476" t="s">
-        <v>19</v>
-      </c>
+      <c r="E476"/>
       <c r="F476" t="s">
         <v>91</v>
       </c>
@@ -26246,9 +26176,7 @@
       <c r="D477" t="n">
         <v>15</v>
       </c>
-      <c r="E477" t="s">
-        <v>50</v>
-      </c>
+      <c r="E477"/>
       <c r="F477" t="s">
         <v>91</v>
       </c>
@@ -26295,9 +26223,7 @@
       <c r="D478" t="n">
         <v>15</v>
       </c>
-      <c r="E478" t="s">
-        <v>19</v>
-      </c>
+      <c r="E478"/>
       <c r="F478" t="s">
         <v>91</v>
       </c>
@@ -26401,7 +26327,7 @@
         <v>92</v>
       </c>
       <c r="H480" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I480"/>
       <c r="J480" t="n">
@@ -26494,7 +26420,7 @@
         <v>5</v>
       </c>
       <c r="E482" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F482" t="s">
         <v>20</v>
@@ -26554,7 +26480,7 @@
         <v>21</v>
       </c>
       <c r="H483" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I483"/>
       <c r="J483" t="n">
@@ -26596,7 +26522,7 @@
         <v>5</v>
       </c>
       <c r="E484" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F484" t="s">
         <v>20</v>
@@ -26605,7 +26531,7 @@
         <v>21</v>
       </c>
       <c r="H484" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I484"/>
       <c r="J484" t="n">
@@ -26656,7 +26582,7 @@
         <v>21</v>
       </c>
       <c r="H485" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I485"/>
       <c r="J485" t="n">
@@ -26697,11 +26623,9 @@
       <c r="D486" t="n">
         <v>15</v>
       </c>
-      <c r="E486" t="s">
-        <v>19</v>
-      </c>
+      <c r="E486"/>
       <c r="F486" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G486" t="s">
         <v>21</v>
@@ -26744,9 +26668,7 @@
       <c r="D487" t="n">
         <v>15</v>
       </c>
-      <c r="E487" t="s">
-        <v>19</v>
-      </c>
+      <c r="E487"/>
       <c r="F487" t="s">
         <v>20</v>
       </c>
@@ -26791,9 +26713,7 @@
       <c r="D488" t="n">
         <v>15</v>
       </c>
-      <c r="E488" t="s">
-        <v>19</v>
-      </c>
+      <c r="E488"/>
       <c r="F488" t="s">
         <v>20</v>
       </c>
@@ -26840,9 +26760,7 @@
       <c r="D489" t="n">
         <v>15</v>
       </c>
-      <c r="E489" t="s">
-        <v>19</v>
-      </c>
+      <c r="E489"/>
       <c r="F489" t="s">
         <v>20</v>
       </c>
@@ -26885,9 +26803,7 @@
       <c r="D490" t="n">
         <v>15</v>
       </c>
-      <c r="E490" t="s">
-        <v>19</v>
-      </c>
+      <c r="E490"/>
       <c r="F490" t="s">
         <v>91</v>
       </c>
@@ -26932,14 +26848,12 @@
       <c r="D491" t="n">
         <v>14</v>
       </c>
-      <c r="E491" t="s">
-        <v>50</v>
-      </c>
+      <c r="E491"/>
       <c r="F491" t="s">
+        <v>30</v>
+      </c>
+      <c r="G491" t="s">
         <v>31</v>
-      </c>
-      <c r="G491" t="s">
-        <v>32</v>
       </c>
       <c r="H491" t="s">
         <v>514</v>
@@ -26979,14 +26893,12 @@
       <c r="D492" t="n">
         <v>14</v>
       </c>
-      <c r="E492" t="s">
-        <v>19</v>
-      </c>
+      <c r="E492"/>
       <c r="F492" t="s">
+        <v>30</v>
+      </c>
+      <c r="G492" t="s">
         <v>31</v>
-      </c>
-      <c r="G492" t="s">
-        <v>32</v>
       </c>
       <c r="H492" t="s">
         <v>514</v>
@@ -27026,9 +26938,7 @@
       <c r="D493" t="n">
         <v>14</v>
       </c>
-      <c r="E493" t="s">
-        <v>19</v>
-      </c>
+      <c r="E493"/>
       <c r="F493" t="s">
         <v>91</v>
       </c>
@@ -27073,14 +26983,12 @@
       <c r="D494" t="n">
         <v>14</v>
       </c>
-      <c r="E494" t="s">
-        <v>50</v>
-      </c>
+      <c r="E494"/>
       <c r="F494" t="s">
+        <v>30</v>
+      </c>
+      <c r="G494" t="s">
         <v>31</v>
-      </c>
-      <c r="G494" t="s">
-        <v>32</v>
       </c>
       <c r="H494" t="s">
         <v>514</v>
@@ -27120,9 +27028,7 @@
       <c r="D495" t="n">
         <v>15</v>
       </c>
-      <c r="E495" t="s">
-        <v>19</v>
-      </c>
+      <c r="E495"/>
       <c r="F495" t="s">
         <v>91</v>
       </c>
@@ -27167,14 +27073,12 @@
       <c r="D496" t="n">
         <v>15</v>
       </c>
-      <c r="E496" t="s">
-        <v>19</v>
-      </c>
+      <c r="E496"/>
       <c r="F496" t="s">
+        <v>30</v>
+      </c>
+      <c r="G496" t="s">
         <v>31</v>
-      </c>
-      <c r="G496" t="s">
-        <v>32</v>
       </c>
       <c r="H496" t="s">
         <v>514</v>
@@ -27214,9 +27118,7 @@
       <c r="D497" t="n">
         <v>15</v>
       </c>
-      <c r="E497" t="s">
-        <v>19</v>
-      </c>
+      <c r="E497"/>
       <c r="F497" t="s">
         <v>91</v>
       </c>
@@ -27261,9 +27163,7 @@
       <c r="D498" t="n">
         <v>14</v>
       </c>
-      <c r="E498" t="s">
-        <v>50</v>
-      </c>
+      <c r="E498"/>
       <c r="F498" t="s">
         <v>20</v>
       </c>
@@ -27308,9 +27208,7 @@
       <c r="D499" t="n">
         <v>14</v>
       </c>
-      <c r="E499" t="s">
-        <v>19</v>
-      </c>
+      <c r="E499"/>
       <c r="F499" t="s">
         <v>20</v>
       </c>
@@ -27355,14 +27253,12 @@
       <c r="D500" t="n">
         <v>15</v>
       </c>
-      <c r="E500" t="s">
-        <v>19</v>
-      </c>
+      <c r="E500"/>
       <c r="F500" t="s">
+        <v>30</v>
+      </c>
+      <c r="G500" t="s">
         <v>31</v>
-      </c>
-      <c r="G500" t="s">
-        <v>32</v>
       </c>
       <c r="H500"/>
       <c r="I500"/>
@@ -27400,14 +27296,12 @@
       <c r="D501" t="n">
         <v>14</v>
       </c>
-      <c r="E501" t="s">
-        <v>19</v>
-      </c>
+      <c r="E501"/>
       <c r="F501" t="s">
+        <v>30</v>
+      </c>
+      <c r="G501" t="s">
         <v>31</v>
-      </c>
-      <c r="G501" t="s">
-        <v>32</v>
       </c>
       <c r="H501" t="s">
         <v>514</v>
@@ -27447,9 +27341,7 @@
       <c r="D502" t="n">
         <v>15</v>
       </c>
-      <c r="E502" t="s">
-        <v>19</v>
-      </c>
+      <c r="E502"/>
       <c r="F502" t="s">
         <v>91</v>
       </c>
@@ -27493,10 +27385,10 @@
         <v>5</v>
       </c>
       <c r="E503" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F503" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G503" t="s">
         <v>92</v>
@@ -27542,13 +27434,13 @@
         <v>5</v>
       </c>
       <c r="E504" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F504" t="s">
+        <v>30</v>
+      </c>
+      <c r="G504" t="s">
         <v>31</v>
-      </c>
-      <c r="G504" t="s">
-        <v>32</v>
       </c>
       <c r="H504" t="s">
         <v>284</v>
@@ -27596,10 +27488,10 @@
         <v>50</v>
       </c>
       <c r="F505" t="s">
+        <v>30</v>
+      </c>
+      <c r="G505" t="s">
         <v>31</v>
-      </c>
-      <c r="G505" t="s">
-        <v>32</v>
       </c>
       <c r="H505" t="s">
         <v>284</v>
@@ -27647,10 +27539,10 @@
         <v>50</v>
       </c>
       <c r="F506" t="s">
+        <v>30</v>
+      </c>
+      <c r="G506" t="s">
         <v>31</v>
-      </c>
-      <c r="G506" t="s">
-        <v>32</v>
       </c>
       <c r="H506" t="s">
         <v>284</v>
@@ -27698,10 +27590,10 @@
         <v>50</v>
       </c>
       <c r="F507" t="s">
+        <v>30</v>
+      </c>
+      <c r="G507" t="s">
         <v>31</v>
-      </c>
-      <c r="G507" t="s">
-        <v>32</v>
       </c>
       <c r="H507" t="s">
         <v>120</v>
@@ -27746,13 +27638,13 @@
         <v>5</v>
       </c>
       <c r="E508" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F508" t="s">
+        <v>30</v>
+      </c>
+      <c r="G508" t="s">
         <v>31</v>
-      </c>
-      <c r="G508" t="s">
-        <v>32</v>
       </c>
       <c r="H508" t="s">
         <v>120</v>
@@ -27800,10 +27692,10 @@
         <v>50</v>
       </c>
       <c r="F509" t="s">
+        <v>30</v>
+      </c>
+      <c r="G509" t="s">
         <v>31</v>
-      </c>
-      <c r="G509" t="s">
-        <v>32</v>
       </c>
       <c r="H509" t="s">
         <v>120</v>
@@ -27953,10 +27845,10 @@
         <v>50</v>
       </c>
       <c r="F512" t="s">
+        <v>30</v>
+      </c>
+      <c r="G512" t="s">
         <v>31</v>
-      </c>
-      <c r="G512" t="s">
-        <v>32</v>
       </c>
       <c r="H512" t="s">
         <v>284</v>
@@ -28004,10 +27896,10 @@
         <v>50</v>
       </c>
       <c r="F513" t="s">
+        <v>30</v>
+      </c>
+      <c r="G513" t="s">
         <v>31</v>
-      </c>
-      <c r="G513" t="s">
-        <v>32</v>
       </c>
       <c r="H513" t="s">
         <v>284</v>
@@ -28055,10 +27947,10 @@
         <v>50</v>
       </c>
       <c r="F514" t="s">
+        <v>30</v>
+      </c>
+      <c r="G514" t="s">
         <v>31</v>
-      </c>
-      <c r="G514" t="s">
-        <v>32</v>
       </c>
       <c r="H514" t="s">
         <v>120</v>
@@ -28106,10 +27998,10 @@
         <v>50</v>
       </c>
       <c r="F515" t="s">
+        <v>30</v>
+      </c>
+      <c r="G515" t="s">
         <v>31</v>
-      </c>
-      <c r="G515" t="s">
-        <v>32</v>
       </c>
       <c r="H515" t="s">
         <v>120</v>
@@ -28157,10 +28049,10 @@
         <v>50</v>
       </c>
       <c r="F516" t="s">
+        <v>30</v>
+      </c>
+      <c r="G516" t="s">
         <v>31</v>
-      </c>
-      <c r="G516" t="s">
-        <v>32</v>
       </c>
       <c r="H516" t="s">
         <v>120</v>
@@ -28208,10 +28100,10 @@
         <v>50</v>
       </c>
       <c r="F517" t="s">
+        <v>30</v>
+      </c>
+      <c r="G517" t="s">
         <v>31</v>
-      </c>
-      <c r="G517" t="s">
-        <v>32</v>
       </c>
       <c r="H517" t="s">
         <v>120</v>
@@ -28259,10 +28151,10 @@
         <v>50</v>
       </c>
       <c r="F518" t="s">
+        <v>30</v>
+      </c>
+      <c r="G518" t="s">
         <v>31</v>
-      </c>
-      <c r="G518" t="s">
-        <v>32</v>
       </c>
       <c r="H518" t="s">
         <v>120</v>
@@ -28307,13 +28199,13 @@
         <v>5</v>
       </c>
       <c r="E519" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F519" t="s">
+        <v>30</v>
+      </c>
+      <c r="G519" t="s">
         <v>31</v>
-      </c>
-      <c r="G519" t="s">
-        <v>32</v>
       </c>
       <c r="H519" t="s">
         <v>120</v>
@@ -28361,10 +28253,10 @@
         <v>50</v>
       </c>
       <c r="F520" t="s">
+        <v>30</v>
+      </c>
+      <c r="G520" t="s">
         <v>31</v>
-      </c>
-      <c r="G520" t="s">
-        <v>32</v>
       </c>
       <c r="H520" t="s">
         <v>120</v>
@@ -28409,13 +28301,13 @@
         <v>5</v>
       </c>
       <c r="E521" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F521" t="s">
+        <v>30</v>
+      </c>
+      <c r="G521" t="s">
         <v>31</v>
-      </c>
-      <c r="G521" t="s">
-        <v>32</v>
       </c>
       <c r="H521" t="s">
         <v>120</v>
@@ -28466,7 +28358,7 @@
         <v>136</v>
       </c>
       <c r="G522" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H522" t="s">
         <v>120</v>
@@ -28511,13 +28403,13 @@
         <v>5</v>
       </c>
       <c r="E523" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F523" t="s">
         <v>136</v>
       </c>
       <c r="G523" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H523" t="s">
         <v>120</v>
@@ -28562,13 +28454,13 @@
         <v>5</v>
       </c>
       <c r="E524" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F524" t="s">
         <v>136</v>
       </c>
       <c r="G524" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H524" t="s">
         <v>120</v>
@@ -28613,13 +28505,13 @@
         <v>5</v>
       </c>
       <c r="E525" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F525" t="s">
+        <v>30</v>
+      </c>
+      <c r="G525" t="s">
         <v>31</v>
-      </c>
-      <c r="G525" t="s">
-        <v>32</v>
       </c>
       <c r="H525" t="s">
         <v>120</v>
@@ -28664,13 +28556,13 @@
         <v>5</v>
       </c>
       <c r="E526" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F526" t="s">
+        <v>30</v>
+      </c>
+      <c r="G526" t="s">
         <v>31</v>
-      </c>
-      <c r="G526" t="s">
-        <v>32</v>
       </c>
       <c r="H526" t="s">
         <v>284</v>
@@ -28715,7 +28607,7 @@
         <v>5</v>
       </c>
       <c r="E527" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F527" t="s">
         <v>20</v>
@@ -28769,10 +28661,10 @@
         <v>50</v>
       </c>
       <c r="F528" t="s">
+        <v>30</v>
+      </c>
+      <c r="G528" t="s">
         <v>31</v>
-      </c>
-      <c r="G528" t="s">
-        <v>32</v>
       </c>
       <c r="H528" t="s">
         <v>604</v>
@@ -28919,13 +28811,13 @@
         <v>5</v>
       </c>
       <c r="E531" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F531" t="s">
+        <v>30</v>
+      </c>
+      <c r="G531" t="s">
         <v>31</v>
-      </c>
-      <c r="G531" t="s">
-        <v>32</v>
       </c>
       <c r="H531"/>
       <c r="I531"/>
@@ -28968,13 +28860,13 @@
         <v>5</v>
       </c>
       <c r="E532" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F532" t="s">
+        <v>30</v>
+      </c>
+      <c r="G532" t="s">
         <v>31</v>
-      </c>
-      <c r="G532" t="s">
-        <v>32</v>
       </c>
       <c r="H532" t="s">
         <v>120</v>
@@ -29019,13 +28911,13 @@
         <v>5</v>
       </c>
       <c r="E533" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F533" t="s">
+        <v>30</v>
+      </c>
+      <c r="G533" t="s">
         <v>31</v>
-      </c>
-      <c r="G533" t="s">
-        <v>32</v>
       </c>
       <c r="H533" t="s">
         <v>120</v>
@@ -29121,16 +29013,16 @@
         <v>5</v>
       </c>
       <c r="E535" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F535" t="s">
+        <v>30</v>
+      </c>
+      <c r="G535" t="s">
         <v>31</v>
       </c>
-      <c r="G535" t="s">
-        <v>32</v>
-      </c>
       <c r="H535" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I535"/>
       <c r="J535" t="n">
@@ -29175,10 +29067,10 @@
         <v>19</v>
       </c>
       <c r="F536" t="s">
+        <v>30</v>
+      </c>
+      <c r="G536" t="s">
         <v>31</v>
-      </c>
-      <c r="G536" t="s">
-        <v>32</v>
       </c>
       <c r="H536"/>
       <c r="I536"/>
@@ -29221,16 +29113,16 @@
         <v>5</v>
       </c>
       <c r="E537" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F537" t="s">
+        <v>30</v>
+      </c>
+      <c r="G537" t="s">
         <v>31</v>
       </c>
-      <c r="G537" t="s">
-        <v>32</v>
-      </c>
       <c r="H537" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I537"/>
       <c r="J537" t="n">
@@ -29275,13 +29167,13 @@
         <v>19</v>
       </c>
       <c r="F538" t="s">
+        <v>30</v>
+      </c>
+      <c r="G538" t="s">
         <v>31</v>
       </c>
-      <c r="G538" t="s">
-        <v>32</v>
-      </c>
       <c r="H538" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I538"/>
       <c r="J538" t="n">
@@ -29323,16 +29215,16 @@
         <v>6</v>
       </c>
       <c r="E539" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F539" t="s">
+        <v>30</v>
+      </c>
+      <c r="G539" t="s">
         <v>31</v>
       </c>
-      <c r="G539" t="s">
-        <v>32</v>
-      </c>
       <c r="H539" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I539"/>
       <c r="J539" t="n">
@@ -29377,13 +29269,13 @@
         <v>19</v>
       </c>
       <c r="F540" t="s">
+        <v>30</v>
+      </c>
+      <c r="G540" t="s">
         <v>31</v>
       </c>
-      <c r="G540" t="s">
-        <v>32</v>
-      </c>
       <c r="H540" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I540"/>
       <c r="J540" t="n">
@@ -29477,13 +29369,13 @@
         <v>19</v>
       </c>
       <c r="F542" t="s">
+        <v>30</v>
+      </c>
+      <c r="G542" t="s">
         <v>31</v>
       </c>
-      <c r="G542" t="s">
-        <v>32</v>
-      </c>
       <c r="H542" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I542"/>
       <c r="J542" t="n">
@@ -29525,13 +29417,13 @@
         <v>5</v>
       </c>
       <c r="E543" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F543" t="s">
+        <v>30</v>
+      </c>
+      <c r="G543" t="s">
         <v>31</v>
-      </c>
-      <c r="G543" t="s">
-        <v>32</v>
       </c>
       <c r="H543"/>
       <c r="I543" t="s">
@@ -29579,10 +29471,10 @@
         <v>19</v>
       </c>
       <c r="F544" t="s">
+        <v>30</v>
+      </c>
+      <c r="G544" t="s">
         <v>31</v>
-      </c>
-      <c r="G544" t="s">
-        <v>32</v>
       </c>
       <c r="H544" t="s">
         <v>120</v>
@@ -29627,16 +29519,16 @@
         <v>6</v>
       </c>
       <c r="E545" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F545" t="s">
+        <v>30</v>
+      </c>
+      <c r="G545" t="s">
         <v>31</v>
       </c>
-      <c r="G545" t="s">
-        <v>32</v>
-      </c>
       <c r="H545" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I545"/>
       <c r="J545" t="n">
@@ -29678,13 +29570,13 @@
         <v>6</v>
       </c>
       <c r="E546" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F546" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G546" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H546"/>
       <c r="I546"/>
@@ -29736,7 +29628,7 @@
         <v>21</v>
       </c>
       <c r="H547" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I547"/>
       <c r="J547" t="n">
@@ -29781,13 +29673,13 @@
         <v>19</v>
       </c>
       <c r="F548" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G548" t="s">
         <v>21</v>
       </c>
       <c r="H548" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I548"/>
       <c r="J548" t="n">
@@ -29832,7 +29724,7 @@
         <v>19</v>
       </c>
       <c r="F549" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G549" t="s">
         <v>21</v>
@@ -29881,7 +29773,7 @@
         <v>19</v>
       </c>
       <c r="F550" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G550" t="s">
         <v>21</v>
@@ -29984,7 +29876,7 @@
         <v>136</v>
       </c>
       <c r="G552" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H552" t="s">
         <v>120</v>
@@ -30032,10 +29924,10 @@
         <v>19</v>
       </c>
       <c r="F553" t="s">
+        <v>30</v>
+      </c>
+      <c r="G553" t="s">
         <v>31</v>
-      </c>
-      <c r="G553" t="s">
-        <v>32</v>
       </c>
       <c r="H553"/>
       <c r="I553"/>
@@ -30081,13 +29973,13 @@
         <v>23</v>
       </c>
       <c r="F554" t="s">
+        <v>30</v>
+      </c>
+      <c r="G554" t="s">
         <v>31</v>
       </c>
-      <c r="G554" t="s">
-        <v>32</v>
-      </c>
       <c r="H554" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I554"/>
       <c r="J554" t="n">
@@ -30129,7 +30021,7 @@
         <v>7</v>
       </c>
       <c r="E555" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F555" t="s">
         <v>20</v>
@@ -30138,7 +30030,7 @@
         <v>21</v>
       </c>
       <c r="H555" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I555"/>
       <c r="J555" t="n">
@@ -30180,16 +30072,16 @@
         <v>3</v>
       </c>
       <c r="E556" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F556" t="s">
+        <v>30</v>
+      </c>
+      <c r="G556" t="s">
         <v>31</v>
       </c>
-      <c r="G556" t="s">
-        <v>32</v>
-      </c>
       <c r="H556" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I556"/>
       <c r="J556" t="n">
@@ -30234,10 +30126,10 @@
         <v>23</v>
       </c>
       <c r="F557" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G557" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H557" t="s">
         <v>120</v>
@@ -30284,13 +30176,13 @@
         <v>10</v>
       </c>
       <c r="E558" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F558" t="s">
+        <v>30</v>
+      </c>
+      <c r="G558" t="s">
         <v>31</v>
-      </c>
-      <c r="G558" t="s">
-        <v>32</v>
       </c>
       <c r="H558" t="s">
         <v>120</v>
@@ -30335,7 +30227,7 @@
         <v>10</v>
       </c>
       <c r="E559" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F559" t="s">
         <v>91</v>
@@ -30344,7 +30236,7 @@
         <v>92</v>
       </c>
       <c r="H559" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I559" t="s">
         <v>411</v>
@@ -30388,16 +30280,16 @@
         <v>6</v>
       </c>
       <c r="E560" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F560" t="s">
+        <v>30</v>
+      </c>
+      <c r="G560" t="s">
         <v>31</v>
       </c>
-      <c r="G560" t="s">
-        <v>32</v>
-      </c>
       <c r="H560" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I560"/>
       <c r="J560" t="n">
@@ -30439,16 +30331,16 @@
         <v>11</v>
       </c>
       <c r="E561" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F561" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G561" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H561" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I561"/>
       <c r="J561" t="n">
@@ -30540,9 +30432,7 @@
       <c r="D563" t="n">
         <v>15</v>
       </c>
-      <c r="E563" t="s">
-        <v>19</v>
-      </c>
+      <c r="E563"/>
       <c r="F563" t="s">
         <v>117</v>
       </c>
@@ -30689,14 +30579,12 @@
       <c r="D566" t="n">
         <v>13</v>
       </c>
-      <c r="E566" t="s">
-        <v>19</v>
-      </c>
+      <c r="E566"/>
       <c r="F566" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G566" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H566" t="s">
         <v>398</v>
@@ -30746,7 +30634,7 @@
         <v>21</v>
       </c>
       <c r="H567" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I567"/>
       <c r="J567" t="n">
@@ -30966,7 +30854,7 @@
         <v>136</v>
       </c>
       <c r="G572" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H572"/>
       <c r="I572"/>
@@ -31007,7 +30895,7 @@
         <v>136</v>
       </c>
       <c r="G573" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H573"/>
       <c r="I573"/>
@@ -31045,10 +30933,10 @@
       </c>
       <c r="E574"/>
       <c r="F574" t="s">
+        <v>30</v>
+      </c>
+      <c r="G574" t="s">
         <v>31</v>
-      </c>
-      <c r="G574" t="s">
-        <v>32</v>
       </c>
       <c r="H574"/>
       <c r="I574"/>
@@ -31086,10 +30974,10 @@
       </c>
       <c r="E575"/>
       <c r="F575" t="s">
+        <v>30</v>
+      </c>
+      <c r="G575" t="s">
         <v>31</v>
-      </c>
-      <c r="G575" t="s">
-        <v>32</v>
       </c>
       <c r="H575"/>
       <c r="I575"/>
@@ -31127,10 +31015,10 @@
       </c>
       <c r="E576"/>
       <c r="F576" t="s">
+        <v>30</v>
+      </c>
+      <c r="G576" t="s">
         <v>31</v>
-      </c>
-      <c r="G576" t="s">
-        <v>32</v>
       </c>
       <c r="H576"/>
       <c r="I576"/>
@@ -31168,10 +31056,10 @@
       </c>
       <c r="E577"/>
       <c r="F577" t="s">
+        <v>30</v>
+      </c>
+      <c r="G577" t="s">
         <v>31</v>
-      </c>
-      <c r="G577" t="s">
-        <v>32</v>
       </c>
       <c r="H577"/>
       <c r="I577"/>
@@ -31291,10 +31179,10 @@
       </c>
       <c r="E580"/>
       <c r="F580" t="s">
+        <v>30</v>
+      </c>
+      <c r="G580" t="s">
         <v>31</v>
-      </c>
-      <c r="G580" t="s">
-        <v>32</v>
       </c>
       <c r="H580"/>
       <c r="I580"/>
@@ -31335,7 +31223,7 @@
         <v>269</v>
       </c>
       <c r="G581" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H581"/>
       <c r="I581"/>
@@ -31376,7 +31264,7 @@
         <v>269</v>
       </c>
       <c r="G582" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H582"/>
       <c r="I582"/>
@@ -31414,10 +31302,10 @@
       </c>
       <c r="E583"/>
       <c r="F583" t="s">
+        <v>30</v>
+      </c>
+      <c r="G583" t="s">
         <v>31</v>
-      </c>
-      <c r="G583" t="s">
-        <v>32</v>
       </c>
       <c r="H583"/>
       <c r="I583"/>
@@ -31455,10 +31343,10 @@
       </c>
       <c r="E584"/>
       <c r="F584" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G584" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H584"/>
       <c r="I584"/>
@@ -31496,7 +31384,7 @@
       </c>
       <c r="E585"/>
       <c r="F585" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G585" t="s">
         <v>92</v>
@@ -31537,10 +31425,10 @@
       </c>
       <c r="E586"/>
       <c r="F586" t="s">
+        <v>30</v>
+      </c>
+      <c r="G586" t="s">
         <v>31</v>
-      </c>
-      <c r="G586" t="s">
-        <v>32</v>
       </c>
       <c r="H586"/>
       <c r="I586"/>
@@ -32206,13 +32094,13 @@
         <v>2</v>
       </c>
       <c r="E604" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F604" t="s">
         <v>136</v>
       </c>
       <c r="G604" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H604"/>
       <c r="I604"/>
@@ -32255,10 +32143,10 @@
         <v>2</v>
       </c>
       <c r="E605" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F605" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G605" t="s">
         <v>21</v>
@@ -32304,7 +32192,7 @@
         <v>2</v>
       </c>
       <c r="E606" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F606" t="s">
         <v>20</v>
@@ -32353,13 +32241,13 @@
         <v>5</v>
       </c>
       <c r="E607" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F607" t="s">
+        <v>30</v>
+      </c>
+      <c r="G607" t="s">
         <v>31</v>
-      </c>
-      <c r="G607" t="s">
-        <v>32</v>
       </c>
       <c r="H607"/>
       <c r="I607"/>
@@ -32402,13 +32290,13 @@
         <v>5</v>
       </c>
       <c r="E608" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F608" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G608" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H608"/>
       <c r="I608"/>
@@ -32451,13 +32339,13 @@
         <v>5</v>
       </c>
       <c r="E609" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F609" t="s">
+        <v>30</v>
+      </c>
+      <c r="G609" t="s">
         <v>31</v>
-      </c>
-      <c r="G609" t="s">
-        <v>32</v>
       </c>
       <c r="H609"/>
       <c r="I609"/>
@@ -32500,13 +32388,13 @@
         <v>5</v>
       </c>
       <c r="E610" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F610" t="s">
+        <v>30</v>
+      </c>
+      <c r="G610" t="s">
         <v>31</v>
-      </c>
-      <c r="G610" t="s">
-        <v>32</v>
       </c>
       <c r="H610"/>
       <c r="I610"/>
@@ -32549,7 +32437,7 @@
         <v>5</v>
       </c>
       <c r="E611" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F611" t="s">
         <v>117</v>
@@ -32598,13 +32486,13 @@
         <v>4</v>
       </c>
       <c r="E612" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F612" t="s">
         <v>136</v>
       </c>
       <c r="G612" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H612"/>
       <c r="I612"/>
